--- a/datacovidhn/ALIMENTACION_HN.xlsx
+++ b/datacovidhn/ALIMENTACION_HN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID HN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="8_{2E7B08DD-615A-4A26-9C8E-D4330F5D4097}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D778511C-63F2-486D-A293-458A3E2EA258}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="8_{2E7B08DD-615A-4A26-9C8E-D4330F5D4097}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F03B9F55-79E6-4A72-BB03-E6C64086C376}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3997" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3997" uniqueCount="454">
   <si>
     <t>OBJECTID_1</t>
   </si>
@@ -408,9 +408,6 @@
     <t>031701</t>
   </si>
   <si>
-    <t>San Sebastiin</t>
-  </si>
-  <si>
     <t>HND-0317</t>
   </si>
   <si>
@@ -468,7 +465,7 @@
     <t>050807</t>
   </si>
   <si>
-    <t>R5o Lindo</t>
+    <t>Río Lindo</t>
   </si>
   <si>
     <t>HND-0508</t>
@@ -2368,8 +2365,8 @@
   <dimension ref="A1:V266"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="I49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O60" sqref="O60:O61"/>
+      <pane ySplit="1" topLeftCell="L96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O62" sqref="O62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
@@ -5298,13 +5295,13 @@
         <v>123</v>
       </c>
       <c r="O43" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q43" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="P43" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q43" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="R43" s="1" t="s">
         <v>33</v>
@@ -5313,7 +5310,7 @@
         <v>81</v>
       </c>
       <c r="T43" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U43" s="2">
         <v>15.779500000000001</v>
@@ -5381,7 +5378,7 @@
         <v>81</v>
       </c>
       <c r="T44" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U44" s="2">
         <v>15.779500000000001</v>
@@ -5585,7 +5582,7 @@
         <v>81</v>
       </c>
       <c r="T47" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="U47" s="2">
         <v>15.7797</v>
@@ -5925,7 +5922,7 @@
         <v>81</v>
       </c>
       <c r="T52" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="U52" s="2">
         <v>15.7803</v>
@@ -5993,7 +5990,7 @@
         <v>81</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="U53" s="2">
         <v>15.7806</v>
@@ -6061,7 +6058,7 @@
         <v>81</v>
       </c>
       <c r="T54" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U54" s="2">
         <v>15.7806</v>
@@ -6129,7 +6126,7 @@
         <v>81</v>
       </c>
       <c r="T55" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U55" s="2">
         <v>15.7807</v>
@@ -6197,7 +6194,7 @@
         <v>81</v>
       </c>
       <c r="T56" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="U56" s="2">
         <v>15.780799999999999</v>
@@ -6333,7 +6330,7 @@
         <v>81</v>
       </c>
       <c r="T58" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="U58" s="2">
         <v>15.7812</v>
@@ -6439,28 +6436,28 @@
         <v>6</v>
       </c>
       <c r="J60" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K60" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K60" s="1" t="s">
+      <c r="L60" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M60" s="1">
+        <v>1</v>
+      </c>
+      <c r="N60" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="L60" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M60" s="1">
-        <v>1</v>
-      </c>
-      <c r="N60" s="1" t="s">
+      <c r="O60" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q60" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="O60" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="P60" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q60" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="R60" s="1" t="s">
         <v>33</v>
@@ -6469,7 +6466,7 @@
         <v>81</v>
       </c>
       <c r="T60" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U60" s="2">
         <v>15.781499999999999</v>
@@ -6507,28 +6504,28 @@
         <v>6</v>
       </c>
       <c r="J61" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K61" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K61" s="1" t="s">
+      <c r="L61" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M61" s="1">
+        <v>1</v>
+      </c>
+      <c r="N61" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="L61" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M61" s="1">
-        <v>1</v>
-      </c>
-      <c r="N61" s="1" t="s">
+      <c r="O61" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q61" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="O61" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="P61" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q61" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="R61" s="1" t="s">
         <v>33</v>
@@ -6537,7 +6534,7 @@
         <v>81</v>
       </c>
       <c r="T61" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="U61" s="2">
         <v>15.781499999999999</v>
@@ -6575,10 +6572,10 @@
         <v>8</v>
       </c>
       <c r="J62" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K62" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="L62" s="1" t="s">
         <v>29</v>
@@ -6587,16 +6584,16 @@
         <v>7</v>
       </c>
       <c r="N62" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="O62" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="O62" s="1" t="s">
+      <c r="P62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q62" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="P62" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q62" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="R62" s="1" t="s">
         <v>33</v>
@@ -6605,7 +6602,7 @@
         <v>81</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="U62" s="2">
         <v>15.781499999999999</v>
@@ -6643,28 +6640,28 @@
         <v>10</v>
       </c>
       <c r="J63" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K63" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="K63" s="1" t="s">
+      <c r="L63" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M63" s="1">
+        <v>3</v>
+      </c>
+      <c r="N63" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="L63" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M63" s="1">
-        <v>3</v>
-      </c>
-      <c r="N63" s="1" t="s">
+      <c r="O63" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="O63" s="1" t="s">
+      <c r="P63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q63" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="P63" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q63" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="R63" s="1" t="s">
         <v>33</v>
@@ -6673,7 +6670,7 @@
         <v>81</v>
       </c>
       <c r="T63" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="U63" s="2">
         <v>15.781599999999999</v>
@@ -6699,10 +6696,10 @@
         <v>7</v>
       </c>
       <c r="F64" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>26</v>
@@ -6711,28 +6708,28 @@
         <v>6</v>
       </c>
       <c r="J64" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K64" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="K64" s="1" t="s">
+      <c r="L64" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M64" s="1">
+        <v>1</v>
+      </c>
+      <c r="N64" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="L64" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M64" s="1">
-        <v>1</v>
-      </c>
-      <c r="N64" s="1" t="s">
+      <c r="O64" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q64" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="O64" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="P64" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q64" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="R64" s="1" t="s">
         <v>33</v>
@@ -6945,7 +6942,7 @@
         <v>81</v>
       </c>
       <c r="T67" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="U67" s="2">
         <v>15.782400000000001</v>
@@ -7013,7 +7010,7 @@
         <v>81</v>
       </c>
       <c r="T68" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U68" s="2">
         <v>15.7828</v>
@@ -7081,7 +7078,7 @@
         <v>81</v>
       </c>
       <c r="T69" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="U69" s="2">
         <v>15.7829</v>
@@ -7149,7 +7146,7 @@
         <v>81</v>
       </c>
       <c r="T70" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="U70" s="2">
         <v>15.7829</v>
@@ -7217,7 +7214,7 @@
         <v>81</v>
       </c>
       <c r="T71" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="U71" s="2">
         <v>15.7829</v>
@@ -7285,7 +7282,7 @@
         <v>81</v>
       </c>
       <c r="T72" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="U72" s="2">
         <v>15.7829</v>
@@ -7353,7 +7350,7 @@
         <v>81</v>
       </c>
       <c r="T73" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U73" s="2">
         <v>15.783200000000001</v>
@@ -7421,7 +7418,7 @@
         <v>81</v>
       </c>
       <c r="T74" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="U74" s="2">
         <v>15.7834</v>
@@ -7489,7 +7486,7 @@
         <v>81</v>
       </c>
       <c r="T75" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="U75" s="2">
         <v>15.7835</v>
@@ -7557,7 +7554,7 @@
         <v>81</v>
       </c>
       <c r="T76" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U76" s="2">
         <v>15.7836</v>
@@ -7625,7 +7622,7 @@
         <v>81</v>
       </c>
       <c r="T77" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U77" s="2">
         <v>15.7836</v>
@@ -7693,7 +7690,7 @@
         <v>81</v>
       </c>
       <c r="T78" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="U78" s="2">
         <v>15.7837</v>
@@ -7761,7 +7758,7 @@
         <v>81</v>
       </c>
       <c r="T79" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="U79" s="2">
         <v>15.783899999999999</v>
@@ -7829,7 +7826,7 @@
         <v>81</v>
       </c>
       <c r="T80" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="U80" s="2">
         <v>15.7842</v>
@@ -7897,7 +7894,7 @@
         <v>81</v>
       </c>
       <c r="T81" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="U81" s="2">
         <v>15.7843</v>
@@ -7965,7 +7962,7 @@
         <v>81</v>
       </c>
       <c r="T82" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U82" s="2">
         <v>15.7844</v>
@@ -8033,7 +8030,7 @@
         <v>81</v>
       </c>
       <c r="T83" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="U83" s="2">
         <v>15.7845</v>
@@ -8101,7 +8098,7 @@
         <v>81</v>
       </c>
       <c r="T84" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U84" s="2">
         <v>15.7845</v>
@@ -8169,7 +8166,7 @@
         <v>81</v>
       </c>
       <c r="T85" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="U85" s="2">
         <v>15.784599999999999</v>
@@ -8237,7 +8234,7 @@
         <v>81</v>
       </c>
       <c r="T86" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="U86" s="2">
         <v>15.784700000000001</v>
@@ -8305,7 +8302,7 @@
         <v>81</v>
       </c>
       <c r="T87" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="U87" s="2">
         <v>15.784800000000001</v>
@@ -8441,7 +8438,7 @@
         <v>81</v>
       </c>
       <c r="T89" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U89" s="2">
         <v>15.784800000000001</v>
@@ -8509,7 +8506,7 @@
         <v>81</v>
       </c>
       <c r="T90" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="U90" s="2">
         <v>15.7849</v>
@@ -8577,7 +8574,7 @@
         <v>81</v>
       </c>
       <c r="T91" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="U91" s="2">
         <v>15.7849</v>
@@ -8645,7 +8642,7 @@
         <v>81</v>
       </c>
       <c r="T92" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="U92" s="2">
         <v>15.7849</v>
@@ -8713,7 +8710,7 @@
         <v>81</v>
       </c>
       <c r="T93" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="U93" s="2">
         <v>15.785</v>
@@ -8781,7 +8778,7 @@
         <v>81</v>
       </c>
       <c r="T94" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U94" s="2">
         <v>15.785</v>
@@ -8849,7 +8846,7 @@
         <v>81</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="U95" s="2">
         <v>15.7851</v>
@@ -8917,7 +8914,7 @@
         <v>81</v>
       </c>
       <c r="T96" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="U96" s="2">
         <v>15.7852</v>
@@ -8985,7 +8982,7 @@
         <v>81</v>
       </c>
       <c r="T97" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="U97" s="2">
         <v>15.7852</v>
@@ -9053,7 +9050,7 @@
         <v>81</v>
       </c>
       <c r="T98" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="U98" s="2">
         <v>15.7852</v>
@@ -9121,7 +9118,7 @@
         <v>81</v>
       </c>
       <c r="T99" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U99" s="2">
         <v>15.7852</v>
@@ -9189,7 +9186,7 @@
         <v>81</v>
       </c>
       <c r="T100" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U100" s="2">
         <v>15.785299999999999</v>
@@ -9257,7 +9254,7 @@
         <v>81</v>
       </c>
       <c r="T101" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U101" s="2">
         <v>15.785299999999999</v>
@@ -9325,7 +9322,7 @@
         <v>81</v>
       </c>
       <c r="T102" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U102" s="2">
         <v>15.785299999999999</v>
@@ -9393,7 +9390,7 @@
         <v>81</v>
       </c>
       <c r="T103" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="U103" s="2">
         <v>15.785299999999999</v>
@@ -9461,7 +9458,7 @@
         <v>81</v>
       </c>
       <c r="T104" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U104" s="2">
         <v>15.785399999999999</v>
@@ -9529,7 +9526,7 @@
         <v>81</v>
       </c>
       <c r="T105" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="U105" s="2">
         <v>15.785399999999999</v>
@@ -9567,28 +9564,28 @@
         <v>26</v>
       </c>
       <c r="J106" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="K106" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="K106" s="1" t="s">
+      <c r="L106" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M106" s="1">
+        <v>1</v>
+      </c>
+      <c r="N106" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="L106" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M106" s="1">
-        <v>1</v>
-      </c>
-      <c r="N106" s="1" t="s">
+      <c r="O106" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="P106" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q106" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="O106" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="P106" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q106" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="R106" s="1" t="s">
         <v>33</v>
@@ -9597,7 +9594,7 @@
         <v>81</v>
       </c>
       <c r="T106" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="U106" s="2">
         <v>15.785500000000001</v>
@@ -9623,40 +9620,40 @@
         <v>11</v>
       </c>
       <c r="F107" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G107" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="G107" s="1" t="s">
+      <c r="H107" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I107" s="1">
+        <v>1</v>
+      </c>
+      <c r="J107" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="H107" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I107" s="1">
-        <v>1</v>
-      </c>
-      <c r="J107" s="1" t="s">
+      <c r="K107" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="K107" s="1" t="s">
+      <c r="L107" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M107" s="1">
+        <v>1</v>
+      </c>
+      <c r="N107" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="L107" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M107" s="1">
-        <v>1</v>
-      </c>
-      <c r="N107" s="1" t="s">
+      <c r="O107" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="P107" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q107" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="O107" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="P107" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q107" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="R107" s="1" t="s">
         <v>33</v>
@@ -9665,7 +9662,7 @@
         <v>81</v>
       </c>
       <c r="T107" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="U107" s="2">
         <v>15.785600000000001</v>
@@ -9691,40 +9688,40 @@
         <v>11</v>
       </c>
       <c r="F108" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G108" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="G108" s="1" t="s">
+      <c r="H108" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I108" s="1">
+        <v>1</v>
+      </c>
+      <c r="J108" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="H108" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I108" s="1">
-        <v>1</v>
-      </c>
-      <c r="J108" s="1" t="s">
+      <c r="K108" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="K108" s="1" t="s">
+      <c r="L108" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M108" s="1">
+        <v>1</v>
+      </c>
+      <c r="N108" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="L108" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M108" s="1">
-        <v>1</v>
-      </c>
-      <c r="N108" s="1" t="s">
+      <c r="O108" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="P108" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q108" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="O108" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="P108" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q108" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="R108" s="1" t="s">
         <v>33</v>
@@ -9733,7 +9730,7 @@
         <v>81</v>
       </c>
       <c r="T108" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="U108" s="2">
         <v>15.785600000000001</v>
@@ -9759,40 +9756,40 @@
         <v>11</v>
       </c>
       <c r="F109" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G109" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="G109" s="1" t="s">
+      <c r="H109" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I109" s="1">
+        <v>1</v>
+      </c>
+      <c r="J109" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="H109" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I109" s="1">
-        <v>1</v>
-      </c>
-      <c r="J109" s="1" t="s">
+      <c r="K109" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="K109" s="1" t="s">
+      <c r="L109" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M109" s="1">
+        <v>1</v>
+      </c>
+      <c r="N109" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="L109" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M109" s="1">
-        <v>1</v>
-      </c>
-      <c r="N109" s="1" t="s">
+      <c r="O109" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="P109" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q109" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="O109" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="P109" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q109" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="R109" s="1" t="s">
         <v>33</v>
@@ -9801,7 +9798,7 @@
         <v>81</v>
       </c>
       <c r="T109" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="U109" s="2">
         <v>15.7857</v>
@@ -9827,40 +9824,40 @@
         <v>11</v>
       </c>
       <c r="F110" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G110" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="G110" s="1" t="s">
+      <c r="H110" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I110" s="1">
+        <v>1</v>
+      </c>
+      <c r="J110" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="H110" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I110" s="1">
-        <v>1</v>
-      </c>
-      <c r="J110" s="1" t="s">
+      <c r="K110" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="K110" s="1" t="s">
+      <c r="L110" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M110" s="1">
+        <v>1</v>
+      </c>
+      <c r="N110" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="L110" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M110" s="1">
-        <v>1</v>
-      </c>
-      <c r="N110" s="1" t="s">
+      <c r="O110" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="P110" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q110" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="O110" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="P110" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q110" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="R110" s="1" t="s">
         <v>33</v>
@@ -9869,7 +9866,7 @@
         <v>81</v>
       </c>
       <c r="T110" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="U110" s="2">
         <v>15.7857</v>
@@ -9895,22 +9892,22 @@
         <v>11</v>
       </c>
       <c r="F111" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G111" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="G111" s="1" t="s">
+      <c r="H111" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I111" s="1">
+        <v>1</v>
+      </c>
+      <c r="J111" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="H111" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I111" s="1">
-        <v>1</v>
-      </c>
-      <c r="J111" s="1" t="s">
+      <c r="K111" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="K111" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="L111" s="1" t="s">
         <v>29</v>
@@ -9919,16 +9916,16 @@
         <v>5</v>
       </c>
       <c r="N111" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="O111" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="O111" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="P111" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q111" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="R111" s="1" t="s">
         <v>33</v>
@@ -9937,7 +9934,7 @@
         <v>81</v>
       </c>
       <c r="T111" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="U111" s="2">
         <v>15.7858</v>
@@ -9963,22 +9960,22 @@
         <v>11</v>
       </c>
       <c r="F112" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G112" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="G112" s="1" t="s">
+      <c r="H112" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I112" s="1">
+        <v>1</v>
+      </c>
+      <c r="J112" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="H112" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I112" s="1">
-        <v>1</v>
-      </c>
-      <c r="J112" s="1" t="s">
+      <c r="K112" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="K112" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="L112" s="1" t="s">
         <v>29</v>
@@ -9987,16 +9984,16 @@
         <v>7</v>
       </c>
       <c r="N112" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="O112" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="O112" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="P112" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q112" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="R112" s="1" t="s">
         <v>33</v>
@@ -10005,7 +10002,7 @@
         <v>81</v>
       </c>
       <c r="T112" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="U112" s="2">
         <v>15.7859</v>
@@ -10031,22 +10028,22 @@
         <v>11</v>
       </c>
       <c r="F113" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G113" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="G113" s="1" t="s">
+      <c r="H113" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I113" s="1">
+        <v>1</v>
+      </c>
+      <c r="J113" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="H113" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I113" s="1">
-        <v>1</v>
-      </c>
-      <c r="J113" s="1" t="s">
+      <c r="K113" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="K113" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="L113" s="1" t="s">
         <v>29</v>
@@ -10055,16 +10052,16 @@
         <v>7</v>
       </c>
       <c r="N113" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="O113" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="O113" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="P113" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q113" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="R113" s="1" t="s">
         <v>33</v>
@@ -10073,7 +10070,7 @@
         <v>81</v>
       </c>
       <c r="T113" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="U113" s="2">
         <v>15.786099999999999</v>
@@ -10099,22 +10096,22 @@
         <v>11</v>
       </c>
       <c r="F114" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G114" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="G114" s="1" t="s">
+      <c r="H114" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I114" s="1">
+        <v>1</v>
+      </c>
+      <c r="J114" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="H114" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I114" s="1">
-        <v>1</v>
-      </c>
-      <c r="J114" s="1" t="s">
+      <c r="K114" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="K114" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="L114" s="1" t="s">
         <v>29</v>
@@ -10123,16 +10120,16 @@
         <v>9</v>
       </c>
       <c r="N114" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="O114" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="O114" s="1" t="s">
-        <v>212</v>
-      </c>
       <c r="P114" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q114" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="R114" s="1" t="s">
         <v>33</v>
@@ -10141,7 +10138,7 @@
         <v>81</v>
       </c>
       <c r="T114" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U114" s="2">
         <v>15.786099999999999</v>
@@ -10167,22 +10164,22 @@
         <v>11</v>
       </c>
       <c r="F115" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G115" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="G115" s="1" t="s">
+      <c r="H115" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I115" s="1">
+        <v>1</v>
+      </c>
+      <c r="J115" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="H115" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I115" s="1">
-        <v>1</v>
-      </c>
-      <c r="J115" s="1" t="s">
+      <c r="K115" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="K115" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="L115" s="1" t="s">
         <v>29</v>
@@ -10191,16 +10188,16 @@
         <v>9</v>
       </c>
       <c r="N115" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="O115" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="O115" s="1" t="s">
-        <v>212</v>
-      </c>
       <c r="P115" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q115" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="R115" s="1" t="s">
         <v>33</v>
@@ -10209,7 +10206,7 @@
         <v>81</v>
       </c>
       <c r="T115" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="U115" s="2">
         <v>15.7864</v>
@@ -10235,22 +10232,22 @@
         <v>11</v>
       </c>
       <c r="F116" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G116" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="G116" s="1" t="s">
+      <c r="H116" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I116" s="1">
+        <v>1</v>
+      </c>
+      <c r="J116" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="H116" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I116" s="1">
-        <v>1</v>
-      </c>
-      <c r="J116" s="1" t="s">
+      <c r="K116" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="K116" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="L116" s="1" t="s">
         <v>29</v>
@@ -10259,16 +10256,16 @@
         <v>9</v>
       </c>
       <c r="N116" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="O116" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="O116" s="1" t="s">
-        <v>212</v>
-      </c>
       <c r="P116" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q116" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="R116" s="1" t="s">
         <v>33</v>
@@ -10277,7 +10274,7 @@
         <v>81</v>
       </c>
       <c r="T116" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="U116" s="2">
         <v>15.7864</v>
@@ -10303,10 +10300,10 @@
         <v>11</v>
       </c>
       <c r="F117" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G117" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>26</v>
@@ -10315,28 +10312,28 @@
         <v>4</v>
       </c>
       <c r="J117" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K117" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="K117" s="1" t="s">
+      <c r="L117" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M117" s="1">
+        <v>1</v>
+      </c>
+      <c r="N117" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L117" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M117" s="1">
-        <v>1</v>
-      </c>
-      <c r="N117" s="1" t="s">
+      <c r="O117" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="P117" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q117" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="O117" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="P117" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q117" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="R117" s="1" t="s">
         <v>33</v>
@@ -10345,7 +10342,7 @@
         <v>81</v>
       </c>
       <c r="T117" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U117" s="2">
         <v>15.7866</v>
@@ -10371,10 +10368,10 @@
         <v>11</v>
       </c>
       <c r="F118" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G118" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>26</v>
@@ -10383,28 +10380,28 @@
         <v>4</v>
       </c>
       <c r="J118" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K118" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="K118" s="1" t="s">
+      <c r="L118" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M118" s="1">
+        <v>1</v>
+      </c>
+      <c r="N118" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L118" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M118" s="1">
-        <v>1</v>
-      </c>
-      <c r="N118" s="1" t="s">
+      <c r="O118" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="P118" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q118" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="O118" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="P118" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q118" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="R118" s="1" t="s">
         <v>33</v>
@@ -10413,7 +10410,7 @@
         <v>81</v>
       </c>
       <c r="T118" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="U118" s="2">
         <v>15.786799999999999</v>
@@ -10439,10 +10436,10 @@
         <v>11</v>
       </c>
       <c r="F119" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G119" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>26</v>
@@ -10451,28 +10448,28 @@
         <v>4</v>
       </c>
       <c r="J119" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K119" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="K119" s="1" t="s">
+      <c r="L119" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M119" s="1">
+        <v>1</v>
+      </c>
+      <c r="N119" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L119" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M119" s="1">
-        <v>1</v>
-      </c>
-      <c r="N119" s="1" t="s">
+      <c r="O119" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="P119" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q119" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="O119" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="P119" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q119" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="R119" s="1" t="s">
         <v>33</v>
@@ -10481,7 +10478,7 @@
         <v>81</v>
       </c>
       <c r="T119" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="U119" s="2">
         <v>15.786899999999999</v>
@@ -10507,10 +10504,10 @@
         <v>11</v>
       </c>
       <c r="F120" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G120" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>26</v>
@@ -10519,28 +10516,28 @@
         <v>4</v>
       </c>
       <c r="J120" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K120" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="K120" s="1" t="s">
+      <c r="L120" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M120" s="1">
+        <v>1</v>
+      </c>
+      <c r="N120" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L120" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M120" s="1">
-        <v>1</v>
-      </c>
-      <c r="N120" s="1" t="s">
+      <c r="O120" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="P120" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q120" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="O120" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="P120" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q120" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="R120" s="1" t="s">
         <v>33</v>
@@ -10549,7 +10546,7 @@
         <v>81</v>
       </c>
       <c r="T120" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U120" s="2">
         <v>15.786899999999999</v>
@@ -10575,10 +10572,10 @@
         <v>11</v>
       </c>
       <c r="F121" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G121" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>26</v>
@@ -10587,28 +10584,28 @@
         <v>4</v>
       </c>
       <c r="J121" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K121" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="K121" s="1" t="s">
+      <c r="L121" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M121" s="1">
+        <v>1</v>
+      </c>
+      <c r="N121" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L121" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M121" s="1">
-        <v>1</v>
-      </c>
-      <c r="N121" s="1" t="s">
+      <c r="O121" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="P121" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q121" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="O121" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="P121" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q121" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="R121" s="1" t="s">
         <v>33</v>
@@ -10617,7 +10614,7 @@
         <v>81</v>
       </c>
       <c r="T121" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="U121" s="2">
         <v>15.787000000000001</v>
@@ -10643,10 +10640,10 @@
         <v>11</v>
       </c>
       <c r="F122" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G122" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>26</v>
@@ -10655,28 +10652,28 @@
         <v>4</v>
       </c>
       <c r="J122" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K122" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="K122" s="1" t="s">
+      <c r="L122" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M122" s="1">
+        <v>1</v>
+      </c>
+      <c r="N122" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L122" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M122" s="1">
-        <v>1</v>
-      </c>
-      <c r="N122" s="1" t="s">
+      <c r="O122" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="P122" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q122" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="O122" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="P122" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q122" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="R122" s="1" t="s">
         <v>33</v>
@@ -10685,7 +10682,7 @@
         <v>81</v>
       </c>
       <c r="T122" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="U122" s="2">
         <v>15.787100000000001</v>
@@ -10711,10 +10708,10 @@
         <v>11</v>
       </c>
       <c r="F123" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G123" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>26</v>
@@ -10723,28 +10720,28 @@
         <v>4</v>
       </c>
       <c r="J123" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K123" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="K123" s="1" t="s">
+      <c r="L123" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M123" s="1">
+        <v>1</v>
+      </c>
+      <c r="N123" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L123" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M123" s="1">
-        <v>1</v>
-      </c>
-      <c r="N123" s="1" t="s">
+      <c r="O123" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="P123" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q123" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="O123" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="P123" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q123" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="R123" s="1" t="s">
         <v>33</v>
@@ -10753,7 +10750,7 @@
         <v>81</v>
       </c>
       <c r="T123" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U123" s="2">
         <v>15.7872</v>
@@ -10779,40 +10776,40 @@
         <v>13</v>
       </c>
       <c r="F124" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G124" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G124" s="1" t="s">
+      <c r="H124" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I124" s="1">
+        <v>1</v>
+      </c>
+      <c r="J124" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="H124" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I124" s="1">
-        <v>1</v>
-      </c>
-      <c r="J124" s="1" t="s">
+      <c r="K124" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="K124" s="1" t="s">
+      <c r="L124" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M124" s="1">
+        <v>1</v>
+      </c>
+      <c r="N124" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="L124" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M124" s="1">
-        <v>1</v>
-      </c>
-      <c r="N124" s="1" t="s">
+      <c r="O124" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="P124" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q124" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="O124" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="P124" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q124" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="R124" s="1" t="s">
         <v>33</v>
@@ -10821,7 +10818,7 @@
         <v>81</v>
       </c>
       <c r="T124" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="U124" s="2">
         <v>15.787699999999999</v>
@@ -10847,40 +10844,40 @@
         <v>13</v>
       </c>
       <c r="F125" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G125" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G125" s="1" t="s">
+      <c r="H125" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I125" s="1">
+        <v>1</v>
+      </c>
+      <c r="J125" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="H125" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I125" s="1">
-        <v>1</v>
-      </c>
-      <c r="J125" s="1" t="s">
+      <c r="K125" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="K125" s="1" t="s">
+      <c r="L125" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M125" s="1">
+        <v>1</v>
+      </c>
+      <c r="N125" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="L125" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M125" s="1">
-        <v>1</v>
-      </c>
-      <c r="N125" s="1" t="s">
+      <c r="O125" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="P125" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q125" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="O125" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="P125" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q125" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="R125" s="1" t="s">
         <v>33</v>
@@ -10889,7 +10886,7 @@
         <v>81</v>
       </c>
       <c r="T125" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="U125" s="2">
         <v>15.7883</v>
@@ -10915,40 +10912,40 @@
         <v>13</v>
       </c>
       <c r="F126" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G126" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G126" s="1" t="s">
+      <c r="H126" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I126" s="1">
+        <v>1</v>
+      </c>
+      <c r="J126" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="H126" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I126" s="1">
-        <v>1</v>
-      </c>
-      <c r="J126" s="1" t="s">
+      <c r="K126" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="K126" s="1" t="s">
+      <c r="L126" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M126" s="1">
+        <v>1</v>
+      </c>
+      <c r="N126" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="L126" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M126" s="1">
-        <v>1</v>
-      </c>
-      <c r="N126" s="1" t="s">
+      <c r="O126" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="P126" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q126" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="O126" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="P126" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q126" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="R126" s="1" t="s">
         <v>33</v>
@@ -10957,7 +10954,7 @@
         <v>81</v>
       </c>
       <c r="T126" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="U126" s="2">
         <v>15.789400000000001</v>
@@ -10983,22 +10980,22 @@
         <v>17</v>
       </c>
       <c r="F127" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G127" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="G127" s="1" t="s">
+      <c r="H127" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I127" s="1">
+        <v>3</v>
+      </c>
+      <c r="J127" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="H127" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I127" s="1">
-        <v>3</v>
-      </c>
-      <c r="J127" s="1" t="s">
+      <c r="K127" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="K127" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="L127" s="1" t="s">
         <v>29</v>
@@ -11007,16 +11004,16 @@
         <v>8</v>
       </c>
       <c r="N127" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="O127" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="O127" s="1" t="s">
+      <c r="P127" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q127" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="P127" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q127" s="1" t="s">
-        <v>241</v>
       </c>
       <c r="R127" s="1" t="s">
         <v>33</v>
@@ -11025,7 +11022,7 @@
         <v>81</v>
       </c>
       <c r="T127" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="U127" s="2">
         <v>15.7896</v>
@@ -11075,10 +11072,10 @@
         <v>21</v>
       </c>
       <c r="N128" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="O128" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="O128" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="P128" s="1" t="s">
         <v>31</v>
@@ -11229,7 +11226,7 @@
         <v>81</v>
       </c>
       <c r="T130" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="U130" s="2">
         <v>15.7906</v>
@@ -11403,28 +11400,28 @@
         <v>4</v>
       </c>
       <c r="J133" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="K133" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="K133" s="1" t="s">
+      <c r="L133" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M133" s="1">
+        <v>1</v>
+      </c>
+      <c r="N133" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L133" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M133" s="1">
-        <v>1</v>
-      </c>
-      <c r="N133" s="1" t="s">
+      <c r="O133" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="P133" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q133" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="O133" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="P133" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q133" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="R133" s="1" t="s">
         <v>33</v>
@@ -11433,7 +11430,7 @@
         <v>81</v>
       </c>
       <c r="T133" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="U133" s="2">
         <v>15.790900000000001</v>
@@ -11471,28 +11468,28 @@
         <v>4</v>
       </c>
       <c r="J134" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="K134" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="K134" s="1" t="s">
+      <c r="L134" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M134" s="1">
+        <v>1</v>
+      </c>
+      <c r="N134" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L134" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M134" s="1">
-        <v>1</v>
-      </c>
-      <c r="N134" s="1" t="s">
+      <c r="O134" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="P134" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q134" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="O134" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="P134" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q134" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="R134" s="1" t="s">
         <v>33</v>
@@ -11501,7 +11498,7 @@
         <v>81</v>
       </c>
       <c r="T134" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="U134" s="2">
         <v>15.791</v>
@@ -11539,28 +11536,28 @@
         <v>4</v>
       </c>
       <c r="J135" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="K135" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="K135" s="1" t="s">
+      <c r="L135" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M135" s="1">
+        <v>1</v>
+      </c>
+      <c r="N135" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L135" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M135" s="1">
-        <v>1</v>
-      </c>
-      <c r="N135" s="1" t="s">
+      <c r="O135" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="P135" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q135" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="O135" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="P135" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q135" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="R135" s="1" t="s">
         <v>33</v>
@@ -11569,7 +11566,7 @@
         <v>81</v>
       </c>
       <c r="T135" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="U135" s="2">
         <v>15.7912</v>
@@ -11607,28 +11604,28 @@
         <v>4</v>
       </c>
       <c r="J136" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="K136" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="K136" s="1" t="s">
+      <c r="L136" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M136" s="1">
+        <v>1</v>
+      </c>
+      <c r="N136" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L136" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M136" s="1">
-        <v>1</v>
-      </c>
-      <c r="N136" s="1" t="s">
+      <c r="O136" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="P136" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q136" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="O136" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="P136" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q136" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="R136" s="1" t="s">
         <v>33</v>
@@ -11637,7 +11634,7 @@
         <v>81</v>
       </c>
       <c r="T136" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="U136" s="2">
         <v>15.791399999999999</v>
@@ -11675,11 +11672,11 @@
         <v>4</v>
       </c>
       <c r="J137" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="K137" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="K137" s="1" t="s">
-        <v>247</v>
-      </c>
       <c r="L137" s="1" t="s">
         <v>29</v>
       </c>
@@ -11687,16 +11684,16 @@
         <v>23</v>
       </c>
       <c r="N137" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="O137" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="O137" s="1" t="s">
-        <v>255</v>
-      </c>
       <c r="P137" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q137" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="R137" s="1" t="s">
         <v>33</v>
@@ -11705,7 +11702,7 @@
         <v>81</v>
       </c>
       <c r="T137" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="U137" s="2">
         <v>15.791399999999999</v>
@@ -11743,11 +11740,11 @@
         <v>4</v>
       </c>
       <c r="J138" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="K138" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="K138" s="1" t="s">
-        <v>247</v>
-      </c>
       <c r="L138" s="1" t="s">
         <v>29</v>
       </c>
@@ -11755,16 +11752,16 @@
         <v>23</v>
       </c>
       <c r="N138" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="O138" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="O138" s="1" t="s">
-        <v>255</v>
-      </c>
       <c r="P138" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q138" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="R138" s="1" t="s">
         <v>33</v>
@@ -11773,7 +11770,7 @@
         <v>81</v>
       </c>
       <c r="T138" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="U138" s="2">
         <v>15.792299999999999</v>
@@ -11838,10 +11835,10 @@
         <v>33</v>
       </c>
       <c r="S139" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="T139" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="T139" s="1" t="s">
-        <v>259</v>
       </c>
       <c r="U139" s="2">
         <v>15.792899999999999</v>
@@ -11906,10 +11903,10 @@
         <v>33</v>
       </c>
       <c r="S140" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="T140" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="U140" s="2">
         <v>15.792899999999999</v>
@@ -11974,10 +11971,10 @@
         <v>33</v>
       </c>
       <c r="S141" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="T141" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="U141" s="2">
         <v>15.7934</v>
@@ -12042,10 +12039,10 @@
         <v>33</v>
       </c>
       <c r="S142" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="T142" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="U142" s="2">
         <v>15.794</v>
@@ -12110,10 +12107,10 @@
         <v>33</v>
       </c>
       <c r="S143" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="T143" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="U143" s="2">
         <v>15.794600000000001</v>
@@ -12178,10 +12175,10 @@
         <v>33</v>
       </c>
       <c r="S144" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="T144" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="U144" s="2">
         <v>15.7951</v>
@@ -12246,10 +12243,10 @@
         <v>33</v>
       </c>
       <c r="S145" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="T145" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="U145" s="2">
         <v>15.7516</v>
@@ -12275,22 +12272,22 @@
         <v>11</v>
       </c>
       <c r="F146" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G146" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="G146" s="1" t="s">
+      <c r="H146" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I146" s="1">
+        <v>1</v>
+      </c>
+      <c r="J146" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="H146" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I146" s="1">
-        <v>1</v>
-      </c>
-      <c r="J146" s="1" t="s">
+      <c r="K146" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="K146" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="L146" s="1" t="s">
         <v>29</v>
@@ -12299,25 +12296,25 @@
         <v>6</v>
       </c>
       <c r="N146" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="O146" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="O146" s="1" t="s">
+      <c r="P146" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q146" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="R146" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S146" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="T146" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="P146" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q146" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="R146" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S146" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="T146" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="U146" s="2">
         <v>15.7531</v>
@@ -12343,49 +12340,49 @@
         <v>14</v>
       </c>
       <c r="F147" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G147" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="G147" s="1" t="s">
+      <c r="H147" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I147" s="1">
+        <v>1</v>
+      </c>
+      <c r="J147" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="H147" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I147" s="1">
-        <v>1</v>
-      </c>
-      <c r="J147" s="1" t="s">
+      <c r="K147" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="L147" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M147" s="1">
+        <v>1</v>
+      </c>
+      <c r="N147" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="K147" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="L147" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M147" s="1">
-        <v>1</v>
-      </c>
-      <c r="N147" s="1" t="s">
+      <c r="O147" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="P147" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q147" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="O147" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="P147" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q147" s="1" t="s">
+      <c r="R147" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S147" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="T147" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="R147" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S147" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="T147" s="1" t="s">
-        <v>274</v>
       </c>
       <c r="U147" s="2">
         <v>15.7532</v>
@@ -12450,10 +12447,10 @@
         <v>33</v>
       </c>
       <c r="S148" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="T148" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="T148" s="1" t="s">
-        <v>276</v>
       </c>
       <c r="U148" s="2">
         <v>15.753399999999999</v>
@@ -12518,10 +12515,10 @@
         <v>33</v>
       </c>
       <c r="S149" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T149" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="U149" s="2">
         <v>15.7547</v>
@@ -12586,10 +12583,10 @@
         <v>33</v>
       </c>
       <c r="S150" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T150" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="U150" s="2">
         <v>15.754799999999999</v>
@@ -12654,10 +12651,10 @@
         <v>33</v>
       </c>
       <c r="S151" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T151" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="U151" s="2">
         <v>15.7552</v>
@@ -12722,10 +12719,10 @@
         <v>33</v>
       </c>
       <c r="S152" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T152" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="U152" s="2">
         <v>15.756600000000001</v>
@@ -12790,10 +12787,10 @@
         <v>33</v>
       </c>
       <c r="S153" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T153" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="U153" s="2">
         <v>15.7567</v>
@@ -12858,10 +12855,10 @@
         <v>33</v>
       </c>
       <c r="S154" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T154" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="U154" s="2">
         <v>15.7567</v>
@@ -12926,10 +12923,10 @@
         <v>33</v>
       </c>
       <c r="S155" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T155" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="U155" s="2">
         <v>15.7568</v>
@@ -12994,10 +12991,10 @@
         <v>33</v>
       </c>
       <c r="S156" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T156" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="U156" s="2">
         <v>15.757</v>
@@ -13062,10 +13059,10 @@
         <v>33</v>
       </c>
       <c r="S157" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T157" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U157" s="2">
         <v>15.7575</v>
@@ -13130,10 +13127,10 @@
         <v>33</v>
       </c>
       <c r="S158" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T158" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="U158" s="2">
         <v>15.7577</v>
@@ -13198,10 +13195,10 @@
         <v>33</v>
       </c>
       <c r="S159" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T159" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="U159" s="2">
         <v>15.758100000000001</v>
@@ -13266,10 +13263,10 @@
         <v>33</v>
       </c>
       <c r="S160" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T160" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="U160" s="2">
         <v>15.7583</v>
@@ -13334,10 +13331,10 @@
         <v>33</v>
       </c>
       <c r="S161" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T161" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="U161" s="2">
         <v>15.759600000000001</v>
@@ -13375,37 +13372,37 @@
         <v>2</v>
       </c>
       <c r="J162" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="K162" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="K162" s="1" t="s">
+      <c r="L162" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M162" s="1">
+        <v>1</v>
+      </c>
+      <c r="N162" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="L162" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M162" s="1">
-        <v>1</v>
-      </c>
-      <c r="N162" s="1" t="s">
+      <c r="O162" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="P162" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q162" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="O162" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="P162" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q162" s="1" t="s">
+      <c r="R162" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S162" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="T162" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="R162" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S162" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="T162" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="U162" s="2">
         <v>15.7597</v>
@@ -13443,37 +13440,37 @@
         <v>2</v>
       </c>
       <c r="J163" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="K163" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="K163" s="1" t="s">
+      <c r="L163" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M163" s="1">
+        <v>1</v>
+      </c>
+      <c r="N163" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="L163" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M163" s="1">
-        <v>1</v>
-      </c>
-      <c r="N163" s="1" t="s">
+      <c r="O163" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="P163" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q163" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="O163" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="P163" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q163" s="1" t="s">
-        <v>292</v>
-      </c>
       <c r="R163" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S163" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T163" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="U163" s="2">
         <v>15.7601</v>
@@ -13511,37 +13508,37 @@
         <v>6</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K164" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="L164" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M164" s="1">
+        <v>1</v>
+      </c>
+      <c r="N164" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O164" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="L164" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M164" s="1">
-        <v>1</v>
-      </c>
-      <c r="N164" s="1" t="s">
+      <c r="P164" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q164" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="O164" s="1" t="s">
+      <c r="R164" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S164" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="T164" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="P164" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q164" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="R164" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S164" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="T164" s="1" t="s">
-        <v>297</v>
       </c>
       <c r="U164" s="2">
         <v>15.7615</v>
@@ -13606,10 +13603,10 @@
         <v>33</v>
       </c>
       <c r="S165" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T165" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="U165" s="2">
         <v>15.7616</v>
@@ -13674,10 +13671,10 @@
         <v>33</v>
       </c>
       <c r="S166" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T166" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="U166" s="2">
         <v>15.7616</v>
@@ -13742,10 +13739,10 @@
         <v>33</v>
       </c>
       <c r="S167" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T167" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="U167" s="2">
         <v>15.7804</v>
@@ -13810,10 +13807,10 @@
         <v>33</v>
       </c>
       <c r="S168" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T168" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="U168" s="2">
         <v>15.787100000000001</v>
@@ -13878,10 +13875,10 @@
         <v>33</v>
       </c>
       <c r="S169" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T169" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="U169" s="2">
         <v>15.7631</v>
@@ -13946,10 +13943,10 @@
         <v>33</v>
       </c>
       <c r="S170" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T170" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="U170" s="2">
         <v>15.7714</v>
@@ -14014,10 +14011,10 @@
         <v>33</v>
       </c>
       <c r="S171" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T171" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="U171" s="2">
         <v>15.774900000000001</v>
@@ -14082,10 +14079,10 @@
         <v>33</v>
       </c>
       <c r="S172" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T172" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="U172" s="2">
         <v>15.774900000000001</v>
@@ -14150,10 +14147,10 @@
         <v>33</v>
       </c>
       <c r="S173" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T173" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="U173" s="2">
         <v>15.7751</v>
@@ -14218,10 +14215,10 @@
         <v>33</v>
       </c>
       <c r="S174" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T174" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="U174" s="2">
         <v>15.775600000000001</v>
@@ -14286,10 +14283,10 @@
         <v>33</v>
       </c>
       <c r="S175" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T175" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="U175" s="2">
         <v>15.7759</v>
@@ -14354,10 +14351,10 @@
         <v>33</v>
       </c>
       <c r="S176" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T176" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="U176" s="2">
         <v>15.777200000000001</v>
@@ -14422,10 +14419,10 @@
         <v>33</v>
       </c>
       <c r="S177" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T177" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="U177" s="2">
         <v>15.777200000000001</v>
@@ -14490,10 +14487,10 @@
         <v>33</v>
       </c>
       <c r="S178" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T178" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="U178" s="2">
         <v>15.7773</v>
@@ -14558,10 +14555,10 @@
         <v>33</v>
       </c>
       <c r="S179" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T179" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="U179" s="2">
         <v>15.7774</v>
@@ -14626,10 +14623,10 @@
         <v>33</v>
       </c>
       <c r="S180" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T180" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="U180" s="2">
         <v>15.7776</v>
@@ -14694,10 +14691,10 @@
         <v>33</v>
       </c>
       <c r="S181" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T181" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="U181" s="2">
         <v>15.781599999999999</v>
@@ -14723,22 +14720,22 @@
         <v>11</v>
       </c>
       <c r="F182" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G182" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="G182" s="1" t="s">
+      <c r="H182" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I182" s="1">
+        <v>1</v>
+      </c>
+      <c r="J182" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="H182" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I182" s="1">
-        <v>1</v>
-      </c>
-      <c r="J182" s="1" t="s">
+      <c r="K182" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="K182" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="L182" s="1" t="s">
         <v>29</v>
@@ -14747,25 +14744,25 @@
         <v>9</v>
       </c>
       <c r="N182" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="O182" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="O182" s="1" t="s">
-        <v>212</v>
-      </c>
       <c r="P182" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q182" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="R182" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S182" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T182" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="U182" s="2">
         <v>15.6366</v>
@@ -14791,10 +14788,10 @@
         <v>12</v>
       </c>
       <c r="F183" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="G183" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="G183" s="1" t="s">
-        <v>313</v>
       </c>
       <c r="H183" s="1" t="s">
         <v>26</v>
@@ -14803,37 +14800,37 @@
         <v>8</v>
       </c>
       <c r="J183" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="K183" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="K183" s="1" t="s">
+      <c r="L183" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M183" s="1">
+        <v>1</v>
+      </c>
+      <c r="N183" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="L183" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M183" s="1">
-        <v>1</v>
-      </c>
-      <c r="N183" s="1" t="s">
+      <c r="O183" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="P183" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q183" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="O183" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="P183" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q183" s="1" t="s">
+      <c r="R183" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S183" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="T183" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="R183" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S183" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="T183" s="1" t="s">
-        <v>318</v>
       </c>
       <c r="U183" s="2">
         <v>15.701499999999999</v>
@@ -14859,49 +14856,49 @@
         <v>13</v>
       </c>
       <c r="F184" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G184" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G184" s="1" t="s">
+      <c r="H184" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I184" s="1">
+        <v>1</v>
+      </c>
+      <c r="J184" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="H184" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I184" s="1">
-        <v>1</v>
-      </c>
-      <c r="J184" s="1" t="s">
+      <c r="K184" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="K184" s="1" t="s">
+      <c r="L184" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M184" s="1">
+        <v>1</v>
+      </c>
+      <c r="N184" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="L184" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M184" s="1">
-        <v>1</v>
-      </c>
-      <c r="N184" s="1" t="s">
+      <c r="O184" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="P184" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q184" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="O184" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="P184" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q184" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="R184" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S184" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T184" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="U184" s="2">
         <v>15.726900000000001</v>
@@ -14927,49 +14924,49 @@
         <v>14</v>
       </c>
       <c r="F185" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G185" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="G185" s="1" t="s">
+      <c r="H185" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I185" s="1">
+        <v>1</v>
+      </c>
+      <c r="J185" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="H185" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I185" s="1">
-        <v>1</v>
-      </c>
-      <c r="J185" s="1" t="s">
+      <c r="K185" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="L185" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M185" s="1">
+        <v>1</v>
+      </c>
+      <c r="N185" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="K185" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="L185" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M185" s="1">
-        <v>1</v>
-      </c>
-      <c r="N185" s="1" t="s">
+      <c r="O185" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="P185" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q185" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="O185" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="P185" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q185" s="1" t="s">
-        <v>273</v>
-      </c>
       <c r="R185" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S185" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T185" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="U185" s="2">
         <v>15.7827</v>
@@ -15007,37 +15004,37 @@
         <v>4</v>
       </c>
       <c r="J186" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="K186" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="K186" s="1" t="s">
+      <c r="L186" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M186" s="1">
+        <v>1</v>
+      </c>
+      <c r="N186" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L186" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M186" s="1">
-        <v>1</v>
-      </c>
-      <c r="N186" s="1" t="s">
+      <c r="O186" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="P186" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q186" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="O186" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="P186" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q186" s="1" t="s">
-        <v>249</v>
-      </c>
       <c r="R186" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S186" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T186" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="U186" s="2">
         <v>15.7874</v>
@@ -15075,37 +15072,37 @@
         <v>4</v>
       </c>
       <c r="J187" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="K187" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="K187" s="1" t="s">
+      <c r="L187" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M187" s="1">
+        <v>1</v>
+      </c>
+      <c r="N187" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L187" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M187" s="1">
-        <v>1</v>
-      </c>
-      <c r="N187" s="1" t="s">
+      <c r="O187" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="P187" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q187" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="O187" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="P187" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q187" s="1" t="s">
-        <v>249</v>
-      </c>
       <c r="R187" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S187" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T187" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="U187" s="2">
         <v>15.662000000000001</v>
@@ -15143,37 +15140,37 @@
         <v>4</v>
       </c>
       <c r="J188" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="K188" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="K188" s="1" t="s">
+      <c r="L188" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M188" s="1">
+        <v>1</v>
+      </c>
+      <c r="N188" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L188" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M188" s="1">
-        <v>1</v>
-      </c>
-      <c r="N188" s="1" t="s">
+      <c r="O188" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="P188" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q188" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="O188" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="P188" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q188" s="1" t="s">
-        <v>249</v>
-      </c>
       <c r="R188" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S188" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T188" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="U188" s="2">
         <v>15.786799999999999</v>
@@ -15211,37 +15208,37 @@
         <v>4</v>
       </c>
       <c r="J189" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="K189" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="K189" s="1" t="s">
+      <c r="L189" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M189" s="1">
+        <v>1</v>
+      </c>
+      <c r="N189" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L189" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M189" s="1">
-        <v>1</v>
-      </c>
-      <c r="N189" s="1" t="s">
+      <c r="O189" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="P189" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q189" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="O189" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="P189" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q189" s="1" t="s">
-        <v>249</v>
-      </c>
       <c r="R189" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S189" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T189" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="U189" s="2">
         <v>15.7875</v>
@@ -15306,10 +15303,10 @@
         <v>33</v>
       </c>
       <c r="S190" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="T190" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="T190" s="1" t="s">
-        <v>326</v>
       </c>
       <c r="U190" s="2">
         <v>15.7963</v>
@@ -15374,10 +15371,10 @@
         <v>33</v>
       </c>
       <c r="S191" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T191" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="U191" s="2">
         <v>15.7416</v>
@@ -15442,10 +15439,10 @@
         <v>33</v>
       </c>
       <c r="S192" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T192" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="U192" s="2">
         <v>15.743399999999999</v>
@@ -15510,10 +15507,10 @@
         <v>33</v>
       </c>
       <c r="S193" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T193" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U193" s="2">
         <v>15.5977</v>
@@ -15578,10 +15575,10 @@
         <v>33</v>
       </c>
       <c r="S194" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T194" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U194" s="2">
         <v>15.598800000000001</v>
@@ -15646,10 +15643,10 @@
         <v>33</v>
       </c>
       <c r="S195" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T195" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U195" s="2">
         <v>15.6204</v>
@@ -15714,10 +15711,10 @@
         <v>33</v>
       </c>
       <c r="S196" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T196" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U196" s="2">
         <v>15.5983</v>
@@ -15743,49 +15740,49 @@
         <v>4</v>
       </c>
       <c r="F197" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G197" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="G197" s="1" t="s">
+      <c r="H197" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I197" s="1">
+        <v>1</v>
+      </c>
+      <c r="J197" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="H197" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I197" s="1">
-        <v>1</v>
-      </c>
-      <c r="J197" s="1" t="s">
+      <c r="K197" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="K197" s="1" t="s">
+      <c r="L197" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M197" s="1">
+        <v>1</v>
+      </c>
+      <c r="N197" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="L197" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M197" s="1">
-        <v>1</v>
-      </c>
-      <c r="N197" s="1" t="s">
+      <c r="O197" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="O197" s="1" t="s">
+      <c r="P197" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q197" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="P197" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q197" s="1" t="s">
-        <v>337</v>
-      </c>
       <c r="R197" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S197" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T197" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U197" s="2">
         <v>15.5985</v>
@@ -15811,49 +15808,49 @@
         <v>4</v>
       </c>
       <c r="F198" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G198" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="G198" s="1" t="s">
+      <c r="H198" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I198" s="1">
+        <v>1</v>
+      </c>
+      <c r="J198" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="H198" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I198" s="1">
-        <v>1</v>
-      </c>
-      <c r="J198" s="1" t="s">
+      <c r="K198" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="K198" s="1" t="s">
+      <c r="L198" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M198" s="1">
+        <v>1</v>
+      </c>
+      <c r="N198" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="L198" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M198" s="1">
-        <v>1</v>
-      </c>
-      <c r="N198" s="1" t="s">
+      <c r="O198" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="O198" s="1" t="s">
+      <c r="P198" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q198" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="P198" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q198" s="1" t="s">
+      <c r="R198" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S198" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="T198" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="R198" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S198" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="T198" s="1" t="s">
-        <v>338</v>
       </c>
       <c r="U198" s="2">
         <v>15.5985</v>
@@ -15879,10 +15876,10 @@
         <v>4</v>
       </c>
       <c r="F199" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G199" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="G199" s="1" t="s">
-        <v>332</v>
       </c>
       <c r="H199" s="1" t="s">
         <v>26</v>
@@ -15891,37 +15888,37 @@
         <v>4</v>
       </c>
       <c r="J199" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="K199" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="K199" s="1" t="s">
+      <c r="L199" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M199" s="1">
+        <v>1</v>
+      </c>
+      <c r="N199" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="L199" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M199" s="1">
-        <v>1</v>
-      </c>
-      <c r="N199" s="1" t="s">
+      <c r="O199" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="O199" s="1" t="s">
+      <c r="P199" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q199" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="P199" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q199" s="1" t="s">
+      <c r="R199" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S199" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="T199" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="R199" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S199" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="T199" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="U199" s="2">
         <v>15.5985</v>
@@ -15947,10 +15944,10 @@
         <v>4</v>
       </c>
       <c r="F200" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G200" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="G200" s="1" t="s">
-        <v>332</v>
       </c>
       <c r="H200" s="1" t="s">
         <v>26</v>
@@ -15959,37 +15956,37 @@
         <v>4</v>
       </c>
       <c r="J200" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="K200" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="K200" s="1" t="s">
+      <c r="L200" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M200" s="1">
+        <v>1</v>
+      </c>
+      <c r="N200" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="L200" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M200" s="1">
-        <v>1</v>
-      </c>
-      <c r="N200" s="1" t="s">
+      <c r="O200" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="O200" s="1" t="s">
+      <c r="P200" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q200" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="P200" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q200" s="1" t="s">
-        <v>343</v>
-      </c>
       <c r="R200" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S200" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T200" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="U200" s="2">
         <v>15.598599999999999</v>
@@ -16054,10 +16051,10 @@
         <v>33</v>
       </c>
       <c r="S201" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T201" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="U201" s="2">
         <v>15.598699999999999</v>
@@ -16122,10 +16119,10 @@
         <v>33</v>
       </c>
       <c r="S202" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T202" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="U202" s="2">
         <v>15.598800000000001</v>
@@ -16190,10 +16187,10 @@
         <v>33</v>
       </c>
       <c r="S203" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T203" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="U203" s="2">
         <v>15.5989</v>
@@ -16258,10 +16255,10 @@
         <v>33</v>
       </c>
       <c r="S204" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T204" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U204" s="2">
         <v>15.5989</v>
@@ -16326,10 +16323,10 @@
         <v>33</v>
       </c>
       <c r="S205" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T205" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="U205" s="2">
         <v>15.5989</v>
@@ -16367,37 +16364,37 @@
         <v>2</v>
       </c>
       <c r="J206" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="K206" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="K206" s="1" t="s">
+      <c r="L206" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M206" s="1">
+        <v>1</v>
+      </c>
+      <c r="N206" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="L206" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M206" s="1">
-        <v>1</v>
-      </c>
-      <c r="N206" s="1" t="s">
+      <c r="O206" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="P206" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q206" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="O206" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="P206" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q206" s="1" t="s">
-        <v>292</v>
-      </c>
       <c r="R206" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S206" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T206" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="U206" s="2">
         <v>15.599</v>
@@ -16435,37 +16432,37 @@
         <v>2</v>
       </c>
       <c r="J207" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="K207" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="K207" s="1" t="s">
+      <c r="L207" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M207" s="1">
+        <v>1</v>
+      </c>
+      <c r="N207" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="L207" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M207" s="1">
-        <v>1</v>
-      </c>
-      <c r="N207" s="1" t="s">
+      <c r="O207" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="P207" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q207" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="O207" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="P207" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q207" s="1" t="s">
-        <v>292</v>
-      </c>
       <c r="R207" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S207" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T207" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="U207" s="2">
         <v>15.599</v>
@@ -16503,37 +16500,37 @@
         <v>2</v>
       </c>
       <c r="J208" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="K208" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="K208" s="1" t="s">
+      <c r="L208" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M208" s="1">
+        <v>1</v>
+      </c>
+      <c r="N208" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="L208" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M208" s="1">
-        <v>1</v>
-      </c>
-      <c r="N208" s="1" t="s">
+      <c r="O208" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="P208" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q208" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="O208" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="P208" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q208" s="1" t="s">
-        <v>292</v>
-      </c>
       <c r="R208" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S208" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T208" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="U208" s="2">
         <v>15.5992</v>
@@ -16571,10 +16568,10 @@
         <v>3</v>
       </c>
       <c r="J209" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="K209" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="K209" s="1" t="s">
-        <v>354</v>
       </c>
       <c r="L209" s="1" t="s">
         <v>29</v>
@@ -16583,25 +16580,25 @@
         <v>7</v>
       </c>
       <c r="N209" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="O209" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="O209" s="1" t="s">
+      <c r="P209" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q209" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="P209" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q209" s="1" t="s">
+      <c r="R209" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S209" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="T209" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="R209" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S209" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="T209" s="1" t="s">
-        <v>358</v>
       </c>
       <c r="U209" s="2">
         <v>15.599399999999999</v>
@@ -16639,37 +16636,37 @@
         <v>6</v>
       </c>
       <c r="J210" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K210" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="L210" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M210" s="1">
+        <v>1</v>
+      </c>
+      <c r="N210" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O210" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="L210" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M210" s="1">
-        <v>1</v>
-      </c>
-      <c r="N210" s="1" t="s">
+      <c r="P210" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q210" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="O210" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="P210" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q210" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="R210" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S210" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T210" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="U210" s="2">
         <v>15.599399999999999</v>
@@ -16707,37 +16704,37 @@
         <v>6</v>
       </c>
       <c r="J211" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K211" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="L211" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M211" s="1">
+        <v>1</v>
+      </c>
+      <c r="N211" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O211" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="L211" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M211" s="1">
-        <v>1</v>
-      </c>
-      <c r="N211" s="1" t="s">
+      <c r="P211" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q211" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="O211" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="P211" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q211" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="R211" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S211" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="T211" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="T211" s="1" t="s">
-        <v>326</v>
       </c>
       <c r="U211" s="2">
         <v>15.599500000000001</v>
@@ -16775,37 +16772,37 @@
         <v>6</v>
       </c>
       <c r="J212" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K212" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="L212" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M212" s="1">
+        <v>1</v>
+      </c>
+      <c r="N212" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O212" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="L212" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M212" s="1">
-        <v>1</v>
-      </c>
-      <c r="N212" s="1" t="s">
+      <c r="P212" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q212" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="O212" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="P212" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q212" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="R212" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S212" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T212" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="U212" s="2">
         <v>15.599600000000001</v>
@@ -16843,10 +16840,10 @@
         <v>10</v>
       </c>
       <c r="J213" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K213" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="K213" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="L213" s="1" t="s">
         <v>29</v>
@@ -16855,25 +16852,25 @@
         <v>39</v>
       </c>
       <c r="N213" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="O213" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="O213" s="1" t="s">
+      <c r="P213" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q213" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="R213" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S213" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="T213" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="P213" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q213" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="R213" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S213" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="T213" s="1" t="s">
-        <v>363</v>
       </c>
       <c r="U213" s="2">
         <v>15.5997</v>
@@ -16899,49 +16896,49 @@
         <v>6</v>
       </c>
       <c r="F214" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G214" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="G214" s="1" t="s">
+      <c r="H214" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I214" s="1">
+        <v>1</v>
+      </c>
+      <c r="J214" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="H214" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I214" s="1">
-        <v>1</v>
-      </c>
-      <c r="J214" s="1" t="s">
+      <c r="K214" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="L214" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M214" s="1">
+        <v>1</v>
+      </c>
+      <c r="N214" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="K214" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="L214" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M214" s="1">
-        <v>1</v>
-      </c>
-      <c r="N214" s="1" t="s">
+      <c r="O214" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="P214" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q214" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="O214" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="P214" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q214" s="1" t="s">
+      <c r="R214" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S214" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="T214" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="R214" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S214" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="T214" s="1" t="s">
-        <v>369</v>
       </c>
       <c r="U214" s="2">
         <v>15.5997</v>
@@ -16967,10 +16964,10 @@
         <v>6</v>
       </c>
       <c r="F215" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G215" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="G215" s="1" t="s">
-        <v>365</v>
       </c>
       <c r="H215" s="1" t="s">
         <v>26</v>
@@ -16979,37 +16976,37 @@
         <v>15</v>
       </c>
       <c r="J215" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="K215" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="K215" s="1" t="s">
+      <c r="L215" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M215" s="1">
+        <v>1</v>
+      </c>
+      <c r="N215" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="L215" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M215" s="1">
-        <v>1</v>
-      </c>
-      <c r="N215" s="1" t="s">
+      <c r="O215" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="O215" s="1" t="s">
+      <c r="P215" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q215" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="P215" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q215" s="1" t="s">
+      <c r="R215" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S215" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="T215" s="1" t="s">
         <v>374</v>
-      </c>
-      <c r="R215" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S215" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="T215" s="1" t="s">
-        <v>375</v>
       </c>
       <c r="U215" s="2">
         <v>15.5997</v>
@@ -17035,10 +17032,10 @@
         <v>6</v>
       </c>
       <c r="F216" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G216" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="G216" s="1" t="s">
-        <v>365</v>
       </c>
       <c r="H216" s="1" t="s">
         <v>26</v>
@@ -17047,37 +17044,37 @@
         <v>15</v>
       </c>
       <c r="J216" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="K216" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="K216" s="1" t="s">
+      <c r="L216" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M216" s="1">
+        <v>1</v>
+      </c>
+      <c r="N216" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="L216" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M216" s="1">
-        <v>1</v>
-      </c>
-      <c r="N216" s="1" t="s">
+      <c r="O216" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="O216" s="1" t="s">
+      <c r="P216" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q216" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="P216" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q216" s="1" t="s">
-        <v>374</v>
-      </c>
       <c r="R216" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S216" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T216" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="U216" s="2">
         <v>15.5997</v>
@@ -17142,10 +17139,10 @@
         <v>33</v>
       </c>
       <c r="S217" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T217" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="U217" s="2">
         <v>15.5999</v>
@@ -17210,10 +17207,10 @@
         <v>33</v>
       </c>
       <c r="S218" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T218" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U218" s="2">
         <v>15.5999</v>
@@ -17278,10 +17275,10 @@
         <v>33</v>
       </c>
       <c r="S219" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T219" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U219" s="2">
         <v>15.5999</v>
@@ -17346,10 +17343,10 @@
         <v>33</v>
       </c>
       <c r="S220" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T220" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U220" s="2">
         <v>15.6</v>
@@ -17414,10 +17411,10 @@
         <v>33</v>
       </c>
       <c r="S221" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T221" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="U221" s="2">
         <v>15.600300000000001</v>
@@ -17482,10 +17479,10 @@
         <v>33</v>
       </c>
       <c r="S222" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T222" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U222" s="2">
         <v>15.6004</v>
@@ -17550,10 +17547,10 @@
         <v>33</v>
       </c>
       <c r="S223" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T223" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="U223" s="2">
         <v>15.601000000000001</v>
@@ -17618,10 +17615,10 @@
         <v>33</v>
       </c>
       <c r="S224" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T224" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U224" s="2">
         <v>15.601100000000001</v>
@@ -17686,10 +17683,10 @@
         <v>33</v>
       </c>
       <c r="S225" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T225" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="U225" s="2">
         <v>15.602</v>
@@ -17754,10 +17751,10 @@
         <v>33</v>
       </c>
       <c r="S226" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T226" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="U226" s="2">
         <v>15.602499999999999</v>
@@ -17822,10 +17819,10 @@
         <v>33</v>
       </c>
       <c r="S227" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T227" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="U227" s="2">
         <v>15.6463</v>
@@ -17890,10 +17887,10 @@
         <v>33</v>
       </c>
       <c r="S228" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T228" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="U228" s="2">
         <v>15.6639</v>
@@ -17958,10 +17955,10 @@
         <v>33</v>
       </c>
       <c r="S229" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T229" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="U229" s="2">
         <v>15.761900000000001</v>
@@ -18026,10 +18023,10 @@
         <v>33</v>
       </c>
       <c r="S230" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T230" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="U230" s="2">
         <v>15.762600000000001</v>
@@ -18094,10 +18091,10 @@
         <v>33</v>
       </c>
       <c r="S231" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T231" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="U231" s="2">
         <v>15.7628</v>
@@ -18162,10 +18159,10 @@
         <v>33</v>
       </c>
       <c r="S232" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T232" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="U232" s="2">
         <v>15.7629</v>
@@ -18230,10 +18227,10 @@
         <v>33</v>
       </c>
       <c r="S233" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T233" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U233" s="2">
         <v>15.7629</v>
@@ -18298,10 +18295,10 @@
         <v>33</v>
       </c>
       <c r="S234" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="T234" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="T234" s="1" t="s">
-        <v>326</v>
       </c>
       <c r="U234" s="2">
         <v>15.7631</v>
@@ -18366,10 +18363,10 @@
         <v>33</v>
       </c>
       <c r="S235" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T235" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U235" s="2">
         <v>15.763199999999999</v>
@@ -18434,10 +18431,10 @@
         <v>33</v>
       </c>
       <c r="S236" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T236" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="U236" s="2">
         <v>15.765000000000001</v>
@@ -18502,10 +18499,10 @@
         <v>33</v>
       </c>
       <c r="S237" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T237" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="U237" s="2">
         <v>15.7651</v>
@@ -18570,10 +18567,10 @@
         <v>33</v>
       </c>
       <c r="S238" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T238" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="U238" s="2">
         <v>15.766500000000001</v>
@@ -18638,10 +18635,10 @@
         <v>33</v>
       </c>
       <c r="S239" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T239" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U239" s="2">
         <v>15.767799999999999</v>
@@ -18706,10 +18703,10 @@
         <v>33</v>
       </c>
       <c r="S240" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T240" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U240" s="2">
         <v>15.7722</v>
@@ -18774,10 +18771,10 @@
         <v>33</v>
       </c>
       <c r="S241" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T241" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="U241" s="2">
         <v>15.773400000000001</v>
@@ -18842,10 +18839,10 @@
         <v>33</v>
       </c>
       <c r="S242" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T242" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="U242" s="2">
         <v>15.7738</v>
@@ -18883,10 +18880,10 @@
         <v>17</v>
       </c>
       <c r="J243" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="K243" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="K243" s="1" t="s">
-        <v>392</v>
       </c>
       <c r="L243" s="1" t="s">
         <v>29</v>
@@ -18895,25 +18892,25 @@
         <v>2</v>
       </c>
       <c r="N243" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="O243" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="O243" s="1" t="s">
+      <c r="P243" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q243" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P243" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q243" s="1" t="s">
+      <c r="R243" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S243" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="T243" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="R243" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S243" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="T243" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="U243" s="2">
         <v>15.7738</v>
@@ -18951,37 +18948,37 @@
         <v>26</v>
       </c>
       <c r="J244" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="K244" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="K244" s="1" t="s">
+      <c r="L244" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M244" s="1">
+        <v>1</v>
+      </c>
+      <c r="N244" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="L244" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M244" s="1">
-        <v>1</v>
-      </c>
-      <c r="N244" s="1" t="s">
+      <c r="O244" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="P244" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q244" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="O244" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="P244" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q244" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="R244" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S244" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T244" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="U244" s="2">
         <v>15.7738</v>
@@ -19007,10 +19004,10 @@
         <v>10</v>
       </c>
       <c r="F245" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="G245" s="1" t="s">
         <v>398</v>
-      </c>
-      <c r="G245" s="1" t="s">
-        <v>399</v>
       </c>
       <c r="H245" s="1" t="s">
         <v>26</v>
@@ -19019,37 +19016,37 @@
         <v>7</v>
       </c>
       <c r="J245" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="K245" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="K245" s="1" t="s">
+      <c r="L245" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M245" s="1">
+        <v>1</v>
+      </c>
+      <c r="N245" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="L245" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M245" s="1">
-        <v>1</v>
-      </c>
-      <c r="N245" s="1" t="s">
+      <c r="O245" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="O245" s="1" t="s">
+      <c r="P245" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q245" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="P245" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q245" s="1" t="s">
-        <v>404</v>
-      </c>
       <c r="R245" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S245" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="T245" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="T245" s="1" t="s">
-        <v>326</v>
       </c>
       <c r="U245" s="2">
         <v>15.774100000000001</v>
@@ -19075,10 +19072,10 @@
         <v>10</v>
       </c>
       <c r="F246" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="G246" s="1" t="s">
         <v>398</v>
-      </c>
-      <c r="G246" s="1" t="s">
-        <v>399</v>
       </c>
       <c r="H246" s="1" t="s">
         <v>26</v>
@@ -19087,37 +19084,37 @@
         <v>7</v>
       </c>
       <c r="J246" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="K246" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="K246" s="1" t="s">
+      <c r="L246" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M246" s="1">
+        <v>1</v>
+      </c>
+      <c r="N246" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="L246" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M246" s="1">
-        <v>1</v>
-      </c>
-      <c r="N246" s="1" t="s">
+      <c r="O246" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="O246" s="1" t="s">
+      <c r="P246" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q246" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="P246" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q246" s="1" t="s">
-        <v>404</v>
-      </c>
       <c r="R246" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S246" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="T246" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="T246" s="1" t="s">
-        <v>326</v>
       </c>
       <c r="U246" s="2">
         <v>15.7744</v>
@@ -19143,10 +19140,10 @@
         <v>10</v>
       </c>
       <c r="F247" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="G247" s="1" t="s">
         <v>398</v>
-      </c>
-      <c r="G247" s="1" t="s">
-        <v>399</v>
       </c>
       <c r="H247" s="1" t="s">
         <v>26</v>
@@ -19155,37 +19152,37 @@
         <v>7</v>
       </c>
       <c r="J247" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="K247" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="K247" s="1" t="s">
+      <c r="L247" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M247" s="1">
+        <v>1</v>
+      </c>
+      <c r="N247" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="L247" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M247" s="1">
-        <v>1</v>
-      </c>
-      <c r="N247" s="1" t="s">
+      <c r="O247" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="O247" s="1" t="s">
+      <c r="P247" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q247" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="P247" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q247" s="1" t="s">
+      <c r="R247" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S247" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="T247" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="R247" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S247" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="T247" s="1" t="s">
-        <v>405</v>
       </c>
       <c r="U247" s="2">
         <v>15.774699999999999</v>
@@ -19211,49 +19208,49 @@
         <v>11</v>
       </c>
       <c r="F248" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G248" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="G248" s="1" t="s">
+      <c r="H248" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I248" s="1">
+        <v>1</v>
+      </c>
+      <c r="J248" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="H248" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I248" s="1">
-        <v>1</v>
-      </c>
-      <c r="J248" s="1" t="s">
+      <c r="K248" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="K248" s="1" t="s">
+      <c r="L248" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M248" s="1">
+        <v>1</v>
+      </c>
+      <c r="N248" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="L248" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M248" s="1">
-        <v>1</v>
-      </c>
-      <c r="N248" s="1" t="s">
+      <c r="O248" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="P248" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q248" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="O248" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="P248" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q248" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="R248" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S248" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T248" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="U248" s="2">
         <v>15.775399999999999</v>
@@ -19279,10 +19276,10 @@
         <v>11</v>
       </c>
       <c r="F249" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G249" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="G249" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="H249" s="1" t="s">
         <v>26</v>
@@ -19291,37 +19288,37 @@
         <v>4</v>
       </c>
       <c r="J249" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K249" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="K249" s="1" t="s">
+      <c r="L249" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M249" s="1">
+        <v>1</v>
+      </c>
+      <c r="N249" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L249" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M249" s="1">
-        <v>1</v>
-      </c>
-      <c r="N249" s="1" t="s">
+      <c r="O249" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="P249" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q249" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="O249" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="P249" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q249" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="R249" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S249" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T249" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="U249" s="2">
         <v>15.775600000000001</v>
@@ -19347,10 +19344,10 @@
         <v>12</v>
       </c>
       <c r="F250" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="G250" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="G250" s="1" t="s">
-        <v>313</v>
       </c>
       <c r="H250" s="1" t="s">
         <v>26</v>
@@ -19359,10 +19356,10 @@
         <v>17</v>
       </c>
       <c r="J250" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="K250" s="1" t="s">
         <v>408</v>
-      </c>
-      <c r="K250" s="1" t="s">
-        <v>409</v>
       </c>
       <c r="L250" s="1" t="s">
         <v>29</v>
@@ -19371,25 +19368,25 @@
         <v>7</v>
       </c>
       <c r="N250" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="O250" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="O250" s="1" t="s">
+      <c r="P250" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q250" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="P250" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q250" s="1" t="s">
+      <c r="R250" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S250" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="T250" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="R250" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S250" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="T250" s="1" t="s">
-        <v>413</v>
       </c>
       <c r="U250" s="2">
         <v>15.7789</v>
@@ -19415,10 +19412,10 @@
         <v>13</v>
       </c>
       <c r="F251" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G251" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="G251" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="H251" s="1" t="s">
         <v>26</v>
@@ -19427,37 +19424,37 @@
         <v>11</v>
       </c>
       <c r="J251" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="K251" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="K251" s="1" t="s">
+      <c r="L251" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M251" s="1">
+        <v>1</v>
+      </c>
+      <c r="N251" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="L251" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M251" s="1">
-        <v>1</v>
-      </c>
-      <c r="N251" s="1" t="s">
+      <c r="O251" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="O251" s="1" t="s">
+      <c r="P251" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q251" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="P251" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q251" s="1" t="s">
+      <c r="R251" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S251" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="T251" s="1" t="s">
         <v>418</v>
-      </c>
-      <c r="R251" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S251" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="T251" s="1" t="s">
-        <v>419</v>
       </c>
       <c r="U251" s="2">
         <v>15.7791</v>
@@ -19483,49 +19480,49 @@
         <v>14</v>
       </c>
       <c r="F252" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G252" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="G252" s="1" t="s">
+      <c r="H252" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I252" s="1">
+        <v>1</v>
+      </c>
+      <c r="J252" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="H252" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I252" s="1">
-        <v>1</v>
-      </c>
-      <c r="J252" s="1" t="s">
+      <c r="K252" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="L252" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M252" s="1">
+        <v>1</v>
+      </c>
+      <c r="N252" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="K252" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="L252" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M252" s="1">
-        <v>1</v>
-      </c>
-      <c r="N252" s="1" t="s">
+      <c r="O252" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="P252" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q252" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="O252" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="P252" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q252" s="1" t="s">
-        <v>273</v>
-      </c>
       <c r="R252" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S252" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T252" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="U252" s="2">
         <v>15.7791</v>
@@ -19551,11 +19548,11 @@
         <v>17</v>
       </c>
       <c r="F253" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G253" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="G253" s="1" t="s">
-        <v>236</v>
-      </c>
       <c r="H253" s="1" t="s">
         <v>26</v>
       </c>
@@ -19563,10 +19560,10 @@
         <v>1</v>
       </c>
       <c r="J253" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="K253" s="1" t="s">
         <v>421</v>
-      </c>
-      <c r="K253" s="1" t="s">
-        <v>422</v>
       </c>
       <c r="L253" s="1" t="s">
         <v>29</v>
@@ -19575,25 +19572,25 @@
         <v>5</v>
       </c>
       <c r="N253" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="O253" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="O253" s="1" t="s">
+      <c r="P253" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q253" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="P253" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q253" s="1" t="s">
+      <c r="R253" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S253" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="T253" s="1" t="s">
         <v>425</v>
-      </c>
-      <c r="R253" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S253" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="T253" s="1" t="s">
-        <v>426</v>
       </c>
       <c r="U253" s="2">
         <v>15.7791</v>
@@ -19619,10 +19616,10 @@
         <v>17</v>
       </c>
       <c r="F254" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G254" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="G254" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="H254" s="1" t="s">
         <v>26</v>
@@ -19631,37 +19628,37 @@
         <v>9</v>
       </c>
       <c r="J254" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="K254" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="K254" s="1" t="s">
+      <c r="L254" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M254" s="1">
+        <v>1</v>
+      </c>
+      <c r="N254" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="L254" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M254" s="1">
-        <v>1</v>
-      </c>
-      <c r="N254" s="1" t="s">
+      <c r="O254" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="P254" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q254" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="O254" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="P254" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q254" s="1" t="s">
-        <v>430</v>
-      </c>
       <c r="R254" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S254" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T254" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U254" s="2">
         <v>15.7791</v>
@@ -19699,37 +19696,37 @@
         <v>4</v>
       </c>
       <c r="J255" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="K255" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="K255" s="1" t="s">
+      <c r="L255" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M255" s="1">
+        <v>1</v>
+      </c>
+      <c r="N255" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L255" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M255" s="1">
-        <v>1</v>
-      </c>
-      <c r="N255" s="1" t="s">
+      <c r="O255" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="P255" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q255" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="O255" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="P255" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q255" s="1" t="s">
-        <v>249</v>
-      </c>
       <c r="R255" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S255" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T255" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="U255" s="2">
         <v>15.779199999999999</v>
@@ -19767,37 +19764,37 @@
         <v>4</v>
       </c>
       <c r="J256" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="K256" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="K256" s="1" t="s">
+      <c r="L256" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M256" s="1">
+        <v>1</v>
+      </c>
+      <c r="N256" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L256" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M256" s="1">
-        <v>1</v>
-      </c>
-      <c r="N256" s="1" t="s">
+      <c r="O256" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="P256" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q256" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="O256" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="P256" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q256" s="1" t="s">
-        <v>249</v>
-      </c>
       <c r="R256" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S256" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T256" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="U256" s="2">
         <v>15.780099999999999</v>
@@ -19835,37 +19832,37 @@
         <v>4</v>
       </c>
       <c r="J257" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="K257" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="K257" s="1" t="s">
+      <c r="L257" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M257" s="1">
+        <v>1</v>
+      </c>
+      <c r="N257" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L257" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M257" s="1">
-        <v>1</v>
-      </c>
-      <c r="N257" s="1" t="s">
+      <c r="O257" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="P257" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q257" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="O257" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="P257" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q257" s="1" t="s">
-        <v>249</v>
-      </c>
       <c r="R257" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S257" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T257" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="U257" s="2">
         <v>15.780099999999999</v>
@@ -19903,37 +19900,37 @@
         <v>4</v>
       </c>
       <c r="J258" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="K258" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="K258" s="1" t="s">
+      <c r="L258" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M258" s="1">
+        <v>1</v>
+      </c>
+      <c r="N258" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L258" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M258" s="1">
-        <v>1</v>
-      </c>
-      <c r="N258" s="1" t="s">
+      <c r="O258" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="P258" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q258" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="O258" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="P258" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q258" s="1" t="s">
-        <v>249</v>
-      </c>
       <c r="R258" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S258" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T258" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="U258" s="2">
         <v>15.780099999999999</v>
@@ -19971,10 +19968,10 @@
         <v>4</v>
       </c>
       <c r="J259" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="K259" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="K259" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="L259" s="1" t="s">
         <v>29</v>
@@ -19983,25 +19980,25 @@
         <v>39</v>
       </c>
       <c r="N259" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="O259" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="O259" s="1" t="s">
+      <c r="P259" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q259" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="R259" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S259" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="T259" s="1" t="s">
         <v>436</v>
-      </c>
-      <c r="P259" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q259" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="R259" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S259" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="T259" s="1" t="s">
-        <v>437</v>
       </c>
       <c r="U259" s="2">
         <v>15.780099999999999</v>
@@ -20039,10 +20036,10 @@
         <v>4</v>
       </c>
       <c r="J260" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="K260" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="K260" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="L260" s="1" t="s">
         <v>29</v>
@@ -20051,25 +20048,25 @@
         <v>46</v>
       </c>
       <c r="N260" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="O260" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="O260" s="1" t="s">
+      <c r="P260" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q260" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="R260" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S260" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="T260" s="1" t="s">
         <v>439</v>
-      </c>
-      <c r="P260" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q260" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="R260" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S260" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="T260" s="1" t="s">
-        <v>440</v>
       </c>
       <c r="U260" s="2">
         <v>15.7803</v>
@@ -20107,10 +20104,10 @@
         <v>4</v>
       </c>
       <c r="J261" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="K261" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="K261" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="L261" s="1" t="s">
         <v>29</v>
@@ -20119,25 +20116,25 @@
         <v>51</v>
       </c>
       <c r="N261" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="O261" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="O261" s="1" t="s">
+      <c r="P261" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q261" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="R261" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S261" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="T261" s="1" t="s">
         <v>442</v>
-      </c>
-      <c r="P261" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q261" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="R261" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S261" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="T261" s="1" t="s">
-        <v>443</v>
       </c>
       <c r="U261" s="2">
         <v>15.7803</v>
@@ -20175,37 +20172,37 @@
         <v>6</v>
       </c>
       <c r="J262" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="K262" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="K262" s="1" t="s">
+      <c r="L262" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M262" s="1">
+        <v>1</v>
+      </c>
+      <c r="N262" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="L262" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M262" s="1">
-        <v>1</v>
-      </c>
-      <c r="N262" s="1" t="s">
+      <c r="O262" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="O262" s="1" t="s">
+      <c r="P262" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q262" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="P262" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q262" s="1" t="s">
+      <c r="R262" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S262" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="T262" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="R262" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S262" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="T262" s="1" t="s">
-        <v>449</v>
       </c>
       <c r="U262" s="2">
         <v>15.7803</v>
@@ -20243,37 +20240,37 @@
         <v>6</v>
       </c>
       <c r="J263" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="K263" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="K263" s="1" t="s">
+      <c r="L263" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M263" s="1">
+        <v>1</v>
+      </c>
+      <c r="N263" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="L263" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M263" s="1">
-        <v>1</v>
-      </c>
-      <c r="N263" s="1" t="s">
+      <c r="O263" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="O263" s="1" t="s">
+      <c r="P263" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q263" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="P263" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q263" s="1" t="s">
-        <v>448</v>
-      </c>
       <c r="R263" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S263" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T263" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="U263" s="2">
         <v>15.7804</v>
@@ -20338,10 +20335,10 @@
         <v>33</v>
       </c>
       <c r="S264" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="T264" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="T264" s="1" t="s">
-        <v>452</v>
       </c>
       <c r="U264" s="2">
         <v>15.7804</v>
@@ -20367,10 +20364,10 @@
         <v>11</v>
       </c>
       <c r="F265" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G265" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="G265" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="H265" s="1" t="s">
         <v>26</v>
@@ -20379,37 +20376,37 @@
         <v>4</v>
       </c>
       <c r="J265" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K265" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="K265" s="1" t="s">
+      <c r="L265" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M265" s="1">
+        <v>1</v>
+      </c>
+      <c r="N265" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="L265" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M265" s="1">
-        <v>1</v>
-      </c>
-      <c r="N265" s="1" t="s">
+      <c r="O265" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="P265" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q265" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="O265" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="P265" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q265" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="R265" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S265" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="T265" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="U265" s="2">
         <v>15.7804</v>
@@ -20435,49 +20432,49 @@
         <v>13</v>
       </c>
       <c r="F266" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G266" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G266" s="1" t="s">
+      <c r="H266" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I266" s="1">
+        <v>1</v>
+      </c>
+      <c r="J266" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="H266" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I266" s="1">
-        <v>1</v>
-      </c>
-      <c r="J266" s="1" t="s">
+      <c r="K266" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="K266" s="1" t="s">
+      <c r="L266" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M266" s="1">
+        <v>1</v>
+      </c>
+      <c r="N266" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="L266" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M266" s="1">
-        <v>1</v>
-      </c>
-      <c r="N266" s="1" t="s">
+      <c r="O266" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="P266" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q266" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="O266" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="P266" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q266" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="R266" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S266" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="T266" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="U266" s="2">
         <v>15.7805</v>

--- a/datacovidhn/ALIMENTACION_HN.xlsx
+++ b/datacovidhn/ALIMENTACION_HN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID HN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="8_{2E7B08DD-615A-4A26-9C8E-D4330F5D4097}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F03B9F55-79E6-4A72-BB03-E6C64086C376}"/>
+  <xr:revisionPtr revIDLastSave="133" documentId="8_{2E7B08DD-615A-4A26-9C8E-D4330F5D4097}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C4A475C8-8C7E-4ACC-9705-8A26E03FB5A9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="ALIMENTACION" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ALIMENTACION!$A$1:$V$266</definedName>
-    <definedName name="_xlnm.Database">ALIMENTACION!$A$1:$T$266</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ALIMENTACION!$A$1:$V$263</definedName>
+    <definedName name="_xlnm.Database">ALIMENTACION!$A$1:$T$263</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3997" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3952" uniqueCount="440">
   <si>
     <t>OBJECTID_1</t>
   </si>
@@ -633,6 +633,9 @@
     <t>110101</t>
   </si>
   <si>
+    <t>Roatán</t>
+  </si>
+  <si>
     <t>HND-1101</t>
   </si>
   <si>
@@ -690,6 +693,9 @@
     <t>110401</t>
   </si>
   <si>
+    <t>Útila</t>
+  </si>
+  <si>
     <t>HND-1104</t>
   </si>
   <si>
@@ -921,9 +927,6 @@
     <t>Puerto Cortes</t>
   </si>
   <si>
-    <t>Puerto Cortis</t>
-  </si>
-  <si>
     <t>Shadday</t>
   </si>
   <si>
@@ -1011,19 +1014,16 @@
     <t>supermercado</t>
   </si>
   <si>
-    <t>Despensa Familiar</t>
-  </si>
-  <si>
-    <t>Paiz</t>
-  </si>
-  <si>
-    <t>999</t>
-  </si>
-  <si>
-    <t>La Despensa Familiar</t>
-  </si>
-  <si>
-    <t>La Colonia</t>
+    <t>Supermercado Despensa Familiar</t>
+  </si>
+  <si>
+    <t>Supermercado Paiz</t>
+  </si>
+  <si>
+    <t>Almacén 9.99</t>
+  </si>
+  <si>
+    <t>Supermercado La Colonia</t>
   </si>
   <si>
     <t>04</t>
@@ -1041,13 +1041,13 @@
     <t>040101</t>
   </si>
   <si>
-    <t>Santa Rosa de Coppn</t>
+    <t>Santa Rosa de Copán</t>
   </si>
   <si>
     <t>HND-0401</t>
   </si>
   <si>
-    <t>La Económica</t>
+    <t>Supermercado La Económica</t>
   </si>
   <si>
     <t>0404</t>
@@ -1059,37 +1059,25 @@
     <t>040401</t>
   </si>
   <si>
-    <t>Cop4n Ruinas</t>
+    <t>Copán Ruinas</t>
   </si>
   <si>
     <t>HND-0404</t>
   </si>
   <si>
-    <t>Supermercado</t>
-  </si>
-  <si>
-    <t>Dispensa Familiar</t>
-  </si>
-  <si>
-    <t>La Antorcha, Satelite</t>
-  </si>
-  <si>
-    <t>Supermercado La Colonia</t>
-  </si>
-  <si>
-    <t>La Colonia - Diunsa Este</t>
+    <t>Supermercado Mi Super</t>
+  </si>
+  <si>
+    <t>Supermercado La Antorcha</t>
   </si>
   <si>
     <t>PriceSmart</t>
   </si>
   <si>
-    <t>MaxiDespensa</t>
-  </si>
-  <si>
-    <t>La Gran Via</t>
-  </si>
-  <si>
-    <t>La Antorcha</t>
+    <t>Supermercado MaxiDespensa</t>
+  </si>
+  <si>
+    <t>Supermercado La Gran Vía</t>
   </si>
   <si>
     <t>0503</t>
@@ -1107,22 +1095,16 @@
     <t>HND-0503</t>
   </si>
   <si>
-    <t>Economa</t>
-  </si>
-  <si>
-    <t>Maxi Despensa</t>
-  </si>
-  <si>
-    <t>Super Barato</t>
+    <t>El Super Barato</t>
   </si>
   <si>
     <t>051039</t>
   </si>
   <si>
-    <t>Pe1a Blanca</t>
-  </si>
-  <si>
-    <t>Mini Familiar</t>
+    <t>Peña Blanca</t>
+  </si>
+  <si>
+    <t>Mini Super La Famila</t>
   </si>
   <si>
     <t>06</t>
@@ -1140,7 +1122,7 @@
     <t>HND-0601</t>
   </si>
   <si>
-    <t>De Todo</t>
+    <t>DeTodo</t>
   </si>
   <si>
     <t>0615</t>
@@ -1152,46 +1134,28 @@
     <t>061501</t>
   </si>
   <si>
-    <t>San Marcos de Colpn</t>
+    <t>San Marcos de Colón</t>
   </si>
   <si>
     <t>HND-0615</t>
   </si>
   <si>
-    <t>La Despensa Familiar D.F.</t>
-  </si>
-  <si>
-    <t>Comisarito Militar</t>
-  </si>
-  <si>
-    <t>El Porvenir</t>
+    <t>Almacenes Extra</t>
+  </si>
+  <si>
+    <t>Supermercado Comisarito Militar</t>
+  </si>
+  <si>
+    <t>Mercadito El Porvenir</t>
   </si>
   <si>
     <t>Mercadito Pedregal</t>
   </si>
   <si>
-    <t>banasupro</t>
-  </si>
-  <si>
     <t>Mercadito El Sol</t>
   </si>
   <si>
-    <t>Casino Excalibur</t>
-  </si>
-  <si>
-    <t>Casino Bingo Queen</t>
-  </si>
-  <si>
-    <t>Despenda Familiar</t>
-  </si>
-  <si>
-    <t>Best Choice</t>
-  </si>
-  <si>
-    <t>Supermercados Paiz</t>
-  </si>
-  <si>
-    <t>Lady Lee Express</t>
+    <t>Almacenes Best Choice</t>
   </si>
   <si>
     <t>El Mercadito</t>
@@ -1200,7 +1164,7 @@
     <t>Entre Pinares</t>
   </si>
   <si>
-    <t>supermercado AVILES</t>
+    <t>Supermercado Aviles</t>
   </si>
   <si>
     <t>LA BERLY</t>
@@ -1242,7 +1206,7 @@
     <t>100701</t>
   </si>
   <si>
-    <t>Jes7s de Otoro</t>
+    <t>Jesús de Otoro</t>
   </si>
   <si>
     <t>HND-1007</t>
@@ -1284,7 +1248,7 @@
     <t>131101</t>
   </si>
   <si>
-    <t>La Uni</t>
+    <t>La Unión</t>
   </si>
   <si>
     <t>HND-1311</t>
@@ -1293,7 +1257,7 @@
     <t>ferreteria</t>
   </si>
   <si>
-    <t>Supermercado el SOL</t>
+    <t>Supermercado El SOL</t>
   </si>
   <si>
     <t>1701</t>
@@ -1311,7 +1275,7 @@
     <t>HND-1701</t>
   </si>
   <si>
-    <t>Supermercado Goascoran</t>
+    <t>Supermercado Goascorán</t>
   </si>
   <si>
     <t>1709</t>
@@ -1332,12 +1296,6 @@
     <t>Súper mercado col. Llave en mano</t>
   </si>
   <si>
-    <t>La Despensa</t>
-  </si>
-  <si>
-    <t>Supermercado La Despensa</t>
-  </si>
-  <si>
     <t>180439</t>
   </si>
   <si>
@@ -1362,7 +1320,7 @@
     <t>Santa Elena</t>
   </si>
   <si>
-    <t>Pulpería Samuel sitramedys</t>
+    <t>Pulpería Samuel Sitramedys</t>
   </si>
   <si>
     <t>1806</t>
@@ -1374,7 +1332,7 @@
     <t>180601</t>
   </si>
   <si>
-    <t>Moraz1n</t>
+    <t>Morazán</t>
   </si>
   <si>
     <t>HND-1806</t>
@@ -1389,13 +1347,13 @@
     <t>verdulería</t>
   </si>
   <si>
-    <t>Molino de Maiz</t>
+    <t>Molino de Maíz</t>
   </si>
   <si>
     <t>Fruitasy</t>
   </si>
   <si>
-    <t>Verduras La Benedicion</t>
+    <t>Verduras La Bendición</t>
   </si>
 </sst>
 </file>
@@ -2035,8 +1993,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3102A056-5222-4234-BA9B-734A45734C30}" name="ALIMENTACION_HN" displayName="ALIMENTACION_HN" ref="A1:V266" totalsRowShown="0" headerRowDxfId="22">
-  <autoFilter ref="A1:V266" xr:uid="{56D59612-14DD-44E0-B196-D6BA93C03EE3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3102A056-5222-4234-BA9B-734A45734C30}" name="ALIMENTACION_HN" displayName="ALIMENTACION_HN" ref="A1:V263" totalsRowShown="0" headerRowDxfId="22">
+  <autoFilter ref="A1:V263" xr:uid="{56D59612-14DD-44E0-B196-D6BA93C03EE3}"/>
   <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{72EFC8A3-7F7E-43ED-A5A6-542387FEE48F}" name="OBJECTID_1" dataDxfId="21"/>
     <tableColumn id="2" xr3:uid="{E5F0AA7C-EAE9-4EBF-8A11-FABC8E4AD95A}" name="Pais_cod3" dataDxfId="20"/>
@@ -2362,11 +2320,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V266"/>
+  <dimension ref="A1:V263"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="L96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O62" sqref="O62"/>
+      <pane ySplit="1" topLeftCell="N232" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T239" sqref="T239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
@@ -2390,7 +2348,7 @@
     <col min="17" max="17" width="15" style="1" customWidth="1"/>
     <col min="18" max="18" width="17.140625" style="1" customWidth="1"/>
     <col min="19" max="19" width="18.42578125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="21.85546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="32.5703125" style="1" customWidth="1"/>
     <col min="21" max="21" width="12.7109375" style="2" customWidth="1"/>
     <col min="22" max="22" width="13.28515625" style="2" customWidth="1"/>
   </cols>
@@ -9647,13 +9605,13 @@
         <v>198</v>
       </c>
       <c r="O107" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="P107" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q107" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="R107" s="1" t="s">
         <v>33</v>
@@ -9662,7 +9620,7 @@
         <v>81</v>
       </c>
       <c r="T107" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="U107" s="2">
         <v>15.785600000000001</v>
@@ -9715,13 +9673,13 @@
         <v>198</v>
       </c>
       <c r="O108" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="P108" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q108" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="R108" s="1" t="s">
         <v>33</v>
@@ -9730,7 +9688,7 @@
         <v>81</v>
       </c>
       <c r="T108" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="U108" s="2">
         <v>15.785600000000001</v>
@@ -9783,13 +9741,13 @@
         <v>198</v>
       </c>
       <c r="O109" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="P109" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q109" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="R109" s="1" t="s">
         <v>33</v>
@@ -9798,7 +9756,7 @@
         <v>81</v>
       </c>
       <c r="T109" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="U109" s="2">
         <v>15.7857</v>
@@ -9851,13 +9809,13 @@
         <v>198</v>
       </c>
       <c r="O110" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="P110" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q110" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="R110" s="1" t="s">
         <v>33</v>
@@ -9866,7 +9824,7 @@
         <v>81</v>
       </c>
       <c r="T110" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="U110" s="2">
         <v>15.7857</v>
@@ -9916,16 +9874,16 @@
         <v>5</v>
       </c>
       <c r="N111" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O111" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P111" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q111" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="R111" s="1" t="s">
         <v>33</v>
@@ -9934,7 +9892,7 @@
         <v>81</v>
       </c>
       <c r="T111" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="U111" s="2">
         <v>15.7858</v>
@@ -9984,16 +9942,16 @@
         <v>7</v>
       </c>
       <c r="N112" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O112" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P112" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q112" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="R112" s="1" t="s">
         <v>33</v>
@@ -10002,7 +9960,7 @@
         <v>81</v>
       </c>
       <c r="T112" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="U112" s="2">
         <v>15.7859</v>
@@ -10052,16 +10010,16 @@
         <v>7</v>
       </c>
       <c r="N113" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O113" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P113" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q113" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="R113" s="1" t="s">
         <v>33</v>
@@ -10070,7 +10028,7 @@
         <v>81</v>
       </c>
       <c r="T113" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="U113" s="2">
         <v>15.786099999999999</v>
@@ -10120,16 +10078,16 @@
         <v>9</v>
       </c>
       <c r="N114" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O114" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P114" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q114" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="R114" s="1" t="s">
         <v>33</v>
@@ -10138,7 +10096,7 @@
         <v>81</v>
       </c>
       <c r="T114" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="U114" s="2">
         <v>15.786099999999999</v>
@@ -10188,16 +10146,16 @@
         <v>9</v>
       </c>
       <c r="N115" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O115" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P115" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q115" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="R115" s="1" t="s">
         <v>33</v>
@@ -10206,7 +10164,7 @@
         <v>81</v>
       </c>
       <c r="T115" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="U115" s="2">
         <v>15.7864</v>
@@ -10256,16 +10214,16 @@
         <v>9</v>
       </c>
       <c r="N116" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O116" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P116" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q116" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="R116" s="1" t="s">
         <v>33</v>
@@ -10274,7 +10232,7 @@
         <v>81</v>
       </c>
       <c r="T116" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="U116" s="2">
         <v>15.7864</v>
@@ -10312,10 +10270,10 @@
         <v>4</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L117" s="1" t="s">
         <v>29</v>
@@ -10324,16 +10282,16 @@
         <v>1</v>
       </c>
       <c r="N117" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O117" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="P117" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q117" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="R117" s="1" t="s">
         <v>33</v>
@@ -10342,7 +10300,7 @@
         <v>81</v>
       </c>
       <c r="T117" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="U117" s="2">
         <v>15.7866</v>
@@ -10380,10 +10338,10 @@
         <v>4</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L118" s="1" t="s">
         <v>29</v>
@@ -10392,16 +10350,16 @@
         <v>1</v>
       </c>
       <c r="N118" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O118" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="P118" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q118" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="R118" s="1" t="s">
         <v>33</v>
@@ -10410,7 +10368,7 @@
         <v>81</v>
       </c>
       <c r="T118" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="U118" s="2">
         <v>15.786799999999999</v>
@@ -10448,10 +10406,10 @@
         <v>4</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L119" s="1" t="s">
         <v>29</v>
@@ -10460,16 +10418,16 @@
         <v>1</v>
       </c>
       <c r="N119" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O119" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="P119" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q119" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="R119" s="1" t="s">
         <v>33</v>
@@ -10478,7 +10436,7 @@
         <v>81</v>
       </c>
       <c r="T119" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="U119" s="2">
         <v>15.786899999999999</v>
@@ -10516,10 +10474,10 @@
         <v>4</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L120" s="1" t="s">
         <v>29</v>
@@ -10528,16 +10486,16 @@
         <v>1</v>
       </c>
       <c r="N120" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O120" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="P120" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q120" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="R120" s="1" t="s">
         <v>33</v>
@@ -10546,7 +10504,7 @@
         <v>81</v>
       </c>
       <c r="T120" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="U120" s="2">
         <v>15.786899999999999</v>
@@ -10584,10 +10542,10 @@
         <v>4</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L121" s="1" t="s">
         <v>29</v>
@@ -10596,16 +10554,16 @@
         <v>1</v>
       </c>
       <c r="N121" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O121" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="P121" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q121" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="R121" s="1" t="s">
         <v>33</v>
@@ -10614,7 +10572,7 @@
         <v>81</v>
       </c>
       <c r="T121" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="U121" s="2">
         <v>15.787000000000001</v>
@@ -10652,10 +10610,10 @@
         <v>4</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L122" s="1" t="s">
         <v>29</v>
@@ -10664,16 +10622,16 @@
         <v>1</v>
       </c>
       <c r="N122" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O122" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="P122" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q122" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="R122" s="1" t="s">
         <v>33</v>
@@ -10682,7 +10640,7 @@
         <v>81</v>
       </c>
       <c r="T122" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="U122" s="2">
         <v>15.787100000000001</v>
@@ -10720,10 +10678,10 @@
         <v>4</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L123" s="1" t="s">
         <v>29</v>
@@ -10732,16 +10690,16 @@
         <v>1</v>
       </c>
       <c r="N123" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O123" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="P123" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q123" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="R123" s="1" t="s">
         <v>33</v>
@@ -10776,10 +10734,10 @@
         <v>13</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>26</v>
@@ -10788,10 +10746,10 @@
         <v>1</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L124" s="1" t="s">
         <v>29</v>
@@ -10800,16 +10758,16 @@
         <v>1</v>
       </c>
       <c r="N124" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="O124" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P124" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q124" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="R124" s="1" t="s">
         <v>33</v>
@@ -10818,7 +10776,7 @@
         <v>81</v>
       </c>
       <c r="T124" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="U124" s="2">
         <v>15.787699999999999</v>
@@ -10844,10 +10802,10 @@
         <v>13</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>26</v>
@@ -10856,10 +10814,10 @@
         <v>1</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L125" s="1" t="s">
         <v>29</v>
@@ -10868,16 +10826,16 @@
         <v>1</v>
       </c>
       <c r="N125" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="O125" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P125" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q125" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="R125" s="1" t="s">
         <v>33</v>
@@ -10886,7 +10844,7 @@
         <v>81</v>
       </c>
       <c r="T125" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="U125" s="2">
         <v>15.7883</v>
@@ -10912,10 +10870,10 @@
         <v>13</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>26</v>
@@ -10924,10 +10882,10 @@
         <v>1</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L126" s="1" t="s">
         <v>29</v>
@@ -10936,16 +10894,16 @@
         <v>1</v>
       </c>
       <c r="N126" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="O126" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P126" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q126" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="R126" s="1" t="s">
         <v>33</v>
@@ -10954,7 +10912,7 @@
         <v>81</v>
       </c>
       <c r="T126" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="U126" s="2">
         <v>15.789400000000001</v>
@@ -10980,10 +10938,10 @@
         <v>17</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>26</v>
@@ -10992,10 +10950,10 @@
         <v>3</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L127" s="1" t="s">
         <v>29</v>
@@ -11004,16 +10962,16 @@
         <v>8</v>
       </c>
       <c r="N127" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="O127" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P127" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q127" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="R127" s="1" t="s">
         <v>33</v>
@@ -11022,7 +10980,7 @@
         <v>81</v>
       </c>
       <c r="T127" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="U127" s="2">
         <v>15.7896</v>
@@ -11072,10 +11030,10 @@
         <v>21</v>
       </c>
       <c r="N128" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="O128" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="P128" s="1" t="s">
         <v>31</v>
@@ -11226,7 +11184,7 @@
         <v>81</v>
       </c>
       <c r="T130" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="U130" s="2">
         <v>15.7906</v>
@@ -11400,10 +11358,10 @@
         <v>4</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L133" s="1" t="s">
         <v>29</v>
@@ -11412,16 +11370,16 @@
         <v>1</v>
       </c>
       <c r="N133" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="O133" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P133" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q133" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="R133" s="1" t="s">
         <v>33</v>
@@ -11430,7 +11388,7 @@
         <v>81</v>
       </c>
       <c r="T133" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="U133" s="2">
         <v>15.790900000000001</v>
@@ -11468,10 +11426,10 @@
         <v>4</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L134" s="1" t="s">
         <v>29</v>
@@ -11480,16 +11438,16 @@
         <v>1</v>
       </c>
       <c r="N134" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="O134" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P134" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q134" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="R134" s="1" t="s">
         <v>33</v>
@@ -11498,7 +11456,7 @@
         <v>81</v>
       </c>
       <c r="T134" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="U134" s="2">
         <v>15.791</v>
@@ -11536,10 +11494,10 @@
         <v>4</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L135" s="1" t="s">
         <v>29</v>
@@ -11548,16 +11506,16 @@
         <v>1</v>
       </c>
       <c r="N135" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="O135" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P135" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q135" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="R135" s="1" t="s">
         <v>33</v>
@@ -11566,7 +11524,7 @@
         <v>81</v>
       </c>
       <c r="T135" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="U135" s="2">
         <v>15.7912</v>
@@ -11604,10 +11562,10 @@
         <v>4</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L136" s="1" t="s">
         <v>29</v>
@@ -11616,16 +11574,16 @@
         <v>1</v>
       </c>
       <c r="N136" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="O136" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P136" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q136" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="R136" s="1" t="s">
         <v>33</v>
@@ -11634,7 +11592,7 @@
         <v>81</v>
       </c>
       <c r="T136" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="U136" s="2">
         <v>15.791399999999999</v>
@@ -11672,10 +11630,10 @@
         <v>4</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L137" s="1" t="s">
         <v>29</v>
@@ -11684,16 +11642,16 @@
         <v>23</v>
       </c>
       <c r="N137" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="O137" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P137" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q137" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="R137" s="1" t="s">
         <v>33</v>
@@ -11702,7 +11660,7 @@
         <v>81</v>
       </c>
       <c r="T137" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="U137" s="2">
         <v>15.791399999999999</v>
@@ -11740,10 +11698,10 @@
         <v>4</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L138" s="1" t="s">
         <v>29</v>
@@ -11752,16 +11710,16 @@
         <v>23</v>
       </c>
       <c r="N138" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="O138" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P138" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q138" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="R138" s="1" t="s">
         <v>33</v>
@@ -11770,7 +11728,7 @@
         <v>81</v>
       </c>
       <c r="T138" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="U138" s="2">
         <v>15.792299999999999</v>
@@ -11835,10 +11793,10 @@
         <v>33</v>
       </c>
       <c r="S139" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="T139" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="U139" s="2">
         <v>15.792899999999999</v>
@@ -11903,10 +11861,10 @@
         <v>33</v>
       </c>
       <c r="S140" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="T140" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="U140" s="2">
         <v>15.792899999999999</v>
@@ -11971,10 +11929,10 @@
         <v>33</v>
       </c>
       <c r="S141" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="T141" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="U141" s="2">
         <v>15.7934</v>
@@ -12039,10 +11997,10 @@
         <v>33</v>
       </c>
       <c r="S142" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="T142" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="U142" s="2">
         <v>15.794</v>
@@ -12107,10 +12065,10 @@
         <v>33</v>
       </c>
       <c r="S143" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="T143" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="U143" s="2">
         <v>15.794600000000001</v>
@@ -12175,10 +12133,10 @@
         <v>33</v>
       </c>
       <c r="S144" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="T144" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="U144" s="2">
         <v>15.7951</v>
@@ -12243,10 +12201,10 @@
         <v>33</v>
       </c>
       <c r="S145" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="T145" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="U145" s="2">
         <v>15.7516</v>
@@ -12296,25 +12254,25 @@
         <v>6</v>
       </c>
       <c r="N146" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="O146" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="P146" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q146" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="R146" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S146" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="T146" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="U146" s="2">
         <v>15.7531</v>
@@ -12340,10 +12298,10 @@
         <v>14</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H147" s="1" t="s">
         <v>26</v>
@@ -12352,10 +12310,10 @@
         <v>1</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L147" s="1" t="s">
         <v>29</v>
@@ -12364,25 +12322,25 @@
         <v>1</v>
       </c>
       <c r="N147" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="O147" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="O147" s="1" t="s">
-        <v>269</v>
-      </c>
       <c r="P147" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q147" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="R147" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S147" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="T147" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="U147" s="2">
         <v>15.7532</v>
@@ -12447,10 +12405,10 @@
         <v>33</v>
       </c>
       <c r="S148" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="T148" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="U148" s="2">
         <v>15.753399999999999</v>
@@ -12515,10 +12473,10 @@
         <v>33</v>
       </c>
       <c r="S149" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="T149" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="U149" s="2">
         <v>15.7547</v>
@@ -12583,10 +12541,10 @@
         <v>33</v>
       </c>
       <c r="S150" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="T150" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="U150" s="2">
         <v>15.754799999999999</v>
@@ -12651,10 +12609,10 @@
         <v>33</v>
       </c>
       <c r="S151" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="T151" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="U151" s="2">
         <v>15.7552</v>
@@ -12719,10 +12677,10 @@
         <v>33</v>
       </c>
       <c r="S152" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="T152" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="U152" s="2">
         <v>15.756600000000001</v>
@@ -12787,10 +12745,10 @@
         <v>33</v>
       </c>
       <c r="S153" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="T153" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="U153" s="2">
         <v>15.7567</v>
@@ -12855,10 +12813,10 @@
         <v>33</v>
       </c>
       <c r="S154" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="T154" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="U154" s="2">
         <v>15.7567</v>
@@ -12923,10 +12881,10 @@
         <v>33</v>
       </c>
       <c r="S155" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="T155" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="U155" s="2">
         <v>15.7568</v>
@@ -12991,10 +12949,10 @@
         <v>33</v>
       </c>
       <c r="S156" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="T156" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="U156" s="2">
         <v>15.757</v>
@@ -13059,10 +13017,10 @@
         <v>33</v>
       </c>
       <c r="S157" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="T157" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="U157" s="2">
         <v>15.7575</v>
@@ -13127,10 +13085,10 @@
         <v>33</v>
       </c>
       <c r="S158" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="T158" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="U158" s="2">
         <v>15.7577</v>
@@ -13195,10 +13153,10 @@
         <v>33</v>
       </c>
       <c r="S159" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="T159" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="U159" s="2">
         <v>15.758100000000001</v>
@@ -13263,10 +13221,10 @@
         <v>33</v>
       </c>
       <c r="S160" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="T160" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="U160" s="2">
         <v>15.7583</v>
@@ -13331,10 +13289,10 @@
         <v>33</v>
       </c>
       <c r="S161" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="T161" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="U161" s="2">
         <v>15.759600000000001</v>
@@ -13372,10 +13330,10 @@
         <v>2</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K162" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L162" s="1" t="s">
         <v>29</v>
@@ -13384,25 +13342,25 @@
         <v>1</v>
       </c>
       <c r="N162" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="O162" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="P162" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q162" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="R162" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S162" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="T162" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="U162" s="2">
         <v>15.7597</v>
@@ -13440,10 +13398,10 @@
         <v>2</v>
       </c>
       <c r="J163" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K163" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L163" s="1" t="s">
         <v>29</v>
@@ -13452,25 +13410,25 @@
         <v>1</v>
       </c>
       <c r="N163" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="O163" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="P163" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q163" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="R163" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S163" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="T163" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="U163" s="2">
         <v>15.7601</v>
@@ -13511,7 +13469,7 @@
         <v>134</v>
       </c>
       <c r="K164" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L164" s="1" t="s">
         <v>29</v>
@@ -13523,7 +13481,7 @@
         <v>136</v>
       </c>
       <c r="O164" s="1" t="s">
-        <v>295</v>
+        <v>135</v>
       </c>
       <c r="P164" s="1" t="s">
         <v>31</v>
@@ -13535,10 +13493,10 @@
         <v>33</v>
       </c>
       <c r="S164" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="T164" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="U164" s="2">
         <v>15.7615</v>
@@ -13603,10 +13561,10 @@
         <v>33</v>
       </c>
       <c r="S165" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="T165" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="U165" s="2">
         <v>15.7616</v>
@@ -13671,10 +13629,10 @@
         <v>33</v>
       </c>
       <c r="S166" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="T166" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="U166" s="2">
         <v>15.7616</v>
@@ -13739,10 +13697,10 @@
         <v>33</v>
       </c>
       <c r="S167" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="T167" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="U167" s="2">
         <v>15.7804</v>
@@ -13807,10 +13765,10 @@
         <v>33</v>
       </c>
       <c r="S168" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="T168" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="U168" s="2">
         <v>15.787100000000001</v>
@@ -13875,10 +13833,10 @@
         <v>33</v>
       </c>
       <c r="S169" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="T169" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="U169" s="2">
         <v>15.7631</v>
@@ -13943,10 +13901,10 @@
         <v>33</v>
       </c>
       <c r="S170" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="T170" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="U170" s="2">
         <v>15.7714</v>
@@ -14011,10 +13969,10 @@
         <v>33</v>
       </c>
       <c r="S171" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="T171" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U171" s="2">
         <v>15.774900000000001</v>
@@ -14079,10 +14037,10 @@
         <v>33</v>
       </c>
       <c r="S172" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="T172" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="U172" s="2">
         <v>15.774900000000001</v>
@@ -14147,10 +14105,10 @@
         <v>33</v>
       </c>
       <c r="S173" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="T173" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="U173" s="2">
         <v>15.7751</v>
@@ -14215,10 +14173,10 @@
         <v>33</v>
       </c>
       <c r="S174" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="T174" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="U174" s="2">
         <v>15.775600000000001</v>
@@ -14283,10 +14241,10 @@
         <v>33</v>
       </c>
       <c r="S175" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="T175" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="U175" s="2">
         <v>15.7759</v>
@@ -14351,10 +14309,10 @@
         <v>33</v>
       </c>
       <c r="S176" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="T176" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="U176" s="2">
         <v>15.777200000000001</v>
@@ -14419,10 +14377,10 @@
         <v>33</v>
       </c>
       <c r="S177" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="T177" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="U177" s="2">
         <v>15.777200000000001</v>
@@ -14487,10 +14445,10 @@
         <v>33</v>
       </c>
       <c r="S178" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="T178" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="U178" s="2">
         <v>15.7773</v>
@@ -14555,10 +14513,10 @@
         <v>33</v>
       </c>
       <c r="S179" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="T179" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="U179" s="2">
         <v>15.7774</v>
@@ -14623,10 +14581,10 @@
         <v>33</v>
       </c>
       <c r="S180" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="T180" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="U180" s="2">
         <v>15.7776</v>
@@ -14691,10 +14649,10 @@
         <v>33</v>
       </c>
       <c r="S181" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="T181" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="U181" s="2">
         <v>15.781599999999999</v>
@@ -14744,25 +14702,25 @@
         <v>9</v>
       </c>
       <c r="N182" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O182" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P182" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q182" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="R182" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S182" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="T182" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="U182" s="2">
         <v>15.6366</v>
@@ -14788,10 +14746,10 @@
         <v>12</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H183" s="1" t="s">
         <v>26</v>
@@ -14800,10 +14758,10 @@
         <v>8</v>
       </c>
       <c r="J183" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K183" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L183" s="1" t="s">
         <v>29</v>
@@ -14812,25 +14770,25 @@
         <v>1</v>
       </c>
       <c r="N183" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="O183" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="O183" s="1" t="s">
-        <v>314</v>
-      </c>
       <c r="P183" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q183" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="R183" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S183" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="T183" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="U183" s="2">
         <v>15.701499999999999</v>
@@ -14856,10 +14814,10 @@
         <v>13</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H184" s="1" t="s">
         <v>26</v>
@@ -14868,10 +14826,10 @@
         <v>1</v>
       </c>
       <c r="J184" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K184" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L184" s="1" t="s">
         <v>29</v>
@@ -14880,25 +14838,25 @@
         <v>1</v>
       </c>
       <c r="N184" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="O184" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P184" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q184" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="R184" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S184" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="T184" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="U184" s="2">
         <v>15.726900000000001</v>
@@ -14924,10 +14882,10 @@
         <v>14</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H185" s="1" t="s">
         <v>26</v>
@@ -14936,10 +14894,10 @@
         <v>1</v>
       </c>
       <c r="J185" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K185" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L185" s="1" t="s">
         <v>29</v>
@@ -14948,25 +14906,25 @@
         <v>1</v>
       </c>
       <c r="N185" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="O185" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="O185" s="1" t="s">
-        <v>269</v>
-      </c>
       <c r="P185" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q185" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="R185" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S185" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="T185" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="U185" s="2">
         <v>15.7827</v>
@@ -15004,10 +14962,10 @@
         <v>4</v>
       </c>
       <c r="J186" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K186" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L186" s="1" t="s">
         <v>29</v>
@@ -15016,25 +14974,25 @@
         <v>1</v>
       </c>
       <c r="N186" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="O186" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P186" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q186" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="R186" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S186" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="T186" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="U186" s="2">
         <v>15.7874</v>
@@ -15072,10 +15030,10 @@
         <v>4</v>
       </c>
       <c r="J187" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K187" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L187" s="1" t="s">
         <v>29</v>
@@ -15084,25 +15042,25 @@
         <v>1</v>
       </c>
       <c r="N187" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="O187" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P187" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q187" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="R187" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S187" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="T187" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="U187" s="2">
         <v>15.662000000000001</v>
@@ -15140,10 +15098,10 @@
         <v>4</v>
       </c>
       <c r="J188" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K188" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L188" s="1" t="s">
         <v>29</v>
@@ -15152,25 +15110,25 @@
         <v>1</v>
       </c>
       <c r="N188" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="O188" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P188" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q188" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="R188" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S188" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="T188" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="U188" s="2">
         <v>15.786799999999999</v>
@@ -15208,10 +15166,10 @@
         <v>4</v>
       </c>
       <c r="J189" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K189" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L189" s="1" t="s">
         <v>29</v>
@@ -15220,25 +15178,25 @@
         <v>1</v>
       </c>
       <c r="N189" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="O189" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P189" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q189" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="R189" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S189" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="T189" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="U189" s="2">
         <v>15.7875</v>
@@ -15303,10 +15261,10 @@
         <v>33</v>
       </c>
       <c r="S190" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T190" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="U190" s="2">
         <v>15.7963</v>
@@ -15371,10 +15329,10 @@
         <v>33</v>
       </c>
       <c r="S191" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T191" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="U191" s="2">
         <v>15.7416</v>
@@ -15439,10 +15397,10 @@
         <v>33</v>
       </c>
       <c r="S192" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T192" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="U192" s="2">
         <v>15.743399999999999</v>
@@ -15507,10 +15465,10 @@
         <v>33</v>
       </c>
       <c r="S193" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T193" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="U193" s="2">
         <v>15.5977</v>
@@ -15575,7 +15533,7 @@
         <v>33</v>
       </c>
       <c r="S194" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T194" s="1" t="s">
         <v>329</v>
@@ -15643,7 +15601,7 @@
         <v>33</v>
       </c>
       <c r="S195" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T195" s="1" t="s">
         <v>329</v>
@@ -15711,7 +15669,7 @@
         <v>33</v>
       </c>
       <c r="S196" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T196" s="1" t="s">
         <v>329</v>
@@ -15779,10 +15737,10 @@
         <v>33</v>
       </c>
       <c r="S197" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T197" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="U197" s="2">
         <v>15.5985</v>
@@ -15847,7 +15805,7 @@
         <v>33</v>
       </c>
       <c r="S198" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T198" s="1" t="s">
         <v>337</v>
@@ -15915,7 +15873,7 @@
         <v>33</v>
       </c>
       <c r="S199" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T199" s="1" t="s">
         <v>343</v>
@@ -15983,10 +15941,10 @@
         <v>33</v>
       </c>
       <c r="S200" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T200" s="1" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="U200" s="2">
         <v>15.598599999999999</v>
@@ -16051,10 +16009,10 @@
         <v>33</v>
       </c>
       <c r="S201" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T201" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="U201" s="2">
         <v>15.598699999999999</v>
@@ -16119,10 +16077,10 @@
         <v>33</v>
       </c>
       <c r="S202" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T202" s="1" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="U202" s="2">
         <v>15.598800000000001</v>
@@ -16187,10 +16145,10 @@
         <v>33</v>
       </c>
       <c r="S203" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T203" s="1" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="U203" s="2">
         <v>15.5989</v>
@@ -16255,7 +16213,7 @@
         <v>33</v>
       </c>
       <c r="S204" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T204" s="1" t="s">
         <v>329</v>
@@ -16323,10 +16281,10 @@
         <v>33</v>
       </c>
       <c r="S205" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T205" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="U205" s="2">
         <v>15.5989</v>
@@ -16364,10 +16322,10 @@
         <v>2</v>
       </c>
       <c r="J206" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K206" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L206" s="1" t="s">
         <v>29</v>
@@ -16376,25 +16334,25 @@
         <v>1</v>
       </c>
       <c r="N206" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="O206" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="P206" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q206" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="R206" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S206" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T206" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="U206" s="2">
         <v>15.599</v>
@@ -16432,10 +16390,10 @@
         <v>2</v>
       </c>
       <c r="J207" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K207" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L207" s="1" t="s">
         <v>29</v>
@@ -16444,25 +16402,25 @@
         <v>1</v>
       </c>
       <c r="N207" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="O207" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="P207" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q207" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="R207" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S207" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T207" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="U207" s="2">
         <v>15.599</v>
@@ -16500,10 +16458,10 @@
         <v>2</v>
       </c>
       <c r="J208" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K208" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L208" s="1" t="s">
         <v>29</v>
@@ -16512,25 +16470,25 @@
         <v>1</v>
       </c>
       <c r="N208" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="O208" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="P208" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q208" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="R208" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S208" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T208" s="1" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="U208" s="2">
         <v>15.5992</v>
@@ -16568,10 +16526,10 @@
         <v>3</v>
       </c>
       <c r="J209" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="K209" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="L209" s="1" t="s">
         <v>29</v>
@@ -16580,25 +16538,25 @@
         <v>7</v>
       </c>
       <c r="N209" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="O209" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="P209" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q209" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="R209" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S209" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T209" s="1" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="U209" s="2">
         <v>15.599399999999999</v>
@@ -16639,7 +16597,7 @@
         <v>134</v>
       </c>
       <c r="K210" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L210" s="1" t="s">
         <v>29</v>
@@ -16651,7 +16609,7 @@
         <v>136</v>
       </c>
       <c r="O210" s="1" t="s">
-        <v>295</v>
+        <v>135</v>
       </c>
       <c r="P210" s="1" t="s">
         <v>31</v>
@@ -16663,10 +16621,10 @@
         <v>33</v>
       </c>
       <c r="S210" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T210" s="1" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="U210" s="2">
         <v>15.599399999999999</v>
@@ -16707,7 +16665,7 @@
         <v>134</v>
       </c>
       <c r="K211" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L211" s="1" t="s">
         <v>29</v>
@@ -16719,7 +16677,7 @@
         <v>136</v>
       </c>
       <c r="O211" s="1" t="s">
-        <v>295</v>
+        <v>135</v>
       </c>
       <c r="P211" s="1" t="s">
         <v>31</v>
@@ -16731,10 +16689,10 @@
         <v>33</v>
       </c>
       <c r="S211" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T211" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="U211" s="2">
         <v>15.599500000000001</v>
@@ -16775,7 +16733,7 @@
         <v>134</v>
       </c>
       <c r="K212" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L212" s="1" t="s">
         <v>29</v>
@@ -16787,7 +16745,7 @@
         <v>136</v>
       </c>
       <c r="O212" s="1" t="s">
-        <v>295</v>
+        <v>135</v>
       </c>
       <c r="P212" s="1" t="s">
         <v>31</v>
@@ -16799,10 +16757,10 @@
         <v>33</v>
       </c>
       <c r="S212" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T212" s="1" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="U212" s="2">
         <v>15.599600000000001</v>
@@ -16852,10 +16810,10 @@
         <v>39</v>
       </c>
       <c r="N213" s="1" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="O213" s="1" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="P213" s="1" t="s">
         <v>31</v>
@@ -16867,10 +16825,10 @@
         <v>33</v>
       </c>
       <c r="S213" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T213" s="1" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="U213" s="2">
         <v>15.5997</v>
@@ -16896,10 +16854,10 @@
         <v>6</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="H214" s="1" t="s">
         <v>26</v>
@@ -16908,10 +16866,10 @@
         <v>1</v>
       </c>
       <c r="J214" s="1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="K214" s="1" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="L214" s="1" t="s">
         <v>29</v>
@@ -16920,25 +16878,25 @@
         <v>1</v>
       </c>
       <c r="N214" s="1" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="O214" s="1" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="P214" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q214" s="1" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="R214" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S214" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T214" s="1" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="U214" s="2">
         <v>15.5997</v>
@@ -16964,10 +16922,10 @@
         <v>6</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="H215" s="1" t="s">
         <v>26</v>
@@ -16976,10 +16934,10 @@
         <v>15</v>
       </c>
       <c r="J215" s="1" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="K215" s="1" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="L215" s="1" t="s">
         <v>29</v>
@@ -16988,25 +16946,25 @@
         <v>1</v>
       </c>
       <c r="N215" s="1" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="O215" s="1" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="P215" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q215" s="1" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="R215" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S215" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T215" s="1" t="s">
-        <v>374</v>
+        <v>326</v>
       </c>
       <c r="U215" s="2">
         <v>15.5997</v>
@@ -17032,10 +16990,10 @@
         <v>6</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="H216" s="1" t="s">
         <v>26</v>
@@ -17044,10 +17002,10 @@
         <v>15</v>
       </c>
       <c r="J216" s="1" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="K216" s="1" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="L216" s="1" t="s">
         <v>29</v>
@@ -17056,25 +17014,25 @@
         <v>1</v>
       </c>
       <c r="N216" s="1" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="O216" s="1" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="P216" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q216" s="1" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="R216" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S216" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T216" s="1" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="U216" s="2">
         <v>15.5997</v>
@@ -17139,10 +17097,10 @@
         <v>33</v>
       </c>
       <c r="S217" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T217" s="1" t="s">
-        <v>284</v>
+        <v>368</v>
       </c>
       <c r="U217" s="2">
         <v>15.5999</v>
@@ -17207,10 +17165,10 @@
         <v>33</v>
       </c>
       <c r="S218" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T218" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="U218" s="2">
         <v>15.5999</v>
@@ -17275,7 +17233,7 @@
         <v>33</v>
       </c>
       <c r="S219" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T219" s="1" t="s">
         <v>329</v>
@@ -17343,10 +17301,10 @@
         <v>33</v>
       </c>
       <c r="S220" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T220" s="1" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="U220" s="2">
         <v>15.6</v>
@@ -17411,10 +17369,10 @@
         <v>33</v>
       </c>
       <c r="S221" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T221" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="U221" s="2">
         <v>15.600300000000001</v>
@@ -17479,10 +17437,10 @@
         <v>33</v>
       </c>
       <c r="S222" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T222" s="1" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="U222" s="2">
         <v>15.6004</v>
@@ -17547,10 +17505,10 @@
         <v>33</v>
       </c>
       <c r="S223" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T223" s="1" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="U223" s="2">
         <v>15.601000000000001</v>
@@ -17615,10 +17573,10 @@
         <v>33</v>
       </c>
       <c r="S224" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T224" s="1" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="U224" s="2">
         <v>15.601100000000001</v>
@@ -17683,10 +17641,10 @@
         <v>33</v>
       </c>
       <c r="S225" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T225" s="1" t="s">
-        <v>378</v>
+        <v>265</v>
       </c>
       <c r="U225" s="2">
         <v>15.602</v>
@@ -17751,10 +17709,10 @@
         <v>33</v>
       </c>
       <c r="S226" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T226" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="U226" s="2">
         <v>15.602499999999999</v>
@@ -17819,10 +17777,10 @@
         <v>33</v>
       </c>
       <c r="S227" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T227" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="U227" s="2">
         <v>15.6463</v>
@@ -17887,10 +17845,10 @@
         <v>33</v>
       </c>
       <c r="S228" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T228" s="1" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="U228" s="2">
         <v>15.6639</v>
@@ -17901,7 +17859,7 @@
     </row>
     <row r="229" spans="1:22">
       <c r="A229" s="1">
-        <v>25272</v>
+        <v>25353</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>22</v>
@@ -17955,13 +17913,13 @@
         <v>33</v>
       </c>
       <c r="S229" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T229" s="1" t="s">
-        <v>380</v>
+        <v>326</v>
       </c>
       <c r="U229" s="2">
-        <v>15.761900000000001</v>
+        <v>15.7628</v>
       </c>
       <c r="V229" s="2">
         <v>-87.479900000000001</v>
@@ -17969,7 +17927,7 @@
     </row>
     <row r="230" spans="1:22">
       <c r="A230" s="1">
-        <v>25273</v>
+        <v>25448</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>22</v>
@@ -18023,21 +17981,21 @@
         <v>33</v>
       </c>
       <c r="S230" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T230" s="1" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="U230" s="2">
-        <v>15.762600000000001</v>
+        <v>15.7629</v>
       </c>
       <c r="V230" s="2">
-        <v>-87.48</v>
+        <v>-87.477099999999993</v>
       </c>
     </row>
     <row r="231" spans="1:22">
       <c r="A231" s="1">
-        <v>25353</v>
+        <v>25469</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>22</v>
@@ -18091,21 +18049,21 @@
         <v>33</v>
       </c>
       <c r="S231" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T231" s="1" t="s">
-        <v>382</v>
+        <v>327</v>
       </c>
       <c r="U231" s="2">
-        <v>15.7628</v>
+        <v>15.7629</v>
       </c>
       <c r="V231" s="2">
-        <v>-87.479900000000001</v>
+        <v>-87.476699999999994</v>
       </c>
     </row>
     <row r="232" spans="1:22">
       <c r="A232" s="1">
-        <v>25448</v>
+        <v>25501</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>22</v>
@@ -18159,21 +18117,21 @@
         <v>33</v>
       </c>
       <c r="S232" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T232" s="1" t="s">
-        <v>383</v>
+        <v>326</v>
       </c>
       <c r="U232" s="2">
-        <v>15.7629</v>
+        <v>15.7631</v>
       </c>
       <c r="V232" s="2">
-        <v>-87.477099999999993</v>
+        <v>-87.476299999999995</v>
       </c>
     </row>
     <row r="233" spans="1:22">
       <c r="A233" s="1">
-        <v>25469</v>
+        <v>25539</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>22</v>
@@ -18227,21 +18185,21 @@
         <v>33</v>
       </c>
       <c r="S233" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T233" s="1" t="s">
-        <v>384</v>
+        <v>329</v>
       </c>
       <c r="U233" s="2">
-        <v>15.7629</v>
+        <v>15.763199999999999</v>
       </c>
       <c r="V233" s="2">
-        <v>-87.476699999999994</v>
+        <v>-87.476100000000002</v>
       </c>
     </row>
     <row r="234" spans="1:22">
       <c r="A234" s="1">
-        <v>25501</v>
+        <v>25562</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>22</v>
@@ -18295,21 +18253,21 @@
         <v>33</v>
       </c>
       <c r="S234" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T234" s="1" t="s">
-        <v>325</v>
+        <v>374</v>
       </c>
       <c r="U234" s="2">
-        <v>15.7631</v>
+        <v>15.7651</v>
       </c>
       <c r="V234" s="2">
-        <v>-87.476299999999995</v>
+        <v>-87.480400000000003</v>
       </c>
     </row>
     <row r="235" spans="1:22">
       <c r="A235" s="1">
-        <v>25539</v>
+        <v>25609</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>22</v>
@@ -18363,21 +18321,21 @@
         <v>33</v>
       </c>
       <c r="S235" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T235" s="1" t="s">
-        <v>329</v>
+        <v>265</v>
       </c>
       <c r="U235" s="2">
-        <v>15.763199999999999</v>
+        <v>15.766500000000001</v>
       </c>
       <c r="V235" s="2">
-        <v>-87.476100000000002</v>
+        <v>-87.48</v>
       </c>
     </row>
     <row r="236" spans="1:22">
       <c r="A236" s="1">
-        <v>25549</v>
+        <v>25755</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>22</v>
@@ -18431,21 +18389,21 @@
         <v>33</v>
       </c>
       <c r="S236" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T236" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="U236" s="2">
-        <v>15.765000000000001</v>
+        <v>15.767799999999999</v>
       </c>
       <c r="V236" s="2">
-        <v>-87.480400000000003</v>
+        <v>-87.480900000000005</v>
       </c>
     </row>
     <row r="237" spans="1:22">
       <c r="A237" s="1">
-        <v>25562</v>
+        <v>27117</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>22</v>
@@ -18469,13 +18427,13 @@
         <v>26</v>
       </c>
       <c r="I237" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J237" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="K237" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="L237" s="1" t="s">
         <v>29</v>
@@ -18484,36 +18442,36 @@
         <v>1</v>
       </c>
       <c r="N237" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="O237" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="P237" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q237" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="R237" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S237" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T237" s="1" t="s">
-        <v>386</v>
+        <v>326</v>
       </c>
       <c r="U237" s="2">
-        <v>15.7651</v>
+        <v>15.7722</v>
       </c>
       <c r="V237" s="2">
-        <v>-87.480400000000003</v>
+        <v>-87.470399999999998</v>
       </c>
     </row>
     <row r="238" spans="1:22">
       <c r="A238" s="1">
-        <v>25609</v>
+        <v>27374</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>22</v>
@@ -18537,13 +18495,13 @@
         <v>26</v>
       </c>
       <c r="I238" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J238" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="K238" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="L238" s="1" t="s">
         <v>29</v>
@@ -18552,36 +18510,36 @@
         <v>1</v>
       </c>
       <c r="N238" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="O238" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="P238" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q238" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="R238" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S238" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T238" s="1" t="s">
-        <v>263</v>
+        <v>376</v>
       </c>
       <c r="U238" s="2">
-        <v>15.766500000000001</v>
+        <v>15.773400000000001</v>
       </c>
       <c r="V238" s="2">
-        <v>-87.48</v>
+        <v>-87.448700000000002</v>
       </c>
     </row>
     <row r="239" spans="1:22">
       <c r="A239" s="1">
-        <v>25755</v>
+        <v>27389</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>22</v>
@@ -18605,13 +18563,13 @@
         <v>26</v>
       </c>
       <c r="I239" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J239" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="L239" s="1" t="s">
         <v>29</v>
@@ -18620,36 +18578,36 @@
         <v>1</v>
       </c>
       <c r="N239" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="O239" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="P239" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q239" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="R239" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S239" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T239" s="1" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="U239" s="2">
-        <v>15.767799999999999</v>
+        <v>15.7738</v>
       </c>
       <c r="V239" s="2">
-        <v>-87.480900000000005</v>
+        <v>-87.475499999999997</v>
       </c>
     </row>
     <row r="240" spans="1:22">
       <c r="A240" s="1">
-        <v>27117</v>
+        <v>24277</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>22</v>
@@ -18673,51 +18631,51 @@
         <v>26</v>
       </c>
       <c r="I240" s="1">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="J240" s="1" t="s">
-        <v>68</v>
+        <v>378</v>
       </c>
       <c r="K240" s="1" t="s">
-        <v>69</v>
+        <v>379</v>
       </c>
       <c r="L240" s="1" t="s">
         <v>29</v>
       </c>
       <c r="M240" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N240" s="1" t="s">
-        <v>70</v>
+        <v>380</v>
       </c>
       <c r="O240" s="1" t="s">
-        <v>69</v>
+        <v>381</v>
       </c>
       <c r="P240" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q240" s="1" t="s">
-        <v>71</v>
+        <v>382</v>
       </c>
       <c r="R240" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S240" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T240" s="1" t="s">
-        <v>328</v>
+        <v>383</v>
       </c>
       <c r="U240" s="2">
-        <v>15.7722</v>
+        <v>15.7738</v>
       </c>
       <c r="V240" s="2">
-        <v>-87.470399999999998</v>
+        <v>-87.475399999999993</v>
       </c>
     </row>
     <row r="241" spans="1:22">
       <c r="A241" s="1">
-        <v>27374</v>
+        <v>25806</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>22</v>
@@ -18741,13 +18699,13 @@
         <v>26</v>
       </c>
       <c r="I241" s="1">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="J241" s="1" t="s">
-        <v>68</v>
+        <v>189</v>
       </c>
       <c r="K241" s="1" t="s">
-        <v>69</v>
+        <v>190</v>
       </c>
       <c r="L241" s="1" t="s">
         <v>29</v>
@@ -18756,36 +18714,36 @@
         <v>1</v>
       </c>
       <c r="N241" s="1" t="s">
-        <v>70</v>
+        <v>191</v>
       </c>
       <c r="O241" s="1" t="s">
-        <v>69</v>
+        <v>190</v>
       </c>
       <c r="P241" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q241" s="1" t="s">
-        <v>71</v>
+        <v>192</v>
       </c>
       <c r="R241" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S241" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T241" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="U241" s="2">
-        <v>15.773400000000001</v>
+        <v>15.7738</v>
       </c>
       <c r="V241" s="2">
-        <v>-87.448700000000002</v>
+        <v>-87.475300000000004</v>
       </c>
     </row>
     <row r="242" spans="1:22">
       <c r="A242" s="1">
-        <v>27389</v>
+        <v>26390</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>22</v>
@@ -18797,25 +18755,25 @@
         <v>3</v>
       </c>
       <c r="E242" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>61</v>
+        <v>385</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>62</v>
+        <v>386</v>
       </c>
       <c r="H242" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I242" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J242" s="1" t="s">
-        <v>68</v>
+        <v>387</v>
       </c>
       <c r="K242" s="1" t="s">
-        <v>69</v>
+        <v>388</v>
       </c>
       <c r="L242" s="1" t="s">
         <v>29</v>
@@ -18824,36 +18782,36 @@
         <v>1</v>
       </c>
       <c r="N242" s="1" t="s">
-        <v>70</v>
+        <v>389</v>
       </c>
       <c r="O242" s="1" t="s">
-        <v>69</v>
+        <v>390</v>
       </c>
       <c r="P242" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q242" s="1" t="s">
-        <v>71</v>
+        <v>391</v>
       </c>
       <c r="R242" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S242" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T242" s="1" t="s">
-        <v>389</v>
+        <v>326</v>
       </c>
       <c r="U242" s="2">
-        <v>15.7738</v>
+        <v>15.774100000000001</v>
       </c>
       <c r="V242" s="2">
-        <v>-87.475499999999997</v>
+        <v>-87.464399999999998</v>
       </c>
     </row>
     <row r="243" spans="1:22">
       <c r="A243" s="1">
-        <v>24277</v>
+        <v>26397</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>22</v>
@@ -18865,63 +18823,63 @@
         <v>3</v>
       </c>
       <c r="E243" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>61</v>
+        <v>385</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>62</v>
+        <v>386</v>
       </c>
       <c r="H243" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I243" s="1">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J243" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="K243" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="L243" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M243" s="1">
+        <v>1</v>
+      </c>
+      <c r="N243" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="O243" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="K243" s="1" t="s">
+      <c r="P243" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q243" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="L243" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M243" s="1">
-        <v>2</v>
-      </c>
-      <c r="N243" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="O243" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="P243" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q243" s="1" t="s">
-        <v>394</v>
-      </c>
       <c r="R243" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S243" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T243" s="1" t="s">
-        <v>395</v>
+        <v>326</v>
       </c>
       <c r="U243" s="2">
-        <v>15.7738</v>
+        <v>15.7744</v>
       </c>
       <c r="V243" s="2">
-        <v>-87.475399999999993</v>
+        <v>-87.446799999999996</v>
       </c>
     </row>
     <row r="244" spans="1:22">
       <c r="A244" s="1">
-        <v>25806</v>
+        <v>26401</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>22</v>
@@ -18933,25 +18891,25 @@
         <v>3</v>
       </c>
       <c r="E244" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>61</v>
+        <v>385</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>62</v>
+        <v>386</v>
       </c>
       <c r="H244" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I244" s="1">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="J244" s="1" t="s">
-        <v>189</v>
+        <v>387</v>
       </c>
       <c r="K244" s="1" t="s">
-        <v>190</v>
+        <v>388</v>
       </c>
       <c r="L244" s="1" t="s">
         <v>29</v>
@@ -18960,36 +18918,36 @@
         <v>1</v>
       </c>
       <c r="N244" s="1" t="s">
-        <v>191</v>
+        <v>389</v>
       </c>
       <c r="O244" s="1" t="s">
-        <v>190</v>
+        <v>390</v>
       </c>
       <c r="P244" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q244" s="1" t="s">
-        <v>192</v>
+        <v>391</v>
       </c>
       <c r="R244" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S244" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T244" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="U244" s="2">
-        <v>15.7738</v>
+        <v>15.774699999999999</v>
       </c>
       <c r="V244" s="2">
-        <v>-87.475300000000004</v>
+        <v>-87.473600000000005</v>
       </c>
     </row>
     <row r="245" spans="1:22">
       <c r="A245" s="1">
-        <v>26390</v>
+        <v>35789</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>22</v>
@@ -19001,25 +18959,25 @@
         <v>3</v>
       </c>
       <c r="E245" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>397</v>
+        <v>194</v>
       </c>
       <c r="G245" s="1" t="s">
-        <v>398</v>
+        <v>195</v>
       </c>
       <c r="H245" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I245" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J245" s="1" t="s">
-        <v>399</v>
+        <v>196</v>
       </c>
       <c r="K245" s="1" t="s">
-        <v>400</v>
+        <v>197</v>
       </c>
       <c r="L245" s="1" t="s">
         <v>29</v>
@@ -19028,36 +18986,36 @@
         <v>1</v>
       </c>
       <c r="N245" s="1" t="s">
-        <v>401</v>
+        <v>198</v>
       </c>
       <c r="O245" s="1" t="s">
-        <v>402</v>
+        <v>199</v>
       </c>
       <c r="P245" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q245" s="1" t="s">
-        <v>403</v>
+        <v>200</v>
       </c>
       <c r="R245" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S245" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T245" s="1" t="s">
-        <v>325</v>
+        <v>393</v>
       </c>
       <c r="U245" s="2">
-        <v>15.774100000000001</v>
+        <v>15.775399999999999</v>
       </c>
       <c r="V245" s="2">
-        <v>-87.464399999999998</v>
+        <v>-87.444699999999997</v>
       </c>
     </row>
     <row r="246" spans="1:22">
       <c r="A246" s="1">
-        <v>26397</v>
+        <v>35605</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>22</v>
@@ -19069,25 +19027,25 @@
         <v>3</v>
       </c>
       <c r="E246" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>397</v>
+        <v>194</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>398</v>
+        <v>195</v>
       </c>
       <c r="H246" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I246" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J246" s="1" t="s">
-        <v>399</v>
+        <v>216</v>
       </c>
       <c r="K246" s="1" t="s">
-        <v>400</v>
+        <v>217</v>
       </c>
       <c r="L246" s="1" t="s">
         <v>29</v>
@@ -19096,36 +19054,36 @@
         <v>1</v>
       </c>
       <c r="N246" s="1" t="s">
-        <v>401</v>
+        <v>218</v>
       </c>
       <c r="O246" s="1" t="s">
-        <v>402</v>
+        <v>219</v>
       </c>
       <c r="P246" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q246" s="1" t="s">
-        <v>403</v>
+        <v>220</v>
       </c>
       <c r="R246" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S246" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T246" s="1" t="s">
-        <v>325</v>
+        <v>394</v>
       </c>
       <c r="U246" s="2">
-        <v>15.7744</v>
+        <v>15.775600000000001</v>
       </c>
       <c r="V246" s="2">
-        <v>-87.446799999999996</v>
+        <v>-87.473799999999997</v>
       </c>
     </row>
     <row r="247" spans="1:22">
       <c r="A247" s="1">
-        <v>26401</v>
+        <v>25856</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>22</v>
@@ -19137,63 +19095,63 @@
         <v>3</v>
       </c>
       <c r="E247" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F247" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="G247" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H247" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I247" s="1">
+        <v>17</v>
+      </c>
+      <c r="J247" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="K247" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="L247" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M247" s="1">
+        <v>7</v>
+      </c>
+      <c r="N247" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="G247" s="1" t="s">
+      <c r="O247" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="H247" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I247" s="1">
-        <v>7</v>
-      </c>
-      <c r="J247" s="1" t="s">
+      <c r="P247" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q247" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="K247" s="1" t="s">
+      <c r="R247" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S247" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="T247" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="L247" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M247" s="1">
-        <v>1</v>
-      </c>
-      <c r="N247" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="O247" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="P247" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q247" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="R247" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S247" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="T247" s="1" t="s">
-        <v>404</v>
-      </c>
       <c r="U247" s="2">
-        <v>15.774699999999999</v>
+        <v>15.7789</v>
       </c>
       <c r="V247" s="2">
-        <v>-87.473600000000005</v>
+        <v>-87.464799999999997</v>
       </c>
     </row>
     <row r="248" spans="1:22">
       <c r="A248" s="1">
-        <v>35789</v>
+        <v>32134</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>22</v>
@@ -19205,25 +19163,25 @@
         <v>3</v>
       </c>
       <c r="E248" s="1">
+        <v>13</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G248" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H248" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I248" s="1">
         <v>11</v>
       </c>
-      <c r="F248" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G248" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="H248" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I248" s="1">
-        <v>1</v>
-      </c>
       <c r="J248" s="1" t="s">
-        <v>196</v>
+        <v>401</v>
       </c>
       <c r="K248" s="1" t="s">
-        <v>197</v>
+        <v>402</v>
       </c>
       <c r="L248" s="1" t="s">
         <v>29</v>
@@ -19232,36 +19190,36 @@
         <v>1</v>
       </c>
       <c r="N248" s="1" t="s">
-        <v>198</v>
+        <v>403</v>
       </c>
       <c r="O248" s="1" t="s">
-        <v>197</v>
+        <v>404</v>
       </c>
       <c r="P248" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q248" s="1" t="s">
-        <v>199</v>
+        <v>405</v>
       </c>
       <c r="R248" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S248" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T248" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="U248" s="2">
-        <v>15.775399999999999</v>
+        <v>15.7791</v>
       </c>
       <c r="V248" s="2">
-        <v>-87.444699999999997</v>
+        <v>-87.438599999999994</v>
       </c>
     </row>
     <row r="249" spans="1:22">
       <c r="A249" s="1">
-        <v>35605</v>
+        <v>26191</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>22</v>
@@ -19273,25 +19231,25 @@
         <v>3</v>
       </c>
       <c r="E249" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>194</v>
+        <v>270</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>195</v>
+        <v>271</v>
       </c>
       <c r="H249" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I249" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J249" s="1" t="s">
-        <v>215</v>
+        <v>272</v>
       </c>
       <c r="K249" s="1" t="s">
-        <v>216</v>
+        <v>271</v>
       </c>
       <c r="L249" s="1" t="s">
         <v>29</v>
@@ -19300,36 +19258,36 @@
         <v>1</v>
       </c>
       <c r="N249" s="1" t="s">
-        <v>217</v>
+        <v>273</v>
       </c>
       <c r="O249" s="1" t="s">
-        <v>216</v>
+        <v>271</v>
       </c>
       <c r="P249" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q249" s="1" t="s">
-        <v>218</v>
+        <v>274</v>
       </c>
       <c r="R249" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S249" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T249" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="U249" s="2">
-        <v>15.775600000000001</v>
+        <v>15.7791</v>
       </c>
       <c r="V249" s="2">
-        <v>-87.473799999999997</v>
+        <v>-87.451700000000002</v>
       </c>
     </row>
     <row r="250" spans="1:22">
       <c r="A250" s="1">
-        <v>25856</v>
+        <v>18899</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>22</v>
@@ -19341,63 +19299,63 @@
         <v>3</v>
       </c>
       <c r="E250" s="1">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>311</v>
+        <v>236</v>
       </c>
       <c r="G250" s="1" t="s">
-        <v>312</v>
+        <v>237</v>
       </c>
       <c r="H250" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I250" s="1">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="J250" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K250" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L250" s="1" t="s">
         <v>29</v>
       </c>
       <c r="M250" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N250" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O250" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="P250" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q250" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="R250" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S250" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T250" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="U250" s="2">
-        <v>15.7789</v>
+        <v>15.7791</v>
       </c>
       <c r="V250" s="2">
-        <v>-87.464799999999997</v>
+        <v>-87.451700000000002</v>
       </c>
     </row>
     <row r="251" spans="1:22">
       <c r="A251" s="1">
-        <v>32134</v>
+        <v>18339</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>22</v>
@@ -19409,25 +19367,25 @@
         <v>3</v>
       </c>
       <c r="E251" s="1">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="H251" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I251" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J251" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K251" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L251" s="1" t="s">
         <v>29</v>
@@ -19436,10 +19394,10 @@
         <v>1</v>
       </c>
       <c r="N251" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="O251" s="1" t="s">
         <v>415</v>
-      </c>
-      <c r="O251" s="1" t="s">
-        <v>416</v>
       </c>
       <c r="P251" s="1" t="s">
         <v>31</v>
@@ -19451,21 +19409,21 @@
         <v>33</v>
       </c>
       <c r="S251" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T251" s="1" t="s">
-        <v>418</v>
+        <v>329</v>
       </c>
       <c r="U251" s="2">
         <v>15.7791</v>
       </c>
       <c r="V251" s="2">
-        <v>-87.438599999999994</v>
+        <v>-87.451700000000002</v>
       </c>
     </row>
     <row r="252" spans="1:22">
       <c r="A252" s="1">
-        <v>26191</v>
+        <v>33633</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>22</v>
@@ -19477,25 +19435,25 @@
         <v>3</v>
       </c>
       <c r="E252" s="1">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>268</v>
+        <v>73</v>
       </c>
       <c r="G252" s="1" t="s">
-        <v>269</v>
+        <v>74</v>
       </c>
       <c r="H252" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I252" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J252" s="1" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="K252" s="1" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="L252" s="1" t="s">
         <v>29</v>
@@ -19504,36 +19462,36 @@
         <v>1</v>
       </c>
       <c r="N252" s="1" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="O252" s="1" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="P252" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q252" s="1" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="R252" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S252" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T252" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="U252" s="2">
-        <v>15.7791</v>
+        <v>15.779199999999999</v>
       </c>
       <c r="V252" s="2">
-        <v>-87.451700000000002</v>
+        <v>-87.464799999999997</v>
       </c>
     </row>
     <row r="253" spans="1:22">
       <c r="A253" s="1">
-        <v>18899</v>
+        <v>33634</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>22</v>
@@ -19545,63 +19503,63 @@
         <v>3</v>
       </c>
       <c r="E253" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>234</v>
+        <v>73</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>235</v>
+        <v>74</v>
       </c>
       <c r="H253" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I253" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J253" s="1" t="s">
-        <v>420</v>
+        <v>247</v>
       </c>
       <c r="K253" s="1" t="s">
-        <v>421</v>
+        <v>248</v>
       </c>
       <c r="L253" s="1" t="s">
         <v>29</v>
       </c>
       <c r="M253" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N253" s="1" t="s">
-        <v>422</v>
+        <v>249</v>
       </c>
       <c r="O253" s="1" t="s">
-        <v>423</v>
+        <v>248</v>
       </c>
       <c r="P253" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q253" s="1" t="s">
-        <v>424</v>
+        <v>250</v>
       </c>
       <c r="R253" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S253" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T253" s="1" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="U253" s="2">
-        <v>15.7791</v>
+        <v>15.780099999999999</v>
       </c>
       <c r="V253" s="2">
-        <v>-87.451700000000002</v>
+        <v>-87.457400000000007</v>
       </c>
     </row>
     <row r="254" spans="1:22">
       <c r="A254" s="1">
-        <v>18339</v>
+        <v>33639</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>22</v>
@@ -19613,25 +19571,25 @@
         <v>3</v>
       </c>
       <c r="E254" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>234</v>
+        <v>73</v>
       </c>
       <c r="G254" s="1" t="s">
-        <v>235</v>
+        <v>74</v>
       </c>
       <c r="H254" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I254" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J254" s="1" t="s">
-        <v>426</v>
+        <v>247</v>
       </c>
       <c r="K254" s="1" t="s">
-        <v>427</v>
+        <v>248</v>
       </c>
       <c r="L254" s="1" t="s">
         <v>29</v>
@@ -19640,36 +19598,36 @@
         <v>1</v>
       </c>
       <c r="N254" s="1" t="s">
-        <v>428</v>
+        <v>249</v>
       </c>
       <c r="O254" s="1" t="s">
-        <v>427</v>
+        <v>248</v>
       </c>
       <c r="P254" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q254" s="1" t="s">
-        <v>429</v>
+        <v>250</v>
       </c>
       <c r="R254" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S254" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T254" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="U254" s="2">
-        <v>15.7791</v>
+        <v>15.780099999999999</v>
       </c>
       <c r="V254" s="2">
-        <v>-87.451700000000002</v>
+        <v>-87.457300000000004</v>
       </c>
     </row>
     <row r="255" spans="1:22">
       <c r="A255" s="1">
-        <v>33633</v>
+        <v>33641</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>22</v>
@@ -19696,10 +19654,10 @@
         <v>4</v>
       </c>
       <c r="J255" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K255" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L255" s="1" t="s">
         <v>29</v>
@@ -19708,36 +19666,36 @@
         <v>1</v>
       </c>
       <c r="N255" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="O255" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P255" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q255" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="R255" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S255" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T255" s="1" t="s">
-        <v>430</v>
+        <v>326</v>
       </c>
       <c r="U255" s="2">
-        <v>15.779199999999999</v>
+        <v>15.780099999999999</v>
       </c>
       <c r="V255" s="2">
-        <v>-87.464799999999997</v>
+        <v>-87.457300000000004</v>
       </c>
     </row>
     <row r="256" spans="1:22">
       <c r="A256" s="1">
-        <v>33634</v>
+        <v>33545</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>22</v>
@@ -19764,48 +19722,48 @@
         <v>4</v>
       </c>
       <c r="J256" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K256" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L256" s="1" t="s">
         <v>29</v>
       </c>
       <c r="M256" s="1">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="N256" s="1" t="s">
-        <v>247</v>
+        <v>420</v>
       </c>
       <c r="O256" s="1" t="s">
-        <v>246</v>
+        <v>421</v>
       </c>
       <c r="P256" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q256" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="R256" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S256" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T256" s="1" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="U256" s="2">
         <v>15.780099999999999</v>
       </c>
       <c r="V256" s="2">
-        <v>-87.457400000000007</v>
+        <v>-87.4572</v>
       </c>
     </row>
     <row r="257" spans="1:22">
       <c r="A257" s="1">
-        <v>33639</v>
+        <v>33536</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>22</v>
@@ -19832,48 +19790,48 @@
         <v>4</v>
       </c>
       <c r="J257" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K257" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L257" s="1" t="s">
         <v>29</v>
       </c>
       <c r="M257" s="1">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="N257" s="1" t="s">
-        <v>247</v>
+        <v>423</v>
       </c>
       <c r="O257" s="1" t="s">
-        <v>246</v>
+        <v>424</v>
       </c>
       <c r="P257" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q257" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="R257" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S257" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T257" s="1" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="U257" s="2">
-        <v>15.780099999999999</v>
+        <v>15.7803</v>
       </c>
       <c r="V257" s="2">
-        <v>-87.457300000000004</v>
+        <v>-87.456800000000001</v>
       </c>
     </row>
     <row r="258" spans="1:22">
       <c r="A258" s="1">
-        <v>33641</v>
+        <v>33725</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>22</v>
@@ -19900,48 +19858,48 @@
         <v>4</v>
       </c>
       <c r="J258" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K258" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L258" s="1" t="s">
         <v>29</v>
       </c>
       <c r="M258" s="1">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="N258" s="1" t="s">
-        <v>247</v>
+        <v>426</v>
       </c>
       <c r="O258" s="1" t="s">
-        <v>246</v>
+        <v>427</v>
       </c>
       <c r="P258" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q258" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="R258" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S258" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T258" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="U258" s="2">
-        <v>15.780099999999999</v>
+        <v>15.7803</v>
       </c>
       <c r="V258" s="2">
-        <v>-87.457300000000004</v>
+        <v>-87.456699999999998</v>
       </c>
     </row>
     <row r="259" spans="1:22">
       <c r="A259" s="1">
-        <v>33545</v>
+        <v>33437</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>22</v>
@@ -19965,51 +19923,51 @@
         <v>26</v>
       </c>
       <c r="I259" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J259" s="1" t="s">
-        <v>245</v>
+        <v>429</v>
       </c>
       <c r="K259" s="1" t="s">
-        <v>246</v>
+        <v>430</v>
       </c>
       <c r="L259" s="1" t="s">
         <v>29</v>
       </c>
       <c r="M259" s="1">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="N259" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="O259" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="P259" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q259" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="R259" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S259" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="T259" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="O259" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="P259" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q259" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="R259" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S259" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="T259" s="1" t="s">
-        <v>436</v>
-      </c>
       <c r="U259" s="2">
-        <v>15.780099999999999</v>
+        <v>15.7803</v>
       </c>
       <c r="V259" s="2">
-        <v>-87.4572</v>
+        <v>-87.476900000000001</v>
       </c>
     </row>
     <row r="260" spans="1:22">
       <c r="A260" s="1">
-        <v>33536</v>
+        <v>33451</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>22</v>
@@ -20033,51 +19991,51 @@
         <v>26</v>
       </c>
       <c r="I260" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J260" s="1" t="s">
-        <v>245</v>
+        <v>429</v>
       </c>
       <c r="K260" s="1" t="s">
-        <v>246</v>
+        <v>430</v>
       </c>
       <c r="L260" s="1" t="s">
         <v>29</v>
       </c>
       <c r="M260" s="1">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="N260" s="1" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="O260" s="1" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="P260" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q260" s="1" t="s">
-        <v>248</v>
+        <v>433</v>
       </c>
       <c r="R260" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S260" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T260" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="U260" s="2">
-        <v>15.7803</v>
+        <v>15.7804</v>
       </c>
       <c r="V260" s="2">
-        <v>-87.456800000000001</v>
+        <v>-87.451800000000006</v>
       </c>
     </row>
     <row r="261" spans="1:22">
       <c r="A261" s="1">
-        <v>33725</v>
+        <v>25593</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>22</v>
@@ -20089,63 +20047,63 @@
         <v>3</v>
       </c>
       <c r="E261" s="1">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G261" s="1" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="H261" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I261" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J261" s="1" t="s">
-        <v>245</v>
+        <v>63</v>
       </c>
       <c r="K261" s="1" t="s">
-        <v>246</v>
+        <v>64</v>
       </c>
       <c r="L261" s="1" t="s">
         <v>29</v>
       </c>
       <c r="M261" s="1">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="N261" s="1" t="s">
-        <v>440</v>
+        <v>65</v>
       </c>
       <c r="O261" s="1" t="s">
-        <v>441</v>
+        <v>64</v>
       </c>
       <c r="P261" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q261" s="1" t="s">
-        <v>248</v>
+        <v>66</v>
       </c>
       <c r="R261" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S261" s="1" t="s">
-        <v>324</v>
+        <v>436</v>
       </c>
       <c r="T261" s="1" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="U261" s="2">
-        <v>15.7803</v>
+        <v>15.7804</v>
       </c>
       <c r="V261" s="2">
-        <v>-87.456699999999998</v>
+        <v>-87.456999999999994</v>
       </c>
     </row>
     <row r="262" spans="1:22">
       <c r="A262" s="1">
-        <v>33437</v>
+        <v>35622</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>22</v>
@@ -20157,25 +20115,25 @@
         <v>3</v>
       </c>
       <c r="E262" s="1">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>73</v>
+        <v>194</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>74</v>
+        <v>195</v>
       </c>
       <c r="H262" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I262" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J262" s="1" t="s">
-        <v>443</v>
+        <v>216</v>
       </c>
       <c r="K262" s="1" t="s">
-        <v>444</v>
+        <v>217</v>
       </c>
       <c r="L262" s="1" t="s">
         <v>29</v>
@@ -20184,36 +20142,36 @@
         <v>1</v>
       </c>
       <c r="N262" s="1" t="s">
-        <v>445</v>
+        <v>218</v>
       </c>
       <c r="O262" s="1" t="s">
-        <v>446</v>
+        <v>219</v>
       </c>
       <c r="P262" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q262" s="1" t="s">
-        <v>447</v>
+        <v>220</v>
       </c>
       <c r="R262" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S262" s="1" t="s">
-        <v>324</v>
+        <v>436</v>
       </c>
       <c r="T262" s="1" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="U262" s="2">
-        <v>15.7803</v>
+        <v>15.7804</v>
       </c>
       <c r="V262" s="2">
-        <v>-87.476900000000001</v>
+        <v>-87.453800000000001</v>
       </c>
     </row>
     <row r="263" spans="1:22">
       <c r="A263" s="1">
-        <v>33451</v>
+        <v>28207</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>22</v>
@@ -20225,25 +20183,25 @@
         <v>3</v>
       </c>
       <c r="E263" s="1">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>73</v>
+        <v>227</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>74</v>
+        <v>228</v>
       </c>
       <c r="H263" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I263" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J263" s="1" t="s">
-        <v>443</v>
+        <v>229</v>
       </c>
       <c r="K263" s="1" t="s">
-        <v>444</v>
+        <v>230</v>
       </c>
       <c r="L263" s="1" t="s">
         <v>29</v>
@@ -20252,241 +20210,37 @@
         <v>1</v>
       </c>
       <c r="N263" s="1" t="s">
-        <v>445</v>
+        <v>231</v>
       </c>
       <c r="O263" s="1" t="s">
-        <v>446</v>
+        <v>230</v>
       </c>
       <c r="P263" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Q263" s="1" t="s">
-        <v>447</v>
+        <v>232</v>
       </c>
       <c r="R263" s="1" t="s">
         <v>33</v>
       </c>
       <c r="S263" s="1" t="s">
-        <v>324</v>
+        <v>436</v>
       </c>
       <c r="T263" s="1" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="U263" s="2">
-        <v>15.7804</v>
+        <v>15.7805</v>
       </c>
       <c r="V263" s="2">
-        <v>-87.451800000000006</v>
-      </c>
-    </row>
-    <row r="264" spans="1:22">
-      <c r="A264" s="1">
-        <v>25593</v>
-      </c>
-      <c r="B264" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C264" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D264" s="1">
-        <v>3</v>
-      </c>
-      <c r="E264" s="1">
-        <v>8</v>
-      </c>
-      <c r="F264" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G264" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H264" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I264" s="1">
-        <v>1</v>
-      </c>
-      <c r="J264" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K264" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="L264" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M264" s="1">
-        <v>1</v>
-      </c>
-      <c r="N264" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O264" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="P264" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q264" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R264" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S264" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="T264" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="U264" s="2">
-        <v>15.7804</v>
-      </c>
-      <c r="V264" s="2">
-        <v>-87.456999999999994</v>
-      </c>
-    </row>
-    <row r="265" spans="1:22">
-      <c r="A265" s="1">
-        <v>35622</v>
-      </c>
-      <c r="B265" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C265" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D265" s="1">
-        <v>3</v>
-      </c>
-      <c r="E265" s="1">
-        <v>11</v>
-      </c>
-      <c r="F265" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G265" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="H265" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I265" s="1">
-        <v>4</v>
-      </c>
-      <c r="J265" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="K265" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="L265" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M265" s="1">
-        <v>1</v>
-      </c>
-      <c r="N265" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="O265" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="P265" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q265" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="R265" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S265" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="T265" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="U265" s="2">
-        <v>15.7804</v>
-      </c>
-      <c r="V265" s="2">
-        <v>-87.453800000000001</v>
-      </c>
-    </row>
-    <row r="266" spans="1:22">
-      <c r="A266" s="1">
-        <v>28207</v>
-      </c>
-      <c r="B266" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C266" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D266" s="1">
-        <v>3</v>
-      </c>
-      <c r="E266" s="1">
-        <v>13</v>
-      </c>
-      <c r="F266" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G266" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H266" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I266" s="1">
-        <v>1</v>
-      </c>
-      <c r="J266" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="K266" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="L266" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M266" s="1">
-        <v>1</v>
-      </c>
-      <c r="N266" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="O266" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="P266" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q266" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="R266" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S266" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="T266" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="U266" s="2">
-        <v>15.7805</v>
-      </c>
-      <c r="V266" s="2">
         <v>-87.456800000000001</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T266">
-    <sortCondition ref="R2:R266"/>
-    <sortCondition ref="S2:S266"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T263">
+    <sortCondition ref="R2:R263"/>
+    <sortCondition ref="S2:S263"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/datacovidhn/ALIMENTACION_HN.xlsx
+++ b/datacovidhn/ALIMENTACION_HN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID HN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="180" documentId="8_{2E7B08DD-615A-4A26-9C8E-D4330F5D4097}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B4EEF238-8C36-4433-9CFC-A6B55954CEA6}"/>
+  <xr:revisionPtr revIDLastSave="186" documentId="8_{2E7B08DD-615A-4A26-9C8E-D4330F5D4097}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{86A3301F-9801-4054-ABCA-91DCD86CF704}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1428" yWindow="1428" windowWidth="17280" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALIMENTACION" sheetId="1" r:id="rId1"/>
@@ -2259,9 +2259,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V255"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2420,10 +2420,10 @@
         <v>34</v>
       </c>
       <c r="U2" s="2">
-        <v>15.736700000000001</v>
+        <v>15.7857</v>
       </c>
       <c r="V2" s="2">
-        <v>-86.853399999999993</v>
+        <v>-86.793499999999995</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -2488,10 +2488,10 @@
         <v>39</v>
       </c>
       <c r="U3" s="2">
-        <v>15.7456</v>
+        <v>15.783799999999999</v>
       </c>
       <c r="V3" s="2">
-        <v>-86.851699999999994</v>
+        <v>-87.448300000000003</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -2556,10 +2556,10 @@
         <v>40</v>
       </c>
       <c r="U4" s="2">
-        <v>15.745900000000001</v>
+        <v>15.7843</v>
       </c>
       <c r="V4" s="2">
-        <v>-86.838700000000003</v>
+        <v>-87.449399999999997</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -2624,10 +2624,10 @@
         <v>41</v>
       </c>
       <c r="U5" s="2">
-        <v>15.765599999999999</v>
+        <v>15.784700000000001</v>
       </c>
       <c r="V5" s="2">
-        <v>-86.805999999999997</v>
+        <v>-87.450100000000006</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
@@ -2692,10 +2692,10 @@
         <v>48</v>
       </c>
       <c r="U6" s="2">
-        <v>15.7684</v>
+        <v>14.597899999999999</v>
       </c>
       <c r="V6" s="2">
-        <v>-86.802099999999996</v>
+        <v>-87.831299999999999</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
@@ -2760,10 +2760,10 @@
         <v>55</v>
       </c>
       <c r="U7" s="2">
-        <v>15.7684</v>
+        <v>15.425800000000001</v>
       </c>
       <c r="V7" s="2">
-        <v>-86.801900000000003</v>
+        <v>-88.013900000000007</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
@@ -2828,10 +2828,10 @@
         <v>56</v>
       </c>
       <c r="U8" s="2">
-        <v>15.7685</v>
+        <v>15.514099999999999</v>
       </c>
       <c r="V8" s="2">
-        <v>-86.8018</v>
+        <v>-88.012699999999995</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
@@ -2896,10 +2896,10 @@
         <v>57</v>
       </c>
       <c r="U9" s="2">
-        <v>15.769500000000001</v>
+        <v>15.514699999999999</v>
       </c>
       <c r="V9" s="2">
-        <v>-86.790700000000001</v>
+        <v>-88.013000000000005</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
@@ -2964,10 +2964,10 @@
         <v>58</v>
       </c>
       <c r="U10" s="2">
-        <v>15.7699</v>
+        <v>15.5158</v>
       </c>
       <c r="V10" s="2">
-        <v>-86.797399999999996</v>
+        <v>-88.017300000000006</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
@@ -3032,10 +3032,10 @@
         <v>59</v>
       </c>
       <c r="U11" s="2">
-        <v>15.770099999999999</v>
+        <v>15.5327</v>
       </c>
       <c r="V11" s="2">
-        <v>-86.793300000000002</v>
+        <v>-88.027799999999999</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
@@ -3100,10 +3100,10 @@
         <v>66</v>
       </c>
       <c r="U12" s="2">
-        <v>15.7705</v>
+        <v>14.1061</v>
       </c>
       <c r="V12" s="2">
-        <v>-86.790800000000004</v>
+        <v>-87.155199999999994</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
@@ -3168,10 +3168,10 @@
         <v>71</v>
       </c>
       <c r="U13" s="2">
-        <v>15.7707</v>
+        <v>14.5419</v>
       </c>
       <c r="V13" s="2">
-        <v>-86.792199999999994</v>
+        <v>-86.827299999999994</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
@@ -3236,10 +3236,10 @@
         <v>79</v>
       </c>
       <c r="U14" s="2">
-        <v>15.7707</v>
+        <v>15.536099999999999</v>
       </c>
       <c r="V14" s="2">
-        <v>-86.799300000000002</v>
+        <v>-87.653099999999995</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
@@ -3304,10 +3304,10 @@
         <v>80</v>
       </c>
       <c r="U15" s="2">
-        <v>15.7712</v>
+        <v>15.7707</v>
       </c>
       <c r="V15" s="2">
-        <v>-86.790599999999998</v>
+        <v>-86.799300000000002</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
@@ -3440,10 +3440,10 @@
         <v>82</v>
       </c>
       <c r="U17" s="2">
-        <v>15.7728</v>
+        <v>15.7828</v>
       </c>
       <c r="V17" s="2">
-        <v>-86.793000000000006</v>
+        <v>-86.790700000000001</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
@@ -3508,10 +3508,10 @@
         <v>85</v>
       </c>
       <c r="U18" s="2">
-        <v>15.773</v>
+        <v>15.7714</v>
       </c>
       <c r="V18" s="2">
-        <v>-86.793000000000006</v>
+        <v>-86.801199999999994</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
@@ -3576,10 +3576,10 @@
         <v>86</v>
       </c>
       <c r="U19" s="2">
-        <v>15.773199999999999</v>
+        <v>15.774900000000001</v>
       </c>
       <c r="V19" s="2">
-        <v>-86.792500000000004</v>
+        <v>-86.803700000000006</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
@@ -3644,10 +3644,10 @@
         <v>87</v>
       </c>
       <c r="U20" s="2">
-        <v>15.7735</v>
+        <v>15.7629</v>
       </c>
       <c r="V20" s="2">
-        <v>-86.791200000000003</v>
+        <v>-87.477099999999993</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
@@ -3712,10 +3712,10 @@
         <v>88</v>
       </c>
       <c r="U21" s="2">
-        <v>15.774100000000001</v>
+        <v>15.763199999999999</v>
       </c>
       <c r="V21" s="2">
-        <v>-86.790499999999994</v>
+        <v>-87.476100000000002</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
@@ -3780,10 +3780,10 @@
         <v>58</v>
       </c>
       <c r="U22" s="2">
-        <v>15.775399999999999</v>
+        <v>15.765000000000001</v>
       </c>
       <c r="V22" s="2">
-        <v>-86.790499999999994</v>
+        <v>-87.480400000000003</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
@@ -3848,10 +3848,10 @@
         <v>89</v>
       </c>
       <c r="U23" s="2">
-        <v>15.7761</v>
+        <v>15.7738</v>
       </c>
       <c r="V23" s="2">
-        <v>-86.8001</v>
+        <v>-87.475300000000004</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
@@ -3916,10 +3916,10 @@
         <v>87</v>
       </c>
       <c r="U24" s="2">
-        <v>15.7761</v>
+        <v>15.774699999999999</v>
       </c>
       <c r="V24" s="2">
-        <v>-86.8001</v>
+        <v>-87.473600000000005</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
@@ -3984,10 +3984,10 @@
         <v>90</v>
       </c>
       <c r="U25" s="2">
-        <v>15.7761</v>
+        <v>15.7803</v>
       </c>
       <c r="V25" s="2">
-        <v>-86.8</v>
+        <v>-87.456800000000001</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
@@ -4052,10 +4052,10 @@
         <v>91</v>
       </c>
       <c r="U26" s="2">
-        <v>15.776199999999999</v>
+        <v>15.7841</v>
       </c>
       <c r="V26" s="2">
-        <v>-86.8</v>
+        <v>-87.450699999999998</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
@@ -4120,10 +4120,10 @@
         <v>92</v>
       </c>
       <c r="U27" s="2">
-        <v>15.7765</v>
+        <v>15.7841</v>
       </c>
       <c r="V27" s="2">
-        <v>-86.799099999999996</v>
+        <v>-87.449700000000007</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
@@ -4188,10 +4188,10 @@
         <v>93</v>
       </c>
       <c r="U28" s="2">
-        <v>15.7766</v>
+        <v>15.7841</v>
       </c>
       <c r="V28" s="2">
-        <v>-86.790999999999997</v>
+        <v>-87.450900000000004</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.3">
@@ -4256,10 +4256,10 @@
         <v>94</v>
       </c>
       <c r="U29" s="2">
-        <v>15.7768</v>
+        <v>15.7842</v>
       </c>
       <c r="V29" s="2">
-        <v>-86.787400000000005</v>
+        <v>-87.449399999999997</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
@@ -4324,10 +4324,10 @@
         <v>87</v>
       </c>
       <c r="U30" s="2">
-        <v>15.776899999999999</v>
+        <v>15.7844</v>
       </c>
       <c r="V30" s="2">
-        <v>-86.768199999999993</v>
+        <v>-87.450999999999993</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
@@ -4392,10 +4392,10 @@
         <v>95</v>
       </c>
       <c r="U31" s="2">
-        <v>15.776999999999999</v>
+        <v>15.7845</v>
       </c>
       <c r="V31" s="2">
-        <v>-86.790499999999994</v>
+        <v>-87.450599999999994</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
@@ -4460,10 +4460,10 @@
         <v>96</v>
       </c>
       <c r="U32" s="2">
-        <v>15.777100000000001</v>
+        <v>15.7852</v>
       </c>
       <c r="V32" s="2">
-        <v>-86.790800000000004</v>
+        <v>-87.450400000000002</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.3">
@@ -4528,10 +4528,10 @@
         <v>97</v>
       </c>
       <c r="U33" s="2">
-        <v>15.777100000000001</v>
+        <v>15.785299999999999</v>
       </c>
       <c r="V33" s="2">
-        <v>-86.787599999999998</v>
+        <v>-87.450400000000002</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.3">
@@ -4596,10 +4596,10 @@
         <v>87</v>
       </c>
       <c r="U34" s="2">
-        <v>15.7773</v>
+        <v>15.7591</v>
       </c>
       <c r="V34" s="2">
-        <v>-86.787400000000005</v>
+        <v>-87.49</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.3">
@@ -4664,10 +4664,10 @@
         <v>102</v>
       </c>
       <c r="U35" s="2">
-        <v>15.7776</v>
+        <v>15.5754</v>
       </c>
       <c r="V35" s="2">
-        <v>-86.787599999999998</v>
+        <v>-87.616299999999995</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.3">
@@ -4732,10 +4732,10 @@
         <v>87</v>
       </c>
       <c r="U36" s="2">
-        <v>15.7782</v>
+        <v>15.7072</v>
       </c>
       <c r="V36" s="2">
-        <v>-86.786000000000001</v>
+        <v>-87.584199999999996</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.3">
@@ -4800,10 +4800,10 @@
         <v>87</v>
       </c>
       <c r="U37" s="2">
-        <v>15.7782</v>
+        <v>15.6684</v>
       </c>
       <c r="V37" s="2">
-        <v>-86.786000000000001</v>
+        <v>-87.602000000000004</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.3">
@@ -4868,10 +4868,10 @@
         <v>107</v>
       </c>
       <c r="U38" s="2">
-        <v>15.778499999999999</v>
+        <v>15.6686</v>
       </c>
       <c r="V38" s="2">
-        <v>-86.7881</v>
+        <v>-87.601799999999997</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.3">
@@ -4936,10 +4936,10 @@
         <v>112</v>
       </c>
       <c r="U39" s="2">
-        <v>15.7791</v>
+        <v>15.682399999999999</v>
       </c>
       <c r="V39" s="2">
-        <v>-86.788499999999999</v>
+        <v>-87.332099999999997</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.3">
@@ -5004,10 +5004,10 @@
         <v>113</v>
       </c>
       <c r="U40" s="2">
-        <v>15.779199999999999</v>
+        <v>15.682600000000001</v>
       </c>
       <c r="V40" s="2">
-        <v>-86.788899999999998</v>
+        <v>-87.331999999999994</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.3">
@@ -5072,10 +5072,10 @@
         <v>117</v>
       </c>
       <c r="U41" s="2">
-        <v>15.779199999999999</v>
+        <v>14.424099999999999</v>
       </c>
       <c r="V41" s="2">
-        <v>-86.788899999999998</v>
+        <v>-87.632900000000006</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.3">
@@ -5140,10 +5140,10 @@
         <v>118</v>
       </c>
       <c r="U42" s="2">
-        <v>15.779400000000001</v>
+        <v>14.4582</v>
       </c>
       <c r="V42" s="2">
-        <v>-86.801000000000002</v>
+        <v>-87.640699999999995</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.3">
@@ -5208,10 +5208,10 @@
         <v>123</v>
       </c>
       <c r="U43" s="2">
-        <v>15.779500000000001</v>
+        <v>14.2614</v>
       </c>
       <c r="V43" s="2">
-        <v>-86.773099999999999</v>
+        <v>-87.613399999999999</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.3">
@@ -5276,10 +5276,10 @@
         <v>124</v>
       </c>
       <c r="U44" s="2">
-        <v>15.779500000000001</v>
+        <v>14.591799999999999</v>
       </c>
       <c r="V44" s="2">
-        <v>-86.788799999999995</v>
+        <v>-87.834299999999999</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.3">
@@ -5344,10 +5344,10 @@
         <v>87</v>
       </c>
       <c r="U45" s="2">
-        <v>15.779500000000001</v>
+        <v>15.4755</v>
       </c>
       <c r="V45" s="2">
-        <v>-86.800899999999999</v>
+        <v>-87.991</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.3">
@@ -5412,10 +5412,10 @@
         <v>87</v>
       </c>
       <c r="U46" s="2">
-        <v>15.7796</v>
+        <v>15.4756</v>
       </c>
       <c r="V46" s="2">
-        <v>-86.789100000000005</v>
+        <v>-87.990399999999994</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.3">
@@ -5480,10 +5480,10 @@
         <v>125</v>
       </c>
       <c r="U47" s="2">
-        <v>15.7797</v>
+        <v>15.4757</v>
       </c>
       <c r="V47" s="2">
-        <v>-86.790099999999995</v>
+        <v>-87.990300000000005</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.3">
@@ -5548,10 +5548,10 @@
         <v>87</v>
       </c>
       <c r="U48" s="2">
-        <v>15.7798</v>
+        <v>15.4764</v>
       </c>
       <c r="V48" s="2">
-        <v>-86.789199999999994</v>
+        <v>-87.99</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.3">
@@ -5616,10 +5616,10 @@
         <v>87</v>
       </c>
       <c r="U49" s="2">
-        <v>15.7799</v>
+        <v>15.477</v>
       </c>
       <c r="V49" s="2">
-        <v>-86.801000000000002</v>
+        <v>-87.989800000000002</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.3">
@@ -5684,10 +5684,10 @@
         <v>87</v>
       </c>
       <c r="U50" s="2">
-        <v>15.780099999999999</v>
+        <v>15.4808</v>
       </c>
       <c r="V50" s="2">
-        <v>-86.801599999999993</v>
+        <v>-88.014600000000002</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.3">
@@ -5752,10 +5752,10 @@
         <v>87</v>
       </c>
       <c r="U51" s="2">
-        <v>15.780200000000001</v>
+        <v>15.4918</v>
       </c>
       <c r="V51" s="2">
-        <v>-86.792699999999996</v>
+        <v>-87.998999999999995</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.3">
@@ -5820,10 +5820,10 @@
         <v>126</v>
       </c>
       <c r="U52" s="2">
-        <v>15.7803</v>
+        <v>15.4922</v>
       </c>
       <c r="V52" s="2">
-        <v>-86.773099999999999</v>
+        <v>-88.002300000000005</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.3">
@@ -5888,10 +5888,10 @@
         <v>127</v>
       </c>
       <c r="U53" s="2">
-        <v>15.7806</v>
+        <v>15.4941</v>
       </c>
       <c r="V53" s="2">
-        <v>-86.792599999999993</v>
+        <v>-88.022499999999994</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.3">
@@ -5956,10 +5956,10 @@
         <v>128</v>
       </c>
       <c r="U54" s="2">
-        <v>15.7806</v>
+        <v>15.5009</v>
       </c>
       <c r="V54" s="2">
-        <v>-86.789699999999996</v>
+        <v>-88.029200000000003</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.3">
@@ -6024,10 +6024,10 @@
         <v>129</v>
       </c>
       <c r="U55" s="2">
-        <v>15.7807</v>
+        <v>15.5044</v>
       </c>
       <c r="V55" s="2">
-        <v>-86.792500000000004</v>
+        <v>-88.016800000000003</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.3">
@@ -6092,10 +6092,10 @@
         <v>130</v>
       </c>
       <c r="U56" s="2">
-        <v>15.780799999999999</v>
+        <v>15.504899999999999</v>
       </c>
       <c r="V56" s="2">
-        <v>-86.790999999999997</v>
+        <v>-88.044399999999996</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.3">
@@ -6160,10 +6160,10 @@
         <v>87</v>
       </c>
       <c r="U57" s="2">
-        <v>15.780900000000001</v>
+        <v>15.505599999999999</v>
       </c>
       <c r="V57" s="2">
-        <v>-86.79</v>
+        <v>-88.005799999999994</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.3">
@@ -6228,10 +6228,10 @@
         <v>131</v>
       </c>
       <c r="U58" s="2">
-        <v>15.7812</v>
+        <v>15.513199999999999</v>
       </c>
       <c r="V58" s="2">
-        <v>-86.790899999999993</v>
+        <v>-88.038300000000007</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.3">
@@ -6296,10 +6296,10 @@
         <v>87</v>
       </c>
       <c r="U59" s="2">
-        <v>15.7813</v>
+        <v>15.5444</v>
       </c>
       <c r="V59" s="2">
-        <v>-86.791300000000007</v>
+        <v>-88.003100000000003</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.3">
@@ -6364,10 +6364,10 @@
         <v>136</v>
       </c>
       <c r="U60" s="2">
-        <v>15.781499999999999</v>
+        <v>15.8452</v>
       </c>
       <c r="V60" s="2">
-        <v>-86.790499999999994</v>
+        <v>-87.944699999999997</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.3">
@@ -6432,10 +6432,10 @@
         <v>137</v>
       </c>
       <c r="U61" s="2">
-        <v>15.781499999999999</v>
+        <v>15.845700000000001</v>
       </c>
       <c r="V61" s="2">
-        <v>-86.790400000000005</v>
+        <v>-87.939899999999994</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.3">
@@ -6500,10 +6500,10 @@
         <v>143</v>
       </c>
       <c r="U62" s="2">
-        <v>15.781499999999999</v>
+        <v>15.0579</v>
       </c>
       <c r="V62" s="2">
-        <v>-86.790300000000002</v>
+        <v>-87.983500000000006</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.3">
@@ -6568,10 +6568,10 @@
         <v>149</v>
       </c>
       <c r="U63" s="2">
-        <v>15.781599999999999</v>
+        <v>14.907500000000001</v>
       </c>
       <c r="V63" s="2">
-        <v>-86.790999999999997</v>
+        <v>-87.936899999999994</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.3">
@@ -6636,10 +6636,10 @@
         <v>87</v>
       </c>
       <c r="U64" s="2">
-        <v>15.781700000000001</v>
+        <v>14.0182</v>
       </c>
       <c r="V64" s="2">
-        <v>-86.790499999999994</v>
+        <v>-86.670199999999994</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.3">
@@ -6704,10 +6704,10 @@
         <v>87</v>
       </c>
       <c r="U65" s="2">
-        <v>15.7822</v>
+        <v>14.0396</v>
       </c>
       <c r="V65" s="2">
-        <v>-86.790400000000005</v>
+        <v>-87.206100000000006</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.3">
@@ -6772,10 +6772,10 @@
         <v>87</v>
       </c>
       <c r="U66" s="2">
-        <v>15.782299999999999</v>
+        <v>14.0402</v>
       </c>
       <c r="V66" s="2">
-        <v>-86.790400000000005</v>
+        <v>-87.203900000000004</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.3">
@@ -6840,10 +6840,10 @@
         <v>156</v>
       </c>
       <c r="U67" s="2">
-        <v>15.782400000000001</v>
+        <v>14.053599999999999</v>
       </c>
       <c r="V67" s="2">
-        <v>-86.790499999999994</v>
+        <v>-87.233199999999997</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.3">
@@ -6908,10 +6908,10 @@
         <v>157</v>
       </c>
       <c r="U68" s="2">
-        <v>15.7828</v>
+        <v>14.060499999999999</v>
       </c>
       <c r="V68" s="2">
-        <v>-86.790700000000001</v>
+        <v>-87.226799999999997</v>
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.3">
@@ -6976,10 +6976,10 @@
         <v>158</v>
       </c>
       <c r="U69" s="2">
-        <v>15.7829</v>
+        <v>14.0686</v>
       </c>
       <c r="V69" s="2">
-        <v>-86.790999999999997</v>
+        <v>-87.218000000000004</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.3">
@@ -7044,10 +7044,10 @@
         <v>159</v>
       </c>
       <c r="U70" s="2">
-        <v>15.7829</v>
+        <v>14.072800000000001</v>
       </c>
       <c r="V70" s="2">
-        <v>-86.790999999999997</v>
+        <v>-87.176199999999994</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.3">
@@ -7112,10 +7112,10 @@
         <v>160</v>
       </c>
       <c r="U71" s="2">
-        <v>15.7829</v>
+        <v>14.0732</v>
       </c>
       <c r="V71" s="2">
-        <v>-86.790800000000004</v>
+        <v>-87.170699999999997</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.3">
@@ -7180,10 +7180,10 @@
         <v>161</v>
       </c>
       <c r="U72" s="2">
-        <v>15.7829</v>
+        <v>14.074400000000001</v>
       </c>
       <c r="V72" s="2">
-        <v>-86.790999999999997</v>
+        <v>-87.168099999999995</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.3">
@@ -7248,10 +7248,10 @@
         <v>162</v>
       </c>
       <c r="U73" s="2">
-        <v>15.7834</v>
+        <v>14.08</v>
       </c>
       <c r="V73" s="2">
-        <v>-86.792400000000001</v>
+        <v>-87.189700000000002</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.3">
@@ -7316,10 +7316,10 @@
         <v>163</v>
       </c>
       <c r="U74" s="2">
-        <v>15.7835</v>
+        <v>14.0815</v>
       </c>
       <c r="V74" s="2">
-        <v>-86.790499999999994</v>
+        <v>-87.202799999999996</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.3">
@@ -7384,10 +7384,10 @@
         <v>157</v>
       </c>
       <c r="U75" s="2">
-        <v>15.7836</v>
+        <v>14.0824</v>
       </c>
       <c r="V75" s="2">
-        <v>-86.792500000000004</v>
+        <v>-87.166799999999995</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.3">
@@ -7452,10 +7452,10 @@
         <v>164</v>
       </c>
       <c r="U76" s="2">
-        <v>15.7836</v>
+        <v>14.0848</v>
       </c>
       <c r="V76" s="2">
-        <v>-86.791200000000003</v>
+        <v>-87.180899999999994</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.3">
@@ -7520,10 +7520,10 @@
         <v>165</v>
       </c>
       <c r="U77" s="2">
-        <v>15.7837</v>
+        <v>14.091799999999999</v>
       </c>
       <c r="V77" s="2">
-        <v>-86.792500000000004</v>
+        <v>-87.213200000000001</v>
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.3">
@@ -7588,10 +7588,10 @@
         <v>166</v>
       </c>
       <c r="U78" s="2">
-        <v>15.783899999999999</v>
+        <v>14.093999999999999</v>
       </c>
       <c r="V78" s="2">
-        <v>-86.791399999999996</v>
+        <v>-87.1708</v>
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.3">
@@ -7656,10 +7656,10 @@
         <v>167</v>
       </c>
       <c r="U79" s="2">
-        <v>15.7842</v>
+        <v>14.094900000000001</v>
       </c>
       <c r="V79" s="2">
-        <v>-86.792500000000004</v>
+        <v>-87.181299999999993</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.3">
@@ -7724,10 +7724,10 @@
         <v>168</v>
       </c>
       <c r="U80" s="2">
-        <v>15.7843</v>
+        <v>14.099299999999999</v>
       </c>
       <c r="V80" s="2">
-        <v>-86.794300000000007</v>
+        <v>-87.162400000000005</v>
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.3">
@@ -7792,10 +7792,10 @@
         <v>169</v>
       </c>
       <c r="U81" s="2">
-        <v>15.7844</v>
+        <v>14.0997</v>
       </c>
       <c r="V81" s="2">
-        <v>-86.791899999999998</v>
+        <v>-87.188299999999998</v>
       </c>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.3">
@@ -7860,10 +7860,10 @@
         <v>170</v>
       </c>
       <c r="U82" s="2">
-        <v>15.7845</v>
+        <v>14.0998</v>
       </c>
       <c r="V82" s="2">
-        <v>-86.791899999999998</v>
+        <v>-87.181299999999993</v>
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.3">
@@ -7928,10 +7928,10 @@
         <v>157</v>
       </c>
       <c r="U83" s="2">
-        <v>15.7845</v>
+        <v>14.0999</v>
       </c>
       <c r="V83" s="2">
-        <v>-86.792699999999996</v>
+        <v>-87.186099999999996</v>
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.3">
@@ -7996,10 +7996,10 @@
         <v>170</v>
       </c>
       <c r="U84" s="2">
-        <v>15.784599999999999</v>
+        <v>14.1008</v>
       </c>
       <c r="V84" s="2">
-        <v>-86.792000000000002</v>
+        <v>-87.180300000000003</v>
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.3">
@@ -8064,10 +8064,10 @@
         <v>171</v>
       </c>
       <c r="U85" s="2">
-        <v>15.784700000000001</v>
+        <v>14.1014</v>
       </c>
       <c r="V85" s="2">
-        <v>-86.793700000000001</v>
+        <v>-87.207899999999995</v>
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.3">
@@ -8132,10 +8132,10 @@
         <v>172</v>
       </c>
       <c r="U86" s="2">
-        <v>15.784800000000001</v>
+        <v>14.102399999999999</v>
       </c>
       <c r="V86" s="2">
-        <v>-86.792900000000003</v>
+        <v>-87.185199999999995</v>
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.3">
@@ -8200,10 +8200,10 @@
         <v>87</v>
       </c>
       <c r="U87" s="2">
-        <v>15.784800000000001</v>
+        <v>14.1027</v>
       </c>
       <c r="V87" s="2">
-        <v>-86.790899999999993</v>
+        <v>-87.184399999999997</v>
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.3">
@@ -8268,10 +8268,10 @@
         <v>157</v>
       </c>
       <c r="U88" s="2">
-        <v>15.784800000000001</v>
+        <v>14.104100000000001</v>
       </c>
       <c r="V88" s="2">
-        <v>-86.792400000000001</v>
+        <v>-87.193600000000004</v>
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.3">
@@ -8336,10 +8336,10 @@
         <v>173</v>
       </c>
       <c r="U89" s="2">
-        <v>15.7849</v>
+        <v>14.104900000000001</v>
       </c>
       <c r="V89" s="2">
-        <v>-86.791899999999998</v>
+        <v>-87.154700000000005</v>
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.3">
@@ -8404,10 +8404,10 @@
         <v>174</v>
       </c>
       <c r="U90" s="2">
-        <v>15.7849</v>
+        <v>14.1058</v>
       </c>
       <c r="V90" s="2">
-        <v>-86.793099999999995</v>
+        <v>-87.154899999999998</v>
       </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.3">
@@ -8472,10 +8472,10 @@
         <v>175</v>
       </c>
       <c r="U91" s="2">
-        <v>15.7849</v>
+        <v>14.1059</v>
       </c>
       <c r="V91" s="2">
-        <v>-86.792100000000005</v>
+        <v>-87.155199999999994</v>
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.3">
@@ -8540,10 +8540,10 @@
         <v>176</v>
       </c>
       <c r="U92" s="2">
-        <v>15.785</v>
+        <v>14.1068</v>
       </c>
       <c r="V92" s="2">
-        <v>-86.792000000000002</v>
+        <v>-87.155799999999999</v>
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.3">
@@ -8608,10 +8608,10 @@
         <v>177</v>
       </c>
       <c r="U93" s="2">
-        <v>15.7851</v>
+        <v>14.107100000000001</v>
       </c>
       <c r="V93" s="2">
-        <v>-86.791700000000006</v>
+        <v>-87.222399999999993</v>
       </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.3">
@@ -8676,10 +8676,10 @@
         <v>178</v>
       </c>
       <c r="U94" s="2">
-        <v>15.7852</v>
+        <v>14.1076</v>
       </c>
       <c r="V94" s="2">
-        <v>-86.792100000000005</v>
+        <v>-87.156499999999994</v>
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.3">
@@ -8744,10 +8744,10 @@
         <v>179</v>
       </c>
       <c r="U95" s="2">
-        <v>15.7852</v>
+        <v>14.1082</v>
       </c>
       <c r="V95" s="2">
-        <v>-86.787899999999993</v>
+        <v>-87.156599999999997</v>
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.3">
@@ -8812,10 +8812,10 @@
         <v>180</v>
       </c>
       <c r="U96" s="2">
-        <v>15.7852</v>
+        <v>14.1084</v>
       </c>
       <c r="V96" s="2">
-        <v>-86.793400000000005</v>
+        <v>-87.157200000000003</v>
       </c>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.3">
@@ -8880,10 +8880,10 @@
         <v>181</v>
       </c>
       <c r="U97" s="2">
-        <v>15.7852</v>
+        <v>14.108700000000001</v>
       </c>
       <c r="V97" s="2">
-        <v>-86.792100000000005</v>
+        <v>-87.156599999999997</v>
       </c>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.3">
@@ -8948,10 +8948,10 @@
         <v>181</v>
       </c>
       <c r="U98" s="2">
-        <v>15.785299999999999</v>
+        <v>14.109400000000001</v>
       </c>
       <c r="V98" s="2">
-        <v>-86.791300000000007</v>
+        <v>-87.156400000000005</v>
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.3">
@@ -9016,10 +9016,10 @@
         <v>182</v>
       </c>
       <c r="U99" s="2">
-        <v>15.785299999999999</v>
+        <v>14.109500000000001</v>
       </c>
       <c r="V99" s="2">
-        <v>-86.788200000000003</v>
+        <v>-87.155900000000003</v>
       </c>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.3">
@@ -9084,10 +9084,10 @@
         <v>183</v>
       </c>
       <c r="U100" s="2">
-        <v>15.785299999999999</v>
+        <v>14.11</v>
       </c>
       <c r="V100" s="2">
-        <v>-86.791700000000006</v>
+        <v>-87.156300000000002</v>
       </c>
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.3">
@@ -9152,10 +9152,10 @@
         <v>157</v>
       </c>
       <c r="U101" s="2">
-        <v>15.785399999999999</v>
+        <v>14.113799999999999</v>
       </c>
       <c r="V101" s="2">
-        <v>-86.793400000000005</v>
+        <v>-87.193700000000007</v>
       </c>
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.3">
@@ -9220,10 +9220,10 @@
         <v>184</v>
       </c>
       <c r="U102" s="2">
-        <v>15.785399999999999</v>
+        <v>14.116300000000001</v>
       </c>
       <c r="V102" s="2">
-        <v>-86.790999999999997</v>
+        <v>-87.209599999999995</v>
       </c>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.3">
@@ -9288,10 +9288,10 @@
         <v>189</v>
       </c>
       <c r="U103" s="2">
-        <v>15.785500000000001</v>
+        <v>14.162800000000001</v>
       </c>
       <c r="V103" s="2">
-        <v>-86.792500000000004</v>
+        <v>-87.0441</v>
       </c>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.3">
@@ -9356,10 +9356,10 @@
         <v>197</v>
       </c>
       <c r="U104" s="2">
-        <v>15.785600000000001</v>
+        <v>16.3157</v>
       </c>
       <c r="V104" s="2">
-        <v>-86.792299999999997</v>
+        <v>-86.5398</v>
       </c>
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.3">
@@ -9424,10 +9424,10 @@
         <v>198</v>
       </c>
       <c r="U105" s="2">
-        <v>15.785600000000001</v>
+        <v>16.3169</v>
       </c>
       <c r="V105" s="2">
-        <v>-86.792500000000004</v>
+        <v>-86.538799999999995</v>
       </c>
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.3">
@@ -9492,10 +9492,10 @@
         <v>199</v>
       </c>
       <c r="U106" s="2">
-        <v>15.7857</v>
+        <v>16.317299999999999</v>
       </c>
       <c r="V106" s="2">
-        <v>-86.793499999999995</v>
+        <v>-86.537599999999998</v>
       </c>
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.3">
@@ -9560,10 +9560,10 @@
         <v>200</v>
       </c>
       <c r="U107" s="2">
-        <v>15.7857</v>
+        <v>16.332599999999999</v>
       </c>
       <c r="V107" s="2">
-        <v>-86.792599999999993</v>
+        <v>-86.539699999999996</v>
       </c>
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.3">
@@ -9628,10 +9628,10 @@
         <v>203</v>
       </c>
       <c r="U108" s="2">
-        <v>15.7858</v>
+        <v>16.305</v>
       </c>
       <c r="V108" s="2">
-        <v>-86.792400000000001</v>
+        <v>-86.5565</v>
       </c>
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.3">
@@ -9696,10 +9696,10 @@
         <v>87</v>
       </c>
       <c r="U109" s="2">
-        <v>15.7859</v>
+        <v>16.312100000000001</v>
       </c>
       <c r="V109" s="2">
-        <v>-86.792500000000004</v>
+        <v>-86.581100000000006</v>
       </c>
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.3">
@@ -9764,10 +9764,10 @@
         <v>87</v>
       </c>
       <c r="U110" s="2">
-        <v>15.786099999999999</v>
+        <v>16.3307</v>
       </c>
       <c r="V110" s="2">
-        <v>-86.7928</v>
+        <v>-86.567300000000003</v>
       </c>
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.3">
@@ -9832,10 +9832,10 @@
         <v>208</v>
       </c>
       <c r="U111" s="2">
-        <v>15.786099999999999</v>
+        <v>16.278099999999998</v>
       </c>
       <c r="V111" s="2">
-        <v>-86.792599999999993</v>
+        <v>-86.5989</v>
       </c>
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.3">
@@ -9900,10 +9900,10 @@
         <v>209</v>
       </c>
       <c r="U112" s="2">
-        <v>15.7864</v>
+        <v>16.3048</v>
       </c>
       <c r="V112" s="2">
-        <v>-86.7941</v>
+        <v>-86.593800000000002</v>
       </c>
     </row>
     <row r="113" spans="1:22" x14ac:dyDescent="0.3">
@@ -9968,10 +9968,10 @@
         <v>210</v>
       </c>
       <c r="U113" s="2">
-        <v>15.7864</v>
+        <v>16.305700000000002</v>
       </c>
       <c r="V113" s="2">
-        <v>-86.792900000000003</v>
+        <v>-86.592699999999994</v>
       </c>
     </row>
     <row r="114" spans="1:22" x14ac:dyDescent="0.3">
@@ -10036,10 +10036,10 @@
         <v>216</v>
       </c>
       <c r="U114" s="2">
-        <v>15.7866</v>
+        <v>16.063800000000001</v>
       </c>
       <c r="V114" s="2">
-        <v>-86.793000000000006</v>
+        <v>-86.967399999999998</v>
       </c>
     </row>
     <row r="115" spans="1:22" x14ac:dyDescent="0.3">
@@ -10104,10 +10104,10 @@
         <v>217</v>
       </c>
       <c r="U115" s="2">
-        <v>15.786799999999999</v>
+        <v>16.063800000000001</v>
       </c>
       <c r="V115" s="2">
-        <v>-86.790599999999998</v>
+        <v>-86.967100000000002</v>
       </c>
     </row>
     <row r="116" spans="1:22" x14ac:dyDescent="0.3">
@@ -10172,10 +10172,10 @@
         <v>218</v>
       </c>
       <c r="U116" s="2">
-        <v>15.786899999999999</v>
+        <v>16.0641</v>
       </c>
       <c r="V116" s="2">
-        <v>-86.793099999999995</v>
+        <v>-86.965000000000003</v>
       </c>
     </row>
     <row r="117" spans="1:22" x14ac:dyDescent="0.3">
@@ -10240,10 +10240,10 @@
         <v>219</v>
       </c>
       <c r="U117" s="2">
-        <v>15.786899999999999</v>
+        <v>16.0642</v>
       </c>
       <c r="V117" s="2">
-        <v>-86.793099999999995</v>
+        <v>-86.965800000000002</v>
       </c>
     </row>
     <row r="118" spans="1:22" x14ac:dyDescent="0.3">
@@ -10308,10 +10308,10 @@
         <v>220</v>
       </c>
       <c r="U118" s="2">
-        <v>15.787000000000001</v>
+        <v>16.0944</v>
       </c>
       <c r="V118" s="2">
-        <v>-86.793099999999995</v>
+        <v>-86.892399999999995</v>
       </c>
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.3">
@@ -10376,10 +10376,10 @@
         <v>221</v>
       </c>
       <c r="U119" s="2">
-        <v>15.787100000000001</v>
+        <v>16.0961</v>
       </c>
       <c r="V119" s="2">
-        <v>-86.793400000000005</v>
+        <v>-86.894000000000005</v>
       </c>
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.3">
@@ -10444,10 +10444,10 @@
         <v>157</v>
       </c>
       <c r="U120" s="2">
-        <v>15.7872</v>
+        <v>16.102</v>
       </c>
       <c r="V120" s="2">
-        <v>-86.792500000000004</v>
+        <v>-86.894000000000005</v>
       </c>
     </row>
     <row r="121" spans="1:22" x14ac:dyDescent="0.3">
@@ -10512,10 +10512,10 @@
         <v>228</v>
       </c>
       <c r="U121" s="2">
-        <v>15.787699999999999</v>
+        <v>14.5891</v>
       </c>
       <c r="V121" s="2">
-        <v>-86.793700000000001</v>
+        <v>-88.582700000000003</v>
       </c>
     </row>
     <row r="122" spans="1:22" x14ac:dyDescent="0.3">
@@ -10580,10 +10580,10 @@
         <v>229</v>
       </c>
       <c r="U122" s="2">
-        <v>15.7883</v>
+        <v>14.590400000000001</v>
       </c>
       <c r="V122" s="2">
-        <v>-86.782700000000006</v>
+        <v>-88.584000000000003</v>
       </c>
     </row>
     <row r="123" spans="1:22" x14ac:dyDescent="0.3">
@@ -10648,10 +10648,10 @@
         <v>230</v>
       </c>
       <c r="U123" s="2">
-        <v>15.789400000000001</v>
+        <v>14.594900000000001</v>
       </c>
       <c r="V123" s="2">
-        <v>-86.792699999999996</v>
+        <v>-88.581699999999998</v>
       </c>
     </row>
     <row r="124" spans="1:22" x14ac:dyDescent="0.3">
@@ -10716,10 +10716,10 @@
         <v>238</v>
       </c>
       <c r="U124" s="2">
-        <v>15.7896</v>
+        <v>13.268700000000001</v>
       </c>
       <c r="V124" s="2">
-        <v>-86.792500000000004</v>
+        <v>-87.657600000000002</v>
       </c>
     </row>
     <row r="125" spans="1:22" x14ac:dyDescent="0.3">
@@ -10784,10 +10784,10 @@
         <v>87</v>
       </c>
       <c r="U125" s="2">
-        <v>15.7898</v>
+        <v>15.5343</v>
       </c>
       <c r="V125" s="2">
-        <v>-86.792100000000005</v>
+        <v>-87.653300000000002</v>
       </c>
     </row>
     <row r="126" spans="1:22" x14ac:dyDescent="0.3">
@@ -10852,10 +10852,10 @@
         <v>87</v>
       </c>
       <c r="U126" s="2">
-        <v>15.7902</v>
+        <v>15.5425</v>
       </c>
       <c r="V126" s="2">
-        <v>-86.792299999999997</v>
+        <v>-87.6524</v>
       </c>
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.3">
@@ -10920,10 +10920,10 @@
         <v>241</v>
       </c>
       <c r="U127" s="2">
-        <v>15.7906</v>
+        <v>15.549799999999999</v>
       </c>
       <c r="V127" s="2">
-        <v>-86.784499999999994</v>
+        <v>-87.651600000000002</v>
       </c>
     </row>
     <row r="128" spans="1:22" x14ac:dyDescent="0.3">
@@ -10988,10 +10988,10 @@
         <v>87</v>
       </c>
       <c r="U128" s="2">
-        <v>15.790800000000001</v>
+        <v>15.550800000000001</v>
       </c>
       <c r="V128" s="2">
-        <v>-86.790300000000002</v>
+        <v>-87.651399999999995</v>
       </c>
     </row>
     <row r="129" spans="1:22" x14ac:dyDescent="0.3">
@@ -11056,10 +11056,10 @@
         <v>87</v>
       </c>
       <c r="U129" s="2">
-        <v>15.790900000000001</v>
+        <v>15.552</v>
       </c>
       <c r="V129" s="2">
-        <v>-86.790300000000002</v>
+        <v>-87.651300000000006</v>
       </c>
     </row>
     <row r="130" spans="1:22" x14ac:dyDescent="0.3">
@@ -11124,10 +11124,10 @@
         <v>246</v>
       </c>
       <c r="U130" s="2">
-        <v>15.790900000000001</v>
+        <v>15.401400000000001</v>
       </c>
       <c r="V130" s="2">
-        <v>-86.790099999999995</v>
+        <v>-87.806600000000003</v>
       </c>
     </row>
     <row r="131" spans="1:22" x14ac:dyDescent="0.3">
@@ -11192,10 +11192,10 @@
         <v>247</v>
       </c>
       <c r="U131" s="2">
-        <v>15.791</v>
+        <v>15.402200000000001</v>
       </c>
       <c r="V131" s="2">
-        <v>-86.79</v>
+        <v>-87.802899999999994</v>
       </c>
     </row>
     <row r="132" spans="1:22" x14ac:dyDescent="0.3">
@@ -11260,10 +11260,10 @@
         <v>250</v>
       </c>
       <c r="U132" s="2">
-        <v>15.791399999999999</v>
+        <v>15.4876</v>
       </c>
       <c r="V132" s="2">
-        <v>-86.789500000000004</v>
+        <v>-87.758799999999994</v>
       </c>
     </row>
     <row r="133" spans="1:22" x14ac:dyDescent="0.3">
@@ -11328,10 +11328,10 @@
         <v>251</v>
       </c>
       <c r="U133" s="2">
-        <v>15.792299999999999</v>
+        <v>15.488</v>
       </c>
       <c r="V133" s="2">
-        <v>-86.788399999999996</v>
+        <v>-87.758899999999997</v>
       </c>
     </row>
     <row r="134" spans="1:22" x14ac:dyDescent="0.3">
@@ -11396,10 +11396,10 @@
         <v>252</v>
       </c>
       <c r="U134" s="2">
-        <v>15.792899999999999</v>
+        <v>14.0586</v>
       </c>
       <c r="V134" s="2">
-        <v>-86.764499999999998</v>
+        <v>-87.190100000000001</v>
       </c>
     </row>
     <row r="135" spans="1:22" x14ac:dyDescent="0.3">
@@ -11464,10 +11464,10 @@
         <v>253</v>
       </c>
       <c r="U135" s="2">
-        <v>15.7934</v>
+        <v>14.0589</v>
       </c>
       <c r="V135" s="2">
-        <v>-86.7624</v>
+        <v>-87.189400000000006</v>
       </c>
     </row>
     <row r="136" spans="1:22" x14ac:dyDescent="0.3">
@@ -11532,10 +11532,10 @@
         <v>254</v>
       </c>
       <c r="U136" s="2">
-        <v>15.794</v>
+        <v>14.058999999999999</v>
       </c>
       <c r="V136" s="2">
-        <v>-86.762100000000004</v>
+        <v>-87.189499999999995</v>
       </c>
     </row>
     <row r="137" spans="1:22" x14ac:dyDescent="0.3">
@@ -11600,10 +11600,10 @@
         <v>255</v>
       </c>
       <c r="U137" s="2">
-        <v>15.794600000000001</v>
+        <v>14.5405</v>
       </c>
       <c r="V137" s="2">
-        <v>-86.785600000000002</v>
+        <v>-86.829899999999995</v>
       </c>
     </row>
     <row r="138" spans="1:22" x14ac:dyDescent="0.3">
@@ -11668,10 +11668,10 @@
         <v>256</v>
       </c>
       <c r="U138" s="2">
-        <v>15.7951</v>
+        <v>14.5405</v>
       </c>
       <c r="V138" s="2">
-        <v>-86.783799999999999</v>
+        <v>-86.827500000000001</v>
       </c>
     </row>
     <row r="139" spans="1:22" x14ac:dyDescent="0.3">
@@ -11736,10 +11736,10 @@
         <v>257</v>
       </c>
       <c r="U139" s="2">
-        <v>15.7516</v>
+        <v>14.5444</v>
       </c>
       <c r="V139" s="2">
-        <v>-86.872100000000003</v>
+        <v>-86.829899999999995</v>
       </c>
     </row>
     <row r="140" spans="1:22" x14ac:dyDescent="0.3">
@@ -11804,10 +11804,10 @@
         <v>263</v>
       </c>
       <c r="U140" s="2">
-        <v>15.7532</v>
+        <v>14.438499999999999</v>
       </c>
       <c r="V140" s="2">
-        <v>-86.870900000000006</v>
+        <v>-89.183300000000003</v>
       </c>
     </row>
     <row r="141" spans="1:22" x14ac:dyDescent="0.3">
@@ -11872,10 +11872,10 @@
         <v>264</v>
       </c>
       <c r="U141" s="2">
-        <v>15.753399999999999</v>
+        <v>15.7735</v>
       </c>
       <c r="V141" s="2">
-        <v>-86.871099999999998</v>
+        <v>-86.791200000000003</v>
       </c>
     </row>
     <row r="142" spans="1:22" x14ac:dyDescent="0.3">
@@ -11940,10 +11940,10 @@
         <v>265</v>
       </c>
       <c r="U142" s="2">
-        <v>15.7547</v>
+        <v>15.777100000000001</v>
       </c>
       <c r="V142" s="2">
-        <v>-86.872699999999995</v>
+        <v>-86.787599999999998</v>
       </c>
     </row>
     <row r="143" spans="1:22" x14ac:dyDescent="0.3">
@@ -12008,10 +12008,10 @@
         <v>266</v>
       </c>
       <c r="U143" s="2">
-        <v>15.754799999999999</v>
+        <v>15.7829</v>
       </c>
       <c r="V143" s="2">
-        <v>-86.870199999999997</v>
+        <v>-87.450199999999995</v>
       </c>
     </row>
     <row r="144" spans="1:22" x14ac:dyDescent="0.3">
@@ -12076,10 +12076,10 @@
         <v>267</v>
       </c>
       <c r="U144" s="2">
-        <v>15.7552</v>
+        <v>15.7829</v>
       </c>
       <c r="V144" s="2">
-        <v>-86.869100000000003</v>
+        <v>-87.4512</v>
       </c>
     </row>
     <row r="145" spans="1:22" x14ac:dyDescent="0.3">
@@ -12144,10 +12144,10 @@
         <v>268</v>
       </c>
       <c r="U145" s="2">
-        <v>15.756600000000001</v>
+        <v>14.454000000000001</v>
       </c>
       <c r="V145" s="2">
-        <v>-86.872500000000002</v>
+        <v>-87.638900000000007</v>
       </c>
     </row>
     <row r="146" spans="1:22" x14ac:dyDescent="0.3">
@@ -12212,10 +12212,10 @@
         <v>268</v>
       </c>
       <c r="U146" s="2">
-        <v>15.7567</v>
+        <v>14.4597</v>
       </c>
       <c r="V146" s="2">
-        <v>-86.871399999999994</v>
+        <v>-87.6447</v>
       </c>
     </row>
     <row r="147" spans="1:22" x14ac:dyDescent="0.3">
@@ -12280,10 +12280,10 @@
         <v>269</v>
       </c>
       <c r="U147" s="2">
-        <v>15.7567</v>
+        <v>14.462300000000001</v>
       </c>
       <c r="V147" s="2">
-        <v>-86.869500000000002</v>
+        <v>-87.645600000000002</v>
       </c>
     </row>
     <row r="148" spans="1:22" x14ac:dyDescent="0.3">
@@ -12348,10 +12348,10 @@
         <v>270</v>
       </c>
       <c r="U148" s="2">
-        <v>15.7568</v>
+        <v>14.590199999999999</v>
       </c>
       <c r="V148" s="2">
-        <v>-86.871499999999997</v>
+        <v>-87.833200000000005</v>
       </c>
     </row>
     <row r="149" spans="1:22" x14ac:dyDescent="0.3">
@@ -12416,10 +12416,10 @@
         <v>271</v>
       </c>
       <c r="U149" s="2">
-        <v>15.757</v>
+        <v>15.486000000000001</v>
       </c>
       <c r="V149" s="2">
-        <v>-86.874399999999994</v>
+        <v>-88.014600000000002</v>
       </c>
     </row>
     <row r="150" spans="1:22" x14ac:dyDescent="0.3">
@@ -12484,10 +12484,10 @@
         <v>272</v>
       </c>
       <c r="U150" s="2">
-        <v>15.7575</v>
+        <v>15.493499999999999</v>
       </c>
       <c r="V150" s="2">
-        <v>-86.875399999999999</v>
+        <v>-87.984300000000005</v>
       </c>
     </row>
     <row r="151" spans="1:22" x14ac:dyDescent="0.3">
@@ -12552,10 +12552,10 @@
         <v>273</v>
       </c>
       <c r="U151" s="2">
-        <v>15.7577</v>
+        <v>15.498200000000001</v>
       </c>
       <c r="V151" s="2">
-        <v>-86.866299999999995</v>
+        <v>-88.046199999999999</v>
       </c>
     </row>
     <row r="152" spans="1:22" x14ac:dyDescent="0.3">
@@ -12620,10 +12620,10 @@
         <v>274</v>
       </c>
       <c r="U152" s="2">
-        <v>15.758100000000001</v>
+        <v>15.5021</v>
       </c>
       <c r="V152" s="2">
-        <v>-86.870699999999999</v>
+        <v>-88.036600000000007</v>
       </c>
     </row>
     <row r="153" spans="1:22" x14ac:dyDescent="0.3">
@@ -12688,10 +12688,10 @@
         <v>275</v>
       </c>
       <c r="U153" s="2">
-        <v>15.7583</v>
+        <v>15.507</v>
       </c>
       <c r="V153" s="2">
-        <v>-86.870900000000006</v>
+        <v>-88.027000000000001</v>
       </c>
     </row>
     <row r="154" spans="1:22" x14ac:dyDescent="0.3">
@@ -12756,10 +12756,10 @@
         <v>276</v>
       </c>
       <c r="U154" s="2">
-        <v>15.759600000000001</v>
+        <v>15.5124</v>
       </c>
       <c r="V154" s="2">
-        <v>-86.868300000000005</v>
+        <v>-88.036699999999996</v>
       </c>
     </row>
     <row r="155" spans="1:22" x14ac:dyDescent="0.3">
@@ -12824,10 +12824,10 @@
         <v>281</v>
       </c>
       <c r="U155" s="2">
-        <v>15.7597</v>
+        <v>15.565899999999999</v>
       </c>
       <c r="V155" s="2">
-        <v>-86.877200000000002</v>
+        <v>-87.959500000000006</v>
       </c>
     </row>
     <row r="156" spans="1:22" x14ac:dyDescent="0.3">
@@ -12892,10 +12892,10 @@
         <v>282</v>
       </c>
       <c r="U156" s="2">
-        <v>15.7601</v>
+        <v>15.6111</v>
       </c>
       <c r="V156" s="2">
-        <v>-86.876000000000005</v>
+        <v>-87.956100000000006</v>
       </c>
     </row>
     <row r="157" spans="1:22" x14ac:dyDescent="0.3">
@@ -12960,10 +12960,10 @@
         <v>284</v>
       </c>
       <c r="U157" s="2">
-        <v>15.7615</v>
+        <v>15.845499999999999</v>
       </c>
       <c r="V157" s="2">
-        <v>-86.875600000000006</v>
+        <v>-87.942499999999995</v>
       </c>
     </row>
     <row r="158" spans="1:22" x14ac:dyDescent="0.3">
@@ -13028,10 +13028,10 @@
         <v>285</v>
       </c>
       <c r="U158" s="2">
-        <v>15.7616</v>
+        <v>14.045199999999999</v>
       </c>
       <c r="V158" s="2">
-        <v>-86.869600000000005</v>
+        <v>-87.211500000000001</v>
       </c>
     </row>
     <row r="159" spans="1:22" x14ac:dyDescent="0.3">
@@ -13096,10 +13096,10 @@
         <v>285</v>
       </c>
       <c r="U159" s="2">
-        <v>15.7616</v>
+        <v>14.0458</v>
       </c>
       <c r="V159" s="2">
-        <v>-86.876400000000004</v>
+        <v>-87.2119</v>
       </c>
     </row>
     <row r="160" spans="1:22" x14ac:dyDescent="0.3">
@@ -13164,10 +13164,10 @@
         <v>286</v>
       </c>
       <c r="U160" s="2">
-        <v>15.7804</v>
+        <v>14.058999999999999</v>
       </c>
       <c r="V160" s="2">
-        <v>-86.680999999999997</v>
+        <v>-87.220600000000005</v>
       </c>
     </row>
     <row r="161" spans="1:22" x14ac:dyDescent="0.3">
@@ -13232,10 +13232,10 @@
         <v>287</v>
       </c>
       <c r="U161" s="2">
-        <v>15.787100000000001</v>
+        <v>14.060600000000001</v>
       </c>
       <c r="V161" s="2">
-        <v>-86.680800000000005</v>
+        <v>-87.220500000000001</v>
       </c>
     </row>
     <row r="162" spans="1:22" x14ac:dyDescent="0.3">
@@ -13300,10 +13300,10 @@
         <v>285</v>
       </c>
       <c r="U162" s="2">
-        <v>15.7631</v>
+        <v>14.065200000000001</v>
       </c>
       <c r="V162" s="2">
-        <v>-86.818899999999999</v>
+        <v>-87.1785</v>
       </c>
     </row>
     <row r="163" spans="1:22" x14ac:dyDescent="0.3">
@@ -13368,10 +13368,10 @@
         <v>285</v>
       </c>
       <c r="U163" s="2">
-        <v>15.7714</v>
+        <v>14.068</v>
       </c>
       <c r="V163" s="2">
-        <v>-86.801199999999994</v>
+        <v>-87.182699999999997</v>
       </c>
     </row>
     <row r="164" spans="1:22" x14ac:dyDescent="0.3">
@@ -13436,10 +13436,10 @@
         <v>288</v>
       </c>
       <c r="U164" s="2">
-        <v>15.774900000000001</v>
+        <v>14.069000000000001</v>
       </c>
       <c r="V164" s="2">
-        <v>-86.803700000000006</v>
+        <v>-87.184799999999996</v>
       </c>
     </row>
     <row r="165" spans="1:22" x14ac:dyDescent="0.3">
@@ -13504,10 +13504,10 @@
         <v>285</v>
       </c>
       <c r="U165" s="2">
-        <v>15.774900000000001</v>
+        <v>14.076700000000001</v>
       </c>
       <c r="V165" s="2">
-        <v>-86.8048</v>
+        <v>-87.186000000000007</v>
       </c>
     </row>
     <row r="166" spans="1:22" x14ac:dyDescent="0.3">
@@ -13572,10 +13572,10 @@
         <v>289</v>
       </c>
       <c r="U166" s="2">
-        <v>15.7751</v>
+        <v>14.0768</v>
       </c>
       <c r="V166" s="2">
-        <v>-86.8035</v>
+        <v>-87.186000000000007</v>
       </c>
     </row>
     <row r="167" spans="1:22" x14ac:dyDescent="0.3">
@@ -13640,10 +13640,10 @@
         <v>285</v>
       </c>
       <c r="U167" s="2">
-        <v>15.775600000000001</v>
+        <v>14.0852</v>
       </c>
       <c r="V167" s="2">
-        <v>-86.802599999999998</v>
+        <v>-87.186899999999994</v>
       </c>
     </row>
     <row r="168" spans="1:22" x14ac:dyDescent="0.3">
@@ -13708,10 +13708,10 @@
         <v>290</v>
       </c>
       <c r="U168" s="2">
-        <v>15.7759</v>
+        <v>14.0969</v>
       </c>
       <c r="V168" s="2">
-        <v>-86.803799999999995</v>
+        <v>-87.221999999999994</v>
       </c>
     </row>
     <row r="169" spans="1:22" x14ac:dyDescent="0.3">
@@ -13776,10 +13776,10 @@
         <v>285</v>
       </c>
       <c r="U169" s="2">
-        <v>15.777200000000001</v>
+        <v>14.098699999999999</v>
       </c>
       <c r="V169" s="2">
-        <v>-86.801599999999993</v>
+        <v>-87.227099999999993</v>
       </c>
     </row>
     <row r="170" spans="1:22" x14ac:dyDescent="0.3">
@@ -13844,10 +13844,10 @@
         <v>291</v>
       </c>
       <c r="U170" s="2">
-        <v>15.777200000000001</v>
+        <v>14.1006</v>
       </c>
       <c r="V170" s="2">
-        <v>-86.801500000000004</v>
+        <v>-87.193799999999996</v>
       </c>
     </row>
     <row r="171" spans="1:22" x14ac:dyDescent="0.3">
@@ -13912,10 +13912,10 @@
         <v>287</v>
       </c>
       <c r="U171" s="2">
-        <v>15.7773</v>
+        <v>14.1006</v>
       </c>
       <c r="V171" s="2">
-        <v>-86.801599999999993</v>
+        <v>-87.193899999999999</v>
       </c>
     </row>
     <row r="172" spans="1:22" x14ac:dyDescent="0.3">
@@ -13980,10 +13980,10 @@
         <v>292</v>
       </c>
       <c r="U172" s="2">
-        <v>15.7774</v>
+        <v>14.101699999999999</v>
       </c>
       <c r="V172" s="2">
-        <v>-86.801299999999998</v>
+        <v>-87.186800000000005</v>
       </c>
     </row>
     <row r="173" spans="1:22" x14ac:dyDescent="0.3">
@@ -14048,10 +14048,10 @@
         <v>285</v>
       </c>
       <c r="U173" s="2">
-        <v>15.7776</v>
+        <v>14.1058</v>
       </c>
       <c r="V173" s="2">
-        <v>-86.801199999999994</v>
+        <v>-87.197400000000002</v>
       </c>
     </row>
     <row r="174" spans="1:22" x14ac:dyDescent="0.3">
@@ -14116,10 +14116,10 @@
         <v>293</v>
       </c>
       <c r="U174" s="2">
-        <v>15.781599999999999</v>
+        <v>14.555400000000001</v>
       </c>
       <c r="V174" s="2">
-        <v>-86.802800000000005</v>
+        <v>-86.827799999999996</v>
       </c>
     </row>
     <row r="175" spans="1:22" x14ac:dyDescent="0.3">
@@ -14184,10 +14184,10 @@
         <v>294</v>
       </c>
       <c r="U175" s="2">
-        <v>15.6366</v>
+        <v>16.3063</v>
       </c>
       <c r="V175" s="2">
-        <v>-86.651200000000003</v>
+        <v>-86.589200000000005</v>
       </c>
     </row>
     <row r="176" spans="1:22" x14ac:dyDescent="0.3">
@@ -14252,10 +14252,10 @@
         <v>301</v>
       </c>
       <c r="U176" s="2">
-        <v>15.701499999999999</v>
+        <v>14.1562</v>
       </c>
       <c r="V176" s="2">
-        <v>-86.72</v>
+        <v>-88.035899999999998</v>
       </c>
     </row>
     <row r="177" spans="1:22" x14ac:dyDescent="0.3">
@@ -14320,10 +14320,10 @@
         <v>302</v>
       </c>
       <c r="U177" s="2">
-        <v>15.726900000000001</v>
+        <v>14.587300000000001</v>
       </c>
       <c r="V177" s="2">
-        <v>-86.740700000000004</v>
+        <v>-88.583100000000002</v>
       </c>
     </row>
     <row r="178" spans="1:22" x14ac:dyDescent="0.3">
@@ -14388,10 +14388,10 @@
         <v>303</v>
       </c>
       <c r="U178" s="2">
-        <v>15.7827</v>
+        <v>14.436299999999999</v>
       </c>
       <c r="V178" s="2">
-        <v>-86.684799999999996</v>
+        <v>-89.182299999999998</v>
       </c>
     </row>
     <row r="179" spans="1:22" x14ac:dyDescent="0.3">
@@ -14456,10 +14456,10 @@
         <v>304</v>
       </c>
       <c r="U179" s="2">
-        <v>15.7874</v>
+        <v>15.396100000000001</v>
       </c>
       <c r="V179" s="2">
-        <v>-86.688199999999995</v>
+        <v>-87.802400000000006</v>
       </c>
     </row>
     <row r="180" spans="1:22" x14ac:dyDescent="0.3">
@@ -14524,10 +14524,10 @@
         <v>305</v>
       </c>
       <c r="U180" s="2">
-        <v>15.662000000000001</v>
+        <v>15.399699999999999</v>
       </c>
       <c r="V180" s="2">
-        <v>-86.694599999999994</v>
+        <v>-87.811000000000007</v>
       </c>
     </row>
     <row r="181" spans="1:22" x14ac:dyDescent="0.3">
@@ -14592,10 +14592,10 @@
         <v>306</v>
       </c>
       <c r="U181" s="2">
-        <v>15.786799999999999</v>
+        <v>15.402200000000001</v>
       </c>
       <c r="V181" s="2">
-        <v>-86.619600000000005</v>
+        <v>-87.806399999999996</v>
       </c>
     </row>
     <row r="182" spans="1:22" x14ac:dyDescent="0.3">
@@ -14660,10 +14660,10 @@
         <v>307</v>
       </c>
       <c r="U182" s="2">
-        <v>15.7875</v>
+        <v>15.4023</v>
       </c>
       <c r="V182" s="2">
-        <v>-86.619500000000002</v>
+        <v>-87.807199999999995</v>
       </c>
     </row>
     <row r="183" spans="1:22" x14ac:dyDescent="0.3">
@@ -14728,10 +14728,10 @@
         <v>308</v>
       </c>
       <c r="U183" s="2">
-        <v>15.7963</v>
+        <v>15.776899999999999</v>
       </c>
       <c r="V183" s="2">
-        <v>-86.621300000000005</v>
+        <v>-86.768199999999993</v>
       </c>
     </row>
     <row r="184" spans="1:22" x14ac:dyDescent="0.3">
@@ -14796,10 +14796,10 @@
         <v>309</v>
       </c>
       <c r="U184" s="2">
-        <v>15.7416</v>
+        <v>15.784700000000001</v>
       </c>
       <c r="V184" s="2">
-        <v>-86.873400000000004</v>
+        <v>-86.793700000000001</v>
       </c>
     </row>
     <row r="185" spans="1:22" x14ac:dyDescent="0.3">
@@ -14864,10 +14864,10 @@
         <v>310</v>
       </c>
       <c r="U185" s="2">
-        <v>15.743399999999999</v>
+        <v>15.7851</v>
       </c>
       <c r="V185" s="2">
-        <v>-87.174199999999999</v>
+        <v>-86.791700000000006</v>
       </c>
     </row>
     <row r="186" spans="1:22" x14ac:dyDescent="0.3">
@@ -14932,10 +14932,10 @@
         <v>308</v>
       </c>
       <c r="U186" s="2">
-        <v>15.5977</v>
+        <v>15.783200000000001</v>
       </c>
       <c r="V186" s="2">
-        <v>-87.221299999999999</v>
+        <v>-87.451099999999997</v>
       </c>
     </row>
     <row r="187" spans="1:22" x14ac:dyDescent="0.3">
@@ -15000,10 +15000,10 @@
         <v>311</v>
       </c>
       <c r="U187" s="2">
-        <v>15.598800000000001</v>
+        <v>14.591699999999999</v>
       </c>
       <c r="V187" s="2">
-        <v>-87.217699999999994</v>
+        <v>-87.834299999999999</v>
       </c>
     </row>
     <row r="188" spans="1:22" x14ac:dyDescent="0.3">
@@ -15068,10 +15068,10 @@
         <v>311</v>
       </c>
       <c r="U188" s="2">
-        <v>15.6204</v>
+        <v>14.591799999999999</v>
       </c>
       <c r="V188" s="2">
-        <v>-87.094099999999997</v>
+        <v>-87.834199999999996</v>
       </c>
     </row>
     <row r="189" spans="1:22" x14ac:dyDescent="0.3">
@@ -15136,10 +15136,10 @@
         <v>311</v>
       </c>
       <c r="U189" s="2">
-        <v>15.5983</v>
+        <v>14.591900000000001</v>
       </c>
       <c r="V189" s="2">
-        <v>-87.216200000000001</v>
+        <v>-87.834199999999996</v>
       </c>
     </row>
     <row r="190" spans="1:22" x14ac:dyDescent="0.3">
@@ -15204,10 +15204,10 @@
         <v>308</v>
       </c>
       <c r="U190" s="2">
-        <v>15.5985</v>
+        <v>14.765599999999999</v>
       </c>
       <c r="V190" s="2">
-        <v>-87.216200000000001</v>
+        <v>-88.774699999999996</v>
       </c>
     </row>
     <row r="191" spans="1:22" x14ac:dyDescent="0.3">
@@ -15272,10 +15272,10 @@
         <v>319</v>
       </c>
       <c r="U191" s="2">
-        <v>15.5985</v>
+        <v>14.766</v>
       </c>
       <c r="V191" s="2">
-        <v>-87.214200000000005</v>
+        <v>-88.777199999999993</v>
       </c>
     </row>
     <row r="192" spans="1:22" x14ac:dyDescent="0.3">
@@ -15340,10 +15340,10 @@
         <v>325</v>
       </c>
       <c r="U192" s="2">
-        <v>15.5985</v>
+        <v>14.8377</v>
       </c>
       <c r="V192" s="2">
-        <v>-87.213999999999999</v>
+        <v>-89.156499999999994</v>
       </c>
     </row>
     <row r="193" spans="1:22" x14ac:dyDescent="0.3">
@@ -15408,10 +15408,10 @@
         <v>308</v>
       </c>
       <c r="U193" s="2">
-        <v>15.598599999999999</v>
+        <v>14.8407</v>
       </c>
       <c r="V193" s="2">
-        <v>-87.212699999999998</v>
+        <v>-89.155100000000004</v>
       </c>
     </row>
     <row r="194" spans="1:22" x14ac:dyDescent="0.3">
@@ -15476,10 +15476,10 @@
         <v>326</v>
       </c>
       <c r="U194" s="2">
-        <v>15.598699999999999</v>
+        <v>15.4938</v>
       </c>
       <c r="V194" s="2">
-        <v>-87.215400000000002</v>
+        <v>-87.983800000000002</v>
       </c>
     </row>
     <row r="195" spans="1:22" x14ac:dyDescent="0.3">
@@ -15544,10 +15544,10 @@
         <v>311</v>
       </c>
       <c r="U195" s="2">
-        <v>15.598800000000001</v>
+        <v>15.4971</v>
       </c>
       <c r="V195" s="2">
-        <v>-87.211100000000002</v>
+        <v>-87.987799999999993</v>
       </c>
     </row>
     <row r="196" spans="1:22" x14ac:dyDescent="0.3">
@@ -15612,10 +15612,10 @@
         <v>311</v>
       </c>
       <c r="U196" s="2">
-        <v>15.5989</v>
+        <v>15.5052</v>
       </c>
       <c r="V196" s="2">
-        <v>-87.208799999999997</v>
+        <v>-88.012</v>
       </c>
     </row>
     <row r="197" spans="1:22" x14ac:dyDescent="0.3">
@@ -15680,10 +15680,10 @@
         <v>311</v>
       </c>
       <c r="U197" s="2">
-        <v>15.5989</v>
+        <v>15.519600000000001</v>
       </c>
       <c r="V197" s="2">
-        <v>-87.211399999999998</v>
+        <v>-88.024799999999999</v>
       </c>
     </row>
     <row r="198" spans="1:22" x14ac:dyDescent="0.3">
@@ -15748,10 +15748,10 @@
         <v>327</v>
       </c>
       <c r="U198" s="2">
-        <v>15.5989</v>
+        <v>15.527100000000001</v>
       </c>
       <c r="V198" s="2">
-        <v>-87.213899999999995</v>
+        <v>-88.034899999999993</v>
       </c>
     </row>
     <row r="199" spans="1:22" x14ac:dyDescent="0.3">
@@ -15816,10 +15816,10 @@
         <v>328</v>
       </c>
       <c r="U199" s="2">
-        <v>15.599</v>
+        <v>15.603999999999999</v>
       </c>
       <c r="V199" s="2">
-        <v>-87.208200000000005</v>
+        <v>-87.953900000000004</v>
       </c>
     </row>
     <row r="200" spans="1:22" x14ac:dyDescent="0.3">
@@ -15884,10 +15884,10 @@
         <v>329</v>
       </c>
       <c r="U200" s="2">
-        <v>15.599</v>
+        <v>15.611599999999999</v>
       </c>
       <c r="V200" s="2">
-        <v>-87.210800000000006</v>
+        <v>-87.9465</v>
       </c>
     </row>
     <row r="201" spans="1:22" x14ac:dyDescent="0.3">
@@ -15952,10 +15952,10 @@
         <v>326</v>
       </c>
       <c r="U201" s="2">
-        <v>15.5992</v>
+        <v>15.613099999999999</v>
       </c>
       <c r="V201" s="2">
-        <v>-87.212299999999999</v>
+        <v>-87.957300000000004</v>
       </c>
     </row>
     <row r="202" spans="1:22" x14ac:dyDescent="0.3">
@@ -16020,10 +16020,10 @@
         <v>319</v>
       </c>
       <c r="U202" s="2">
-        <v>15.599399999999999</v>
+        <v>15.66</v>
       </c>
       <c r="V202" s="2">
-        <v>-87.204800000000006</v>
+        <v>-88.1982</v>
       </c>
     </row>
     <row r="203" spans="1:22" x14ac:dyDescent="0.3">
@@ -16088,10 +16088,10 @@
         <v>328</v>
       </c>
       <c r="U203" s="2">
-        <v>15.599399999999999</v>
+        <v>15.8446</v>
       </c>
       <c r="V203" s="2">
-        <v>-87.206400000000002</v>
+        <v>-87.933800000000005</v>
       </c>
     </row>
     <row r="204" spans="1:22" x14ac:dyDescent="0.3">
@@ -16156,10 +16156,10 @@
         <v>308</v>
       </c>
       <c r="U204" s="2">
-        <v>15.599500000000001</v>
+        <v>15.845000000000001</v>
       </c>
       <c r="V204" s="2">
-        <v>-87.205500000000001</v>
+        <v>-87.945400000000006</v>
       </c>
     </row>
     <row r="205" spans="1:22" x14ac:dyDescent="0.3">
@@ -16224,10 +16224,10 @@
         <v>335</v>
       </c>
       <c r="U205" s="2">
-        <v>15.599600000000001</v>
+        <v>15.847099999999999</v>
       </c>
       <c r="V205" s="2">
-        <v>-87.199399999999997</v>
+        <v>-87.946700000000007</v>
       </c>
     </row>
     <row r="206" spans="1:22" x14ac:dyDescent="0.3">
@@ -16292,10 +16292,10 @@
         <v>338</v>
       </c>
       <c r="U206" s="2">
-        <v>15.5997</v>
+        <v>14.966699999999999</v>
       </c>
       <c r="V206" s="2">
-        <v>-87.199100000000001</v>
+        <v>-88.025999999999996</v>
       </c>
     </row>
     <row r="207" spans="1:22" x14ac:dyDescent="0.3">
@@ -16360,10 +16360,10 @@
         <v>344</v>
       </c>
       <c r="U207" s="2">
-        <v>15.5997</v>
+        <v>13.3119</v>
       </c>
       <c r="V207" s="2">
-        <v>-87.198899999999995</v>
+        <v>-87.177300000000002</v>
       </c>
     </row>
     <row r="208" spans="1:22" x14ac:dyDescent="0.3">
@@ -16428,10 +16428,10 @@
         <v>308</v>
       </c>
       <c r="U208" s="2">
-        <v>15.5997</v>
+        <v>13.4322</v>
       </c>
       <c r="V208" s="2">
-        <v>-87.198800000000006</v>
+        <v>-86.808099999999996</v>
       </c>
     </row>
     <row r="209" spans="1:22" x14ac:dyDescent="0.3">
@@ -16496,10 +16496,10 @@
         <v>308</v>
       </c>
       <c r="U209" s="2">
-        <v>15.5997</v>
+        <v>13.432700000000001</v>
       </c>
       <c r="V209" s="2">
-        <v>-87.198499999999996</v>
+        <v>-86.807000000000002</v>
       </c>
     </row>
     <row r="210" spans="1:22" x14ac:dyDescent="0.3">
@@ -16564,10 +16564,10 @@
         <v>350</v>
       </c>
       <c r="U210" s="2">
-        <v>15.5999</v>
+        <v>14.0413</v>
       </c>
       <c r="V210" s="2">
-        <v>-87.201999999999998</v>
+        <v>-87.233099999999993</v>
       </c>
     </row>
     <row r="211" spans="1:22" x14ac:dyDescent="0.3">
@@ -16632,10 +16632,10 @@
         <v>308</v>
       </c>
       <c r="U211" s="2">
-        <v>15.5999</v>
+        <v>14.045199999999999</v>
       </c>
       <c r="V211" s="2">
-        <v>-87.199100000000001</v>
+        <v>-87.211200000000005</v>
       </c>
     </row>
     <row r="212" spans="1:22" x14ac:dyDescent="0.3">
@@ -16700,10 +16700,10 @@
         <v>311</v>
       </c>
       <c r="U212" s="2">
-        <v>15.5999</v>
+        <v>14.0457</v>
       </c>
       <c r="V212" s="2">
-        <v>-87.199399999999997</v>
+        <v>-87.2119</v>
       </c>
     </row>
     <row r="213" spans="1:22" x14ac:dyDescent="0.3">
@@ -16768,10 +16768,10 @@
         <v>351</v>
       </c>
       <c r="U213" s="2">
-        <v>15.6</v>
+        <v>14.0466</v>
       </c>
       <c r="V213" s="2">
-        <v>-87.198999999999998</v>
+        <v>-87.219700000000003</v>
       </c>
     </row>
     <row r="214" spans="1:22" x14ac:dyDescent="0.3">
@@ -16836,10 +16836,10 @@
         <v>309</v>
       </c>
       <c r="U214" s="2">
-        <v>15.600300000000001</v>
+        <v>14.053699999999999</v>
       </c>
       <c r="V214" s="2">
-        <v>-87.215100000000007</v>
+        <v>-87.229500000000002</v>
       </c>
     </row>
     <row r="215" spans="1:22" x14ac:dyDescent="0.3">
@@ -16904,10 +16904,10 @@
         <v>352</v>
       </c>
       <c r="U215" s="2">
-        <v>15.6004</v>
+        <v>14.0571</v>
       </c>
       <c r="V215" s="2">
-        <v>-87.2119</v>
+        <v>-87.236999999999995</v>
       </c>
     </row>
     <row r="216" spans="1:22" x14ac:dyDescent="0.3">
@@ -16972,10 +16972,10 @@
         <v>326</v>
       </c>
       <c r="U216" s="2">
-        <v>15.601000000000001</v>
+        <v>14.0632</v>
       </c>
       <c r="V216" s="2">
-        <v>-87.198999999999998</v>
+        <v>-87.220699999999994</v>
       </c>
     </row>
     <row r="217" spans="1:22" x14ac:dyDescent="0.3">
@@ -17040,10 +17040,10 @@
         <v>353</v>
       </c>
       <c r="U217" s="2">
-        <v>15.601100000000001</v>
+        <v>14.063599999999999</v>
       </c>
       <c r="V217" s="2">
-        <v>-87.199600000000004</v>
+        <v>-87.209800000000001</v>
       </c>
     </row>
     <row r="218" spans="1:22" x14ac:dyDescent="0.3">
@@ -17108,10 +17108,10 @@
         <v>256</v>
       </c>
       <c r="U218" s="2">
-        <v>15.602</v>
+        <v>14.066800000000001</v>
       </c>
       <c r="V218" s="2">
-        <v>-87.212199999999996</v>
+        <v>-87.179400000000001</v>
       </c>
     </row>
     <row r="219" spans="1:22" x14ac:dyDescent="0.3">
@@ -17176,10 +17176,10 @@
         <v>309</v>
       </c>
       <c r="U219" s="2">
-        <v>15.602499999999999</v>
+        <v>14.077299999999999</v>
       </c>
       <c r="V219" s="2">
-        <v>-87.211600000000004</v>
+        <v>-87.186499999999995</v>
       </c>
     </row>
     <row r="220" spans="1:22" x14ac:dyDescent="0.3">
@@ -17244,10 +17244,10 @@
         <v>309</v>
       </c>
       <c r="U220" s="2">
-        <v>15.6463</v>
+        <v>14.0885</v>
       </c>
       <c r="V220" s="2">
-        <v>-87.036000000000001</v>
+        <v>-87.182599999999994</v>
       </c>
     </row>
     <row r="221" spans="1:22" x14ac:dyDescent="0.3">
@@ -17312,10 +17312,10 @@
         <v>354</v>
       </c>
       <c r="U221" s="2">
-        <v>15.6639</v>
+        <v>14.0983</v>
       </c>
       <c r="V221" s="2">
-        <v>-87.045299999999997</v>
+        <v>-87.163600000000002</v>
       </c>
     </row>
     <row r="222" spans="1:22" x14ac:dyDescent="0.3">
@@ -17380,10 +17380,10 @@
         <v>308</v>
       </c>
       <c r="U222" s="2">
-        <v>15.7628</v>
+        <v>14.1006</v>
       </c>
       <c r="V222" s="2">
-        <v>-87.479900000000001</v>
+        <v>-87.209800000000001</v>
       </c>
     </row>
     <row r="223" spans="1:22" x14ac:dyDescent="0.3">
@@ -17448,10 +17448,10 @@
         <v>355</v>
       </c>
       <c r="U223" s="2">
-        <v>15.7629</v>
+        <v>14.1015</v>
       </c>
       <c r="V223" s="2">
-        <v>-87.477099999999993</v>
+        <v>-87.207899999999995</v>
       </c>
     </row>
     <row r="224" spans="1:22" x14ac:dyDescent="0.3">
@@ -17516,10 +17516,10 @@
         <v>309</v>
       </c>
       <c r="U224" s="2">
-        <v>15.7629</v>
+        <v>14.102</v>
       </c>
       <c r="V224" s="2">
-        <v>-87.476699999999994</v>
+        <v>-87.185299999999998</v>
       </c>
     </row>
     <row r="225" spans="1:22" x14ac:dyDescent="0.3">
@@ -17584,10 +17584,10 @@
         <v>308</v>
       </c>
       <c r="U225" s="2">
-        <v>15.7631</v>
+        <v>14.1028</v>
       </c>
       <c r="V225" s="2">
-        <v>-87.476299999999995</v>
+        <v>-87.178700000000006</v>
       </c>
     </row>
     <row r="226" spans="1:22" x14ac:dyDescent="0.3">
@@ -17652,10 +17652,10 @@
         <v>311</v>
       </c>
       <c r="U226" s="2">
-        <v>15.763199999999999</v>
+        <v>14.1046</v>
       </c>
       <c r="V226" s="2">
-        <v>-87.476100000000002</v>
+        <v>-87.205500000000001</v>
       </c>
     </row>
     <row r="227" spans="1:22" x14ac:dyDescent="0.3">
@@ -17720,10 +17720,10 @@
         <v>356</v>
       </c>
       <c r="U227" s="2">
-        <v>15.7651</v>
+        <v>14.1052</v>
       </c>
       <c r="V227" s="2">
-        <v>-87.480400000000003</v>
+        <v>-87.154700000000005</v>
       </c>
     </row>
     <row r="228" spans="1:22" x14ac:dyDescent="0.3">
@@ -17788,10 +17788,10 @@
         <v>256</v>
       </c>
       <c r="U228" s="2">
-        <v>15.766500000000001</v>
+        <v>14.1066</v>
       </c>
       <c r="V228" s="2">
-        <v>-87.48</v>
+        <v>-87.221199999999996</v>
       </c>
     </row>
     <row r="229" spans="1:22" x14ac:dyDescent="0.3">
@@ -17856,10 +17856,10 @@
         <v>357</v>
       </c>
       <c r="U229" s="2">
-        <v>15.767799999999999</v>
+        <v>14.1357</v>
       </c>
       <c r="V229" s="2">
-        <v>-87.480900000000005</v>
+        <v>-87.160799999999995</v>
       </c>
     </row>
     <row r="230" spans="1:22" x14ac:dyDescent="0.3">
@@ -17924,10 +17924,10 @@
         <v>308</v>
       </c>
       <c r="U230" s="2">
-        <v>15.7722</v>
+        <v>14.5405</v>
       </c>
       <c r="V230" s="2">
-        <v>-87.470399999999998</v>
+        <v>-86.830399999999997</v>
       </c>
     </row>
     <row r="231" spans="1:22" x14ac:dyDescent="0.3">
@@ -17992,10 +17992,10 @@
         <v>358</v>
       </c>
       <c r="U231" s="2">
-        <v>15.773400000000001</v>
+        <v>14.552199999999999</v>
       </c>
       <c r="V231" s="2">
-        <v>-87.448700000000002</v>
+        <v>-86.828000000000003</v>
       </c>
     </row>
     <row r="232" spans="1:22" x14ac:dyDescent="0.3">
@@ -18060,10 +18060,10 @@
         <v>359</v>
       </c>
       <c r="U232" s="2">
-        <v>15.7738</v>
+        <v>14.553000000000001</v>
       </c>
       <c r="V232" s="2">
-        <v>-87.475499999999997</v>
+        <v>-86.8279</v>
       </c>
     </row>
     <row r="233" spans="1:22" x14ac:dyDescent="0.3">
@@ -18128,10 +18128,10 @@
         <v>365</v>
       </c>
       <c r="U233" s="2">
-        <v>15.7738</v>
+        <v>14.011799999999999</v>
       </c>
       <c r="V233" s="2">
-        <v>-87.475399999999993</v>
+        <v>-87.013099999999994</v>
       </c>
     </row>
     <row r="234" spans="1:22" x14ac:dyDescent="0.3">
@@ -18196,10 +18196,10 @@
         <v>366</v>
       </c>
       <c r="U234" s="2">
-        <v>15.7738</v>
+        <v>14.1625</v>
       </c>
       <c r="V234" s="2">
-        <v>-87.475300000000004</v>
+        <v>-87.044300000000007</v>
       </c>
     </row>
     <row r="235" spans="1:22" x14ac:dyDescent="0.3">
@@ -18264,10 +18264,10 @@
         <v>308</v>
       </c>
       <c r="U235" s="2">
-        <v>15.774100000000001</v>
+        <v>14.485300000000001</v>
       </c>
       <c r="V235" s="2">
-        <v>-87.464399999999998</v>
+        <v>-87.982699999999994</v>
       </c>
     </row>
     <row r="236" spans="1:22" x14ac:dyDescent="0.3">
@@ -18332,10 +18332,10 @@
         <v>308</v>
       </c>
       <c r="U236" s="2">
-        <v>15.7744</v>
+        <v>14.4856</v>
       </c>
       <c r="V236" s="2">
-        <v>-87.446799999999996</v>
+        <v>-87.982100000000003</v>
       </c>
     </row>
     <row r="237" spans="1:22" x14ac:dyDescent="0.3">
@@ -18400,10 +18400,10 @@
         <v>374</v>
       </c>
       <c r="U237" s="2">
-        <v>15.774699999999999</v>
+        <v>14.485900000000001</v>
       </c>
       <c r="V237" s="2">
-        <v>-87.473600000000005</v>
+        <v>-87.980999999999995</v>
       </c>
     </row>
     <row r="238" spans="1:22" x14ac:dyDescent="0.3">
@@ -18468,10 +18468,10 @@
         <v>375</v>
       </c>
       <c r="U238" s="2">
-        <v>15.775399999999999</v>
+        <v>16.314299999999999</v>
       </c>
       <c r="V238" s="2">
-        <v>-87.444699999999997</v>
+        <v>-86.538499999999999</v>
       </c>
     </row>
     <row r="239" spans="1:22" x14ac:dyDescent="0.3">
@@ -18536,10 +18536,10 @@
         <v>376</v>
       </c>
       <c r="U239" s="2">
-        <v>15.775600000000001</v>
+        <v>16.095099999999999</v>
       </c>
       <c r="V239" s="2">
-        <v>-87.473799999999997</v>
+        <v>-86.892899999999997</v>
       </c>
     </row>
     <row r="240" spans="1:22" x14ac:dyDescent="0.3">
@@ -18604,10 +18604,10 @@
         <v>382</v>
       </c>
       <c r="U240" s="2">
-        <v>15.7789</v>
+        <v>14.246</v>
       </c>
       <c r="V240" s="2">
-        <v>-87.464799999999997</v>
+        <v>-87.8994</v>
       </c>
     </row>
     <row r="241" spans="1:22" x14ac:dyDescent="0.3">
@@ -18672,10 +18672,10 @@
         <v>383</v>
       </c>
       <c r="U241" s="2">
-        <v>15.7791</v>
+        <v>14.438000000000001</v>
       </c>
       <c r="V241" s="2">
-        <v>-87.451700000000002</v>
+        <v>-89.182100000000005</v>
       </c>
     </row>
     <row r="242" spans="1:22" x14ac:dyDescent="0.3">
@@ -18740,10 +18740,10 @@
         <v>389</v>
       </c>
       <c r="U242" s="2">
-        <v>15.7791</v>
+        <v>13.5337</v>
       </c>
       <c r="V242" s="2">
-        <v>-87.451700000000002</v>
+        <v>-87.496300000000005</v>
       </c>
     </row>
     <row r="243" spans="1:22" x14ac:dyDescent="0.3">
@@ -18808,10 +18808,10 @@
         <v>311</v>
       </c>
       <c r="U243" s="2">
-        <v>15.7791</v>
+        <v>13.4329</v>
       </c>
       <c r="V243" s="2">
-        <v>-87.451700000000002</v>
+        <v>-87.450699999999998</v>
       </c>
     </row>
     <row r="244" spans="1:22" x14ac:dyDescent="0.3">
@@ -18876,10 +18876,10 @@
         <v>394</v>
       </c>
       <c r="U244" s="2">
-        <v>15.779199999999999</v>
+        <v>15.4025</v>
       </c>
       <c r="V244" s="2">
-        <v>-87.464799999999997</v>
+        <v>-87.796800000000005</v>
       </c>
     </row>
     <row r="245" spans="1:22" x14ac:dyDescent="0.3">
@@ -18944,10 +18944,10 @@
         <v>394</v>
       </c>
       <c r="U245" s="2">
-        <v>15.780099999999999</v>
+        <v>15.4025</v>
       </c>
       <c r="V245" s="2">
-        <v>-87.457400000000007</v>
+        <v>-87.796800000000005</v>
       </c>
     </row>
     <row r="246" spans="1:22" x14ac:dyDescent="0.3">
@@ -19012,10 +19012,10 @@
         <v>308</v>
       </c>
       <c r="U246" s="2">
-        <v>15.780099999999999</v>
+        <v>15.402900000000001</v>
       </c>
       <c r="V246" s="2">
-        <v>-87.457300000000004</v>
+        <v>-87.806899999999999</v>
       </c>
     </row>
     <row r="247" spans="1:22" x14ac:dyDescent="0.3">
@@ -19080,10 +19080,10 @@
         <v>308</v>
       </c>
       <c r="U247" s="2">
-        <v>15.780099999999999</v>
+        <v>15.402900000000001</v>
       </c>
       <c r="V247" s="2">
-        <v>-87.457300000000004</v>
+        <v>-87.806899999999999</v>
       </c>
     </row>
     <row r="248" spans="1:22" x14ac:dyDescent="0.3">
@@ -19148,10 +19148,10 @@
         <v>397</v>
       </c>
       <c r="U248" s="2">
-        <v>15.780099999999999</v>
+        <v>15.3802</v>
       </c>
       <c r="V248" s="2">
-        <v>-87.4572</v>
+        <v>-87.808700000000002</v>
       </c>
     </row>
     <row r="249" spans="1:22" x14ac:dyDescent="0.3">
@@ -19216,10 +19216,10 @@
         <v>400</v>
       </c>
       <c r="U249" s="2">
-        <v>15.7803</v>
+        <v>15.3644</v>
       </c>
       <c r="V249" s="2">
-        <v>-87.456800000000001</v>
+        <v>-87.791200000000003</v>
       </c>
     </row>
     <row r="250" spans="1:22" x14ac:dyDescent="0.3">
@@ -19284,10 +19284,10 @@
         <v>403</v>
       </c>
       <c r="U250" s="2">
-        <v>15.7803</v>
+        <v>15.420199999999999</v>
       </c>
       <c r="V250" s="2">
-        <v>-87.456699999999998</v>
+        <v>-87.786000000000001</v>
       </c>
     </row>
     <row r="251" spans="1:22" x14ac:dyDescent="0.3">
@@ -19352,10 +19352,10 @@
         <v>409</v>
       </c>
       <c r="U251" s="2">
-        <v>15.7803</v>
+        <v>15.320600000000001</v>
       </c>
       <c r="V251" s="2">
-        <v>-87.476900000000001</v>
+        <v>-87.600700000000003</v>
       </c>
     </row>
     <row r="252" spans="1:22" x14ac:dyDescent="0.3">
@@ -19420,10 +19420,10 @@
         <v>410</v>
       </c>
       <c r="U252" s="2">
-        <v>15.7804</v>
+        <v>15.321099999999999</v>
       </c>
       <c r="V252" s="2">
-        <v>-87.451800000000006</v>
+        <v>-87.5989</v>
       </c>
     </row>
     <row r="253" spans="1:22" x14ac:dyDescent="0.3">
@@ -19488,10 +19488,10 @@
         <v>411</v>
       </c>
       <c r="U253" s="2">
-        <v>15.7804</v>
+        <v>14.106299999999999</v>
       </c>
       <c r="V253" s="2">
-        <v>-87.456999999999994</v>
+        <v>-87.218900000000005</v>
       </c>
     </row>
     <row r="254" spans="1:22" x14ac:dyDescent="0.3">
@@ -19556,10 +19556,10 @@
         <v>412</v>
       </c>
       <c r="U254" s="2">
-        <v>15.7804</v>
+        <v>16.0976</v>
       </c>
       <c r="V254" s="2">
-        <v>-87.453800000000001</v>
+        <v>-86.896100000000004</v>
       </c>
     </row>
     <row r="255" spans="1:22" x14ac:dyDescent="0.3">
@@ -19624,10 +19624,10 @@
         <v>413</v>
       </c>
       <c r="U255" s="2">
-        <v>15.7805</v>
+        <v>14.5892</v>
       </c>
       <c r="V255" s="2">
-        <v>-87.456800000000001</v>
+        <v>-88.582599999999999</v>
       </c>
     </row>
   </sheetData>
